--- a/rasp_data/ФТИ_маг_1к_21-22_осень.xlsx
+++ b/rasp_data/ФТИ_маг_1к_21-22_осень.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\umu-rasp\Pub\Осень_21-22\Магистры\ФТИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\umu-rasp\Pub\Осень_21-22\Магистры\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="186">
   <si>
     <t>ВТОРНИК</t>
   </si>
@@ -188,19 +188,7 @@
     <t>Ссылка</t>
   </si>
   <si>
-    <t>ЛК</t>
-  </si>
-  <si>
-    <t>ПР</t>
-  </si>
-  <si>
     <t>В-421</t>
-  </si>
-  <si>
-    <t>ГСОЕИ</t>
-  </si>
-  <si>
-    <t>ЛБ</t>
   </si>
   <si>
     <t>Николаев Ю.Л.</t>
@@ -225,88 +213,25 @@
     <t>https://online-edu.mirea.ru</t>
   </si>
   <si>
-    <t>ИиПССи</t>
-  </si>
-  <si>
     <t>Хомутова Е.Г.</t>
   </si>
   <si>
     <t>Останина О.И.</t>
   </si>
   <si>
-    <t>Метрологическое обеспечекние в ПСиНИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Стандартизация и метрологгия в ПТ</t>
-  </si>
-  <si>
-    <t>2,4,6,8,10,12,14,16  Стандартизация и метрологгия в ПТ</t>
-  </si>
-  <si>
     <t>Спиридонова А.А.</t>
   </si>
   <si>
-    <t>3,7,11,15 Социология и педагогика в ВШ</t>
-  </si>
-  <si>
     <t>Посохова А.В.</t>
   </si>
   <si>
-    <t>Социология и педагогика в ВШ</t>
-  </si>
-  <si>
-    <t>Прикладная метрология</t>
-  </si>
-  <si>
-    <t>7-17 н. Метрологическое обеспечение в НК</t>
-  </si>
-  <si>
-    <t>7-17н.  Метрологическое обеспечение в НК</t>
-  </si>
-  <si>
-    <t>6-18 н.  Метрологическое обеспечение в НК</t>
-  </si>
-  <si>
-    <t>6,8,10н.  Метрологическое обеспечение в НК</t>
-  </si>
-  <si>
     <t>кр. 10 н. Прикладная метрология</t>
   </si>
   <si>
-    <t>кр. 10 н. ГСОЕИ</t>
-  </si>
-  <si>
-    <t>7,9,11 н. Метрологическое обеспечение в НК</t>
-  </si>
-  <si>
-    <t>16,18 н. ГСОЕИ</t>
-  </si>
-  <si>
-    <t>ПР+ЛБ</t>
-  </si>
-  <si>
     <t>Катахова Н.В.</t>
   </si>
   <si>
     <t>Б-407</t>
-  </si>
-  <si>
-    <t>Коммуникативные технологии в ПС на иностранном языке</t>
-  </si>
-  <si>
-    <t>6,8 н.  Метрологическое обеспечение в НК 16,18н. Прикладная метрология</t>
-  </si>
-  <si>
-    <t>ЛБ                 ПР</t>
-  </si>
-  <si>
-    <t>Николаев Ю.Л. Вишнеков А.В.</t>
-  </si>
-  <si>
-    <t>В-421       В-421</t>
-  </si>
-  <si>
-    <t>2,4,6,8,10,12,14,16 н. Стандартизация и метрологгия в ПТ</t>
   </si>
   <si>
     <r>
@@ -367,64 +292,16 @@
 ТиУМиН</t>
   </si>
   <si>
-    <t>Физика МиС МиНЭ</t>
-  </si>
-  <si>
-    <t>Н.Э. Шерстюк</t>
-  </si>
-  <si>
     <t>В-211</t>
   </si>
   <si>
-    <t>Процессы МЭ производства</t>
-  </si>
-  <si>
-    <t>ЛР</t>
-  </si>
-  <si>
     <t>В-205</t>
   </si>
   <si>
     <t>А-322</t>
   </si>
   <si>
-    <t>Орг. исслед. в электр.</t>
-  </si>
-  <si>
-    <t>Е.Д. Мишина</t>
-  </si>
-  <si>
     <t>В-206</t>
-  </si>
-  <si>
-    <t>ПП приборы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПП приборы </t>
-  </si>
-  <si>
-    <t>Физ. химия матер. МЭ</t>
-  </si>
-  <si>
-    <t>А.А. Буш</t>
-  </si>
-  <si>
-    <t>Сок. Гора</t>
-  </si>
-  <si>
-    <t>К.Е. Каменцев</t>
-  </si>
-  <si>
-    <t>Социология</t>
-  </si>
-  <si>
-    <t>МП (Д)</t>
-  </si>
-  <si>
-    <t>Ин. язык</t>
-  </si>
-  <si>
-    <t>каф. ИЯ</t>
   </si>
   <si>
     <t>ЭОМО-01-21</t>
@@ -443,15 +320,9 @@
     <t>В-402</t>
   </si>
   <si>
-    <t>Мат. аппарат современной оптики</t>
-  </si>
-  <si>
     <t>пр</t>
   </si>
   <si>
-    <t>Моделирование и проектирование ОЭПС</t>
-  </si>
-  <si>
     <t>Кретушев А.В.</t>
   </si>
   <si>
@@ -461,34 +332,19 @@
     <t>лк</t>
   </si>
   <si>
-    <t xml:space="preserve">Моделирование и проектирование ОЭПС </t>
-  </si>
-  <si>
     <t>лаб</t>
   </si>
   <si>
-    <t>Иностранный язык</t>
-  </si>
-  <si>
     <t>каф.</t>
   </si>
   <si>
-    <t>Интеллектуальная деятельность в НИ в области ОТ</t>
-  </si>
-  <si>
     <t>Кузнецов В.В.</t>
   </si>
   <si>
     <t>Устройства управления и преобразования лазерного излучения</t>
   </si>
   <si>
-    <t>Гущо Ю.П.</t>
-  </si>
-  <si>
     <t>10,12,14,16 н.Устройства управления и преобразования лазерного излучения</t>
-  </si>
-  <si>
-    <t>Информационная оптика</t>
   </si>
   <si>
     <r>
@@ -507,13 +363,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Твердотельная фотоэлектроника и ОЭС ночного видения 
-</t>
-  </si>
-  <si>
-    <t>Твердотельная фотоэлектроника и ОЭС ночного видения</t>
-  </si>
-  <si>
     <t>Фотоприемные устройства инфракрасного диапазона</t>
   </si>
   <si>
@@ -545,9 +394,6 @@
     <t>Азарова В.В.</t>
   </si>
   <si>
-    <t xml:space="preserve">Оптика и физика лазеров </t>
-  </si>
-  <si>
     <t>Кротов Ю.А.</t>
   </si>
   <si>
@@ -557,39 +403,6 @@
     <t>Фетисов Ю.К.</t>
   </si>
   <si>
-    <t xml:space="preserve">3,5,7,9,11,13 н Комп. технол. и авт. экспер.    </t>
-  </si>
-  <si>
-    <t>Н.В. Зенченко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-8 н Комп. технол. и авт. экспер.    </t>
-  </si>
-  <si>
-    <t>А.М. Буряков</t>
-  </si>
-  <si>
-    <t>В-203</t>
-  </si>
-  <si>
-    <t>2,4,6,8,10,12 н Комп. технол. и авт. экспер.</t>
-  </si>
-  <si>
-    <t>И.А. Глинский</t>
-  </si>
-  <si>
-    <t>кр. 2 н. ГСОЕИ</t>
-  </si>
-  <si>
-    <t>Пашенцев В.Н.</t>
-  </si>
-  <si>
-    <t>Стандартизация и метрологгия в ПТ</t>
-  </si>
-  <si>
-    <t>2 н. ГСОЕИ</t>
-  </si>
-  <si>
     <t>……………………</t>
   </si>
   <si>
@@ -600,13 +413,261 @@
   </si>
   <si>
     <t>Колесникова Т.Г.</t>
+  </si>
+  <si>
+    <t>…………………….</t>
+  </si>
+  <si>
+    <t>………………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шерстюк Н.Э. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мишина Е.Д. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зенченко Н.В. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Глинский И.А. </t>
+  </si>
+  <si>
+    <t>7,9 н. Государственная система обеспечения единства измерений</t>
+  </si>
+  <si>
+    <t>6,8,10 н. Государственная система обеспечения единства измерений</t>
+  </si>
+  <si>
+    <t>7,9,11,13,15 н. Государственная система обеспечения единства измерений</t>
+  </si>
+  <si>
+    <t>6,8,10,12,14,16 н. Государственная система обеспечения единства измерений</t>
+  </si>
+  <si>
+    <t>7,9,11,13,15,17 н. Государственная система обеспечения единства измерений</t>
+  </si>
+  <si>
+    <t>Николаев Ю.Л. 
+Вишнеков А.В.</t>
+  </si>
+  <si>
+    <t>Физика материалов и структур микро- и наноэлектроники</t>
+  </si>
+  <si>
+    <t>2-16 н. Физика материалов и структур микро- и наноэлектроники</t>
+  </si>
+  <si>
+    <t>Организация исследований в электронике</t>
+  </si>
+  <si>
+    <t>Полупроводниковые приборы</t>
+  </si>
+  <si>
+    <t>Процессы микроэлектронного производства</t>
+  </si>
+  <si>
+    <t>1-17 н. Полупроводниковые приборы</t>
+  </si>
+  <si>
+    <t>2-12 н. Полупроводниковые приборы</t>
+  </si>
+  <si>
+    <t>3-17 н. Коммуникативные технологии в профессиональной сфере на иностранном языке</t>
+  </si>
+  <si>
+    <t>2-16 н. Процессы микроэлектронного производства</t>
+  </si>
+  <si>
+    <t>3,5,7,9,11,13 н. Компьютерные технологии и автоматизация эксперимента</t>
+  </si>
+  <si>
+    <t>2,4,6,8,10,12 н. Компьютерные технологии и автоматизация эксперимента</t>
+  </si>
+  <si>
+    <t>Физическая химия материалов микроэлектроники</t>
+  </si>
+  <si>
+    <t>*СГ-22</t>
+  </si>
+  <si>
+    <t>3-17 н. Физическая химия материалов микроэлектроники</t>
+  </si>
+  <si>
+    <t>3-17 н. Социология</t>
+  </si>
+  <si>
+    <t>Математический аппарат современной оптики</t>
+  </si>
+  <si>
+    <t>4-18 н. Математический аппарат современной оптики</t>
+  </si>
+  <si>
+    <t>3-17 н. Фотоприемные устройства инфракрасного диапазона</t>
+  </si>
+  <si>
+    <t>3-17 н. Устройства управления и преобразования лазерного излучения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-16 н. Оптика и физика лазеров </t>
+  </si>
+  <si>
+    <t>3-17 н. Материалы квантовой электроники</t>
+  </si>
+  <si>
+    <t>3-17 н. Информационная оптика</t>
+  </si>
+  <si>
+    <t>В-203
+В-203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Буряков А.М. 
+Буряков А.М. </t>
+  </si>
+  <si>
+    <t>лк
+лк</t>
+  </si>
+  <si>
+    <t>Миролюбова Н.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-8 н. Компьютерные технологии и автоматизация эксперимента  
+10-16 н. Компьютерные технологии и автоматизация эксперимента  </t>
+  </si>
+  <si>
+    <t>Ефременко В.В.</t>
+  </si>
+  <si>
+    <t>С-20* 350</t>
+  </si>
+  <si>
+    <t>Крупина Н.В.</t>
+  </si>
+  <si>
+    <t>3-17 н. Испытания и подтверждение соответствия средств измерений</t>
+  </si>
+  <si>
+    <t>2-16 н. Испытания и подтверждение соответствия средств измерений</t>
+  </si>
+  <si>
+    <t>3-17 н. Прикладная метрология</t>
+  </si>
+  <si>
+    <t>2-16 н. Прикладная метрология</t>
+  </si>
+  <si>
+    <t>1-17 н. Прикладная метрология</t>
+  </si>
+  <si>
+    <t>1-15 н. Испытания и подтверждение соответствия средств измерений</t>
+  </si>
+  <si>
+    <t>3-17 н. Метрологическое обеспечение в производственной сфере и научных исследованиях</t>
+  </si>
+  <si>
+    <t>2-16 н. Метрологическое обеспечение в производственной сфере и научных исследованиях</t>
+  </si>
+  <si>
+    <t>3-17 н. Стандартизация и метрология в приоритетных  технологиях</t>
+  </si>
+  <si>
+    <t>6-18 н. Метрологическое обеспечение в неразрушающем контроле</t>
+  </si>
+  <si>
+    <t>7-17 н. Метрологическое обеспечение в неразрушающем контроле</t>
+  </si>
+  <si>
+    <t>2,4,6,8,10,12,14,16 н. Стандартизация и метрология в приоритетных  технологиях</t>
+  </si>
+  <si>
+    <t>Стандартизация и метрология в приоритетных  технологиях</t>
+  </si>
+  <si>
+    <t>1-15 н. Коммуникативные технологии в профессиональной сфере на иностранном языке</t>
+  </si>
+  <si>
+    <t>2-16 н. Коммуникативные технологии в профессиональной сфере на иностранном языке</t>
+  </si>
+  <si>
+    <t>6,8 н. Метрологическое обеспечение в неразрушающем контроле 
+16 н. Прикладная метрология</t>
+  </si>
+  <si>
+    <t>1-15 н. Метрологическое обеспечение в производственной сфере и научных исследованиях</t>
+  </si>
+  <si>
+    <t>1-15 н. Социология и педагогика высшей школы</t>
+  </si>
+  <si>
+    <t>6,8,10 н. Метрологическое обеспечение в неразрушающем контроле</t>
+  </si>
+  <si>
+    <t>3,7,11,15 н. Социология и педагогика высшей школы</t>
+  </si>
+  <si>
+    <t>2-16 н. Интеллектуальная деятельность в научных исследованиях в области оптической техники</t>
+  </si>
+  <si>
+    <t>Моделирование и проектирование оптико-электронных приборов и систем</t>
+  </si>
+  <si>
+    <t>2-16 н. Моделирование и проектирование оптико-электронных приборов и систем</t>
+  </si>
+  <si>
+    <t>10,12,14,16 н. Устройства управления и преобразования лазерного излучения</t>
+  </si>
+  <si>
+    <t>Твердотельная фотоэлектроника и оптико-электронные системы ночного видения</t>
+  </si>
+  <si>
+    <t>2-16 н. Твердотельная фотоэлектроника и оптико-электронные системы ночного видения</t>
+  </si>
+  <si>
+    <t>лаб
+пр</t>
+  </si>
+  <si>
+    <t>А-136</t>
+  </si>
+  <si>
+    <t>Холоднов В.А.</t>
+  </si>
+  <si>
+    <t>Тренина Е.О.</t>
+  </si>
+  <si>
+    <t>Берикашвили В.Ш.</t>
+  </si>
+  <si>
+    <t>Буш А.А.</t>
+  </si>
+  <si>
+    <t>Каменцев К.Е.</t>
+  </si>
+  <si>
+    <t>В-421      
+В-421</t>
+  </si>
+  <si>
+    <t>9,11,13,15 н. Государственная система обеспечения единства измерений</t>
+  </si>
+  <si>
+    <t>8,12,14,16 н. Государственная система обеспечения единства измерений</t>
+  </si>
+  <si>
+    <t>6-16 н.  Метрологическое обеспечение в неразрушающем контроле</t>
+  </si>
+  <si>
+    <t>7,9,11,13 н. Метрологическое обеспечение в неразрушающем контроле</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,15 +1025,20 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arimo"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1113,20 +1179,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1143,12 +1197,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1719,6 +1791,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1726,7 +1826,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2038,9 +2138,6 @@
     <xf numFmtId="0" fontId="36" fillId="13" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2068,9 +2165,6 @@
     <xf numFmtId="0" fontId="35" fillId="14" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="14" borderId="29" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2083,16 +2177,10 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="14" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2151,115 +2239,124 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2268,71 +2365,97 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="44" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2477,16 +2600,10 @@
     <xf numFmtId="0" fontId="51" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2500,14 +2617,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFDDDDDD"/>
+      <color rgb="FF9999FF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFFFCC99"/>
-      <color rgb="FF9999FF"/>
       <color rgb="FF6666FF"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFFBFECE"/>
       <color rgb="FFFFD2CD"/>
-      <color rgb="FFDDDDDD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2793,7 +2910,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
@@ -2839,121 +2956,123 @@
     <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="112.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:40" ht="99" customHeight="1" thickBot="1">
       <c r="A1" s="5"/>
-      <c r="B1" s="247" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-      <c r="L1" s="247"/>
-      <c r="M1" s="247"/>
-      <c r="N1" s="247"/>
+      <c r="B1" s="254" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="254"/>
       <c r="O1" s="71"/>
-      <c r="P1" s="265" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
-      <c r="S1" s="266"/>
+      <c r="P1" s="272" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="273"/>
+      <c r="R1" s="273"/>
+      <c r="S1" s="273"/>
       <c r="T1" s="71"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="247" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="247"/>
-      <c r="X1" s="247"/>
-      <c r="Y1" s="247"/>
-      <c r="Z1" s="247"/>
-      <c r="AA1" s="247"/>
-      <c r="AB1" s="247"/>
-      <c r="AC1" s="247"/>
-      <c r="AD1" s="247"/>
-      <c r="AE1" s="247"/>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="247"/>
-      <c r="AH1" s="247"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="265" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK1" s="266"/>
-      <c r="AL1" s="266"/>
-      <c r="AM1" s="266"/>
+      <c r="V1" s="254" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="254"/>
+      <c r="AA1" s="254"/>
+      <c r="AB1" s="254"/>
+      <c r="AC1" s="254"/>
+      <c r="AD1" s="254"/>
+      <c r="AE1" s="254"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="254"/>
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="128"/>
+      <c r="AJ1" s="272" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK1" s="273"/>
+      <c r="AL1" s="273"/>
+      <c r="AM1" s="273"/>
       <c r="AN1" s="71"/>
     </row>
-    <row r="2" spans="1:40" s="18" customFormat="1" ht="71.45" customHeight="1">
-      <c r="A2" s="238" t="s">
+    <row r="2" spans="1:40" s="18" customFormat="1" ht="84.75" customHeight="1">
+      <c r="A2" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="240" t="s">
+      <c r="B2" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="242"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="249"/>
       <c r="F2" s="45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G2" s="52" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="55"/>
+        <v>57</v>
+      </c>
+      <c r="I2" s="55">
+        <v>13</v>
+      </c>
       <c r="J2" s="72"/>
       <c r="K2" s="45" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="L2" s="52" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="M2" s="56" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="N2" s="55">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O2" s="72"/>
       <c r="P2" s="45" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="52" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="R2" s="56" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="S2" s="55">
         <v>10</v>
       </c>
       <c r="T2" s="72"/>
-      <c r="U2" s="238" t="s">
+      <c r="U2" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="240" t="s">
+      <c r="V2" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="241"/>
-      <c r="X2" s="241"/>
-      <c r="Y2" s="242"/>
+      <c r="W2" s="248"/>
+      <c r="X2" s="248"/>
+      <c r="Y2" s="249"/>
       <c r="Z2" s="54" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="AA2" s="52"/>
       <c r="AB2" s="53"/>
       <c r="AC2" s="55"/>
       <c r="AD2" s="72"/>
       <c r="AE2" s="54" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="AF2" s="52"/>
       <c r="AG2" s="53"/>
@@ -2966,7 +3085,7 @@
       <c r="AN2" s="72"/>
     </row>
     <row r="3" spans="1:40" s="2" customFormat="1" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A3" s="239"/>
+      <c r="A3" s="246"/>
       <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
@@ -2979,19 +3098,19 @@
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="73" t="s">
+      <c r="J3" s="213" t="s">
         <v>52</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -3024,7 +3143,7 @@
       <c r="T3" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="239"/>
+      <c r="U3" s="246"/>
       <c r="V3" s="11" t="s">
         <v>15</v>
       </c>
@@ -3084,26 +3203,36 @@
       </c>
     </row>
     <row r="4" spans="1:40" ht="30.75" customHeight="1">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="252" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="243">
-        <v>1</v>
-      </c>
-      <c r="C4" s="244" t="s">
+      <c r="B4" s="250">
+        <v>1</v>
+      </c>
+      <c r="C4" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="244" t="s">
+      <c r="D4" s="251" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="74"/>
+      <c r="F4" s="206" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="207" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="200" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="208" t="s">
+        <v>60</v>
+      </c>
       <c r="K4" s="21"/>
       <c r="L4" s="19"/>
       <c r="M4" s="47"/>
@@ -3114,16 +3243,16 @@
       <c r="R4" s="47"/>
       <c r="S4" s="31"/>
       <c r="T4" s="74"/>
-      <c r="U4" s="245" t="s">
+      <c r="U4" s="252" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="243">
-        <v>1</v>
-      </c>
-      <c r="W4" s="244" t="s">
+      <c r="V4" s="250">
+        <v>1</v>
+      </c>
+      <c r="W4" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="244" t="s">
+      <c r="X4" s="251" t="s">
         <v>27</v>
       </c>
       <c r="Y4" s="57" t="s">
@@ -3146,18 +3275,28 @@
       <c r="AN4" s="74"/>
     </row>
     <row r="5" spans="1:40" ht="30.75" customHeight="1">
-      <c r="A5" s="246"/>
-      <c r="B5" s="229"/>
-      <c r="C5" s="227"/>
-      <c r="D5" s="227"/>
+      <c r="A5" s="253"/>
+      <c r="B5" s="236"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
       <c r="E5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="75"/>
+      <c r="F5" s="194" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="129" t="s">
+        <v>60</v>
+      </c>
       <c r="K5" s="69"/>
       <c r="L5" s="30"/>
       <c r="M5" s="36"/>
@@ -3168,10 +3307,10 @@
       <c r="R5" s="36"/>
       <c r="S5" s="68"/>
       <c r="T5" s="75"/>
-      <c r="U5" s="246"/>
-      <c r="V5" s="229"/>
-      <c r="W5" s="227"/>
-      <c r="X5" s="227"/>
+      <c r="U5" s="253"/>
+      <c r="V5" s="236"/>
+      <c r="W5" s="234"/>
+      <c r="X5" s="234"/>
       <c r="Y5" s="26" t="s">
         <v>2</v>
       </c>
@@ -3192,33 +3331,33 @@
       <c r="AN5" s="75"/>
     </row>
     <row r="6" spans="1:40" ht="30.75" customHeight="1">
-      <c r="A6" s="246"/>
-      <c r="B6" s="228">
-        <v>2</v>
-      </c>
-      <c r="C6" s="226" t="s">
+      <c r="A6" s="253"/>
+      <c r="B6" s="235">
+        <v>2</v>
+      </c>
+      <c r="C6" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="226" t="s">
+      <c r="D6" s="233" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="69" t="s">
-        <v>65</v>
+      <c r="F6" s="118" t="s">
+        <v>148</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>63</v>
+        <v>86</v>
+      </c>
+      <c r="H6" s="107" t="s">
+        <v>59</v>
       </c>
       <c r="I6" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="119" t="s">
         <v>60</v>
-      </c>
-      <c r="J6" s="120" t="s">
-        <v>64</v>
       </c>
       <c r="K6" s="69"/>
       <c r="L6" s="30"/>
@@ -3230,14 +3369,14 @@
       <c r="R6" s="36"/>
       <c r="S6" s="68"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="246"/>
-      <c r="V6" s="228">
-        <v>2</v>
-      </c>
-      <c r="W6" s="226" t="s">
+      <c r="U6" s="253"/>
+      <c r="V6" s="235">
+        <v>2</v>
+      </c>
+      <c r="W6" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="226" t="s">
+      <c r="X6" s="233" t="s">
         <v>29</v>
       </c>
       <c r="Y6" s="29" t="s">
@@ -3260,27 +3399,27 @@
       <c r="AN6" s="75"/>
     </row>
     <row r="7" spans="1:40" ht="30.75" customHeight="1">
-      <c r="A7" s="246"/>
-      <c r="B7" s="229"/>
-      <c r="C7" s="227"/>
-      <c r="D7" s="227"/>
+      <c r="A7" s="253"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
       <c r="E7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="69" t="s">
-        <v>65</v>
+      <c r="F7" s="118" t="s">
+        <v>149</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>63</v>
+        <v>86</v>
+      </c>
+      <c r="H7" s="107" t="s">
+        <v>59</v>
       </c>
       <c r="I7" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="129" t="s">
         <v>60</v>
-      </c>
-      <c r="J7" s="132" t="s">
-        <v>64</v>
       </c>
       <c r="K7" s="69"/>
       <c r="L7" s="30"/>
@@ -3292,10 +3431,10 @@
       <c r="R7" s="36"/>
       <c r="S7" s="68"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="246"/>
-      <c r="V7" s="229"/>
-      <c r="W7" s="227"/>
-      <c r="X7" s="227"/>
+      <c r="U7" s="253"/>
+      <c r="V7" s="236"/>
+      <c r="W7" s="234"/>
+      <c r="X7" s="234"/>
       <c r="Y7" s="29" t="s">
         <v>2</v>
       </c>
@@ -3316,22 +3455,28 @@
       <c r="AN7" s="75"/>
     </row>
     <row r="8" spans="1:40" ht="30.75" customHeight="1">
-      <c r="A8" s="246"/>
-      <c r="B8" s="228">
+      <c r="A8" s="253"/>
+      <c r="B8" s="235">
         <v>3</v>
       </c>
-      <c r="C8" s="226" t="s">
+      <c r="C8" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="226" t="s">
+      <c r="D8" s="233" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="210"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="133"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="129" t="s">
+        <v>60</v>
+      </c>
       <c r="K8" s="69"/>
       <c r="L8" s="30"/>
       <c r="M8" s="36"/>
@@ -3342,14 +3487,14 @@
       <c r="R8" s="36"/>
       <c r="S8" s="68"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="246"/>
-      <c r="V8" s="228">
+      <c r="U8" s="253"/>
+      <c r="V8" s="235">
         <v>3</v>
       </c>
-      <c r="W8" s="226" t="s">
+      <c r="W8" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="X8" s="226" t="s">
+      <c r="X8" s="233" t="s">
         <v>46</v>
       </c>
       <c r="Y8" s="29" t="s">
@@ -3372,16 +3517,22 @@
       <c r="AN8" s="75"/>
     </row>
     <row r="9" spans="1:40" ht="30.75" customHeight="1">
-      <c r="A9" s="246"/>
-      <c r="B9" s="229"/>
-      <c r="C9" s="227"/>
-      <c r="D9" s="227"/>
+      <c r="A9" s="253"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
       <c r="E9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="210"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="79"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="129" t="s">
+        <v>60</v>
+      </c>
       <c r="K9" s="69"/>
       <c r="L9" s="30"/>
       <c r="M9" s="36"/>
@@ -3392,10 +3543,10 @@
       <c r="R9" s="36"/>
       <c r="S9" s="68"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="246"/>
-      <c r="V9" s="229"/>
-      <c r="W9" s="227"/>
-      <c r="X9" s="227"/>
+      <c r="U9" s="253"/>
+      <c r="V9" s="236"/>
+      <c r="W9" s="234"/>
+      <c r="X9" s="234"/>
       <c r="Y9" s="29" t="s">
         <v>2</v>
       </c>
@@ -3415,34 +3566,34 @@
       <c r="AM9" s="27"/>
       <c r="AN9" s="75"/>
     </row>
-    <row r="10" spans="1:40" ht="30.75" customHeight="1">
-      <c r="A10" s="246"/>
-      <c r="B10" s="228">
+    <row r="10" spans="1:40" ht="48.75" customHeight="1">
+      <c r="A10" s="253"/>
+      <c r="B10" s="235">
         <v>4</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="226" t="s">
+      <c r="D10" s="233" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="69" t="s">
-        <v>68</v>
+      <c r="F10" s="194" t="s">
+        <v>154</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>67</v>
+        <v>86</v>
+      </c>
+      <c r="H10" s="107" t="s">
+        <v>62</v>
       </c>
       <c r="I10" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="120" t="s">
         <v>60</v>
-      </c>
-      <c r="J10" s="121" t="s">
-        <v>64</v>
       </c>
       <c r="K10" s="69"/>
       <c r="L10" s="30"/>
@@ -3454,14 +3605,14 @@
       <c r="R10" s="36"/>
       <c r="S10" s="68"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="246"/>
-      <c r="V10" s="228">
+      <c r="U10" s="253"/>
+      <c r="V10" s="235">
         <v>4</v>
       </c>
-      <c r="W10" s="226" t="s">
+      <c r="W10" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="X10" s="226" t="s">
+      <c r="X10" s="233" t="s">
         <v>48</v>
       </c>
       <c r="Y10" s="29" t="s">
@@ -3483,28 +3634,28 @@
       <c r="AM10" s="41"/>
       <c r="AN10" s="76"/>
     </row>
-    <row r="11" spans="1:40" ht="30.75" customHeight="1">
-      <c r="A11" s="246"/>
-      <c r="B11" s="229"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="227"/>
+    <row r="11" spans="1:40" ht="48.75" customHeight="1">
+      <c r="A11" s="253"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
       <c r="E11" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="69" t="s">
-        <v>68</v>
+      <c r="F11" s="194" t="s">
+        <v>155</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>67</v>
+        <v>86</v>
+      </c>
+      <c r="H11" s="107" t="s">
+        <v>62</v>
       </c>
       <c r="I11" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="120" t="s">
         <v>60</v>
-      </c>
-      <c r="J11" s="121" t="s">
-        <v>64</v>
       </c>
       <c r="K11" s="69"/>
       <c r="L11" s="30"/>
@@ -3516,10 +3667,10 @@
       <c r="R11" s="36"/>
       <c r="S11" s="68"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="246"/>
-      <c r="V11" s="229"/>
-      <c r="W11" s="227"/>
-      <c r="X11" s="227"/>
+      <c r="U11" s="253"/>
+      <c r="V11" s="236"/>
+      <c r="W11" s="234"/>
+      <c r="X11" s="234"/>
       <c r="Y11" s="29" t="s">
         <v>2</v>
       </c>
@@ -3540,33 +3691,33 @@
       <c r="AN11" s="76"/>
     </row>
     <row r="12" spans="1:40" s="15" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A12" s="246"/>
-      <c r="B12" s="228">
+      <c r="A12" s="253"/>
+      <c r="B12" s="235">
         <v>5</v>
       </c>
-      <c r="C12" s="226" t="s">
+      <c r="C12" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="226" t="s">
+      <c r="D12" s="233" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="125" t="s">
+      <c r="F12" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="212" t="s">
-        <v>161</v>
-      </c>
-      <c r="I12" s="68" t="s">
+      <c r="J12" s="129" t="s">
         <v>60</v>
-      </c>
-      <c r="J12" s="121" t="s">
-        <v>64</v>
       </c>
       <c r="K12" s="69"/>
       <c r="L12" s="30"/>
@@ -3578,14 +3729,14 @@
       <c r="R12" s="36"/>
       <c r="S12" s="68"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="246"/>
-      <c r="V12" s="228">
+      <c r="U12" s="253"/>
+      <c r="V12" s="235">
         <v>5</v>
       </c>
-      <c r="W12" s="226" t="s">
+      <c r="W12" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="X12" s="226" t="s">
+      <c r="X12" s="233" t="s">
         <v>49</v>
       </c>
       <c r="Y12" s="29" t="s">
@@ -3608,27 +3759,27 @@
       <c r="AN12" s="76"/>
     </row>
     <row r="13" spans="1:40" s="15" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A13" s="246"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="227"/>
+      <c r="A13" s="253"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="234"/>
       <c r="E13" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="209" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="212" t="s">
-        <v>161</v>
+      <c r="F13" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="107" t="s">
+        <v>147</v>
       </c>
       <c r="I13" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="129" t="s">
         <v>60</v>
-      </c>
-      <c r="J13" s="121" t="s">
-        <v>64</v>
       </c>
       <c r="K13" s="69"/>
       <c r="L13" s="30"/>
@@ -3640,10 +3791,10 @@
       <c r="R13" s="36"/>
       <c r="S13" s="43"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="246"/>
-      <c r="V13" s="229"/>
-      <c r="W13" s="227"/>
-      <c r="X13" s="227"/>
+      <c r="U13" s="253"/>
+      <c r="V13" s="236"/>
+      <c r="W13" s="234"/>
+      <c r="X13" s="234"/>
       <c r="Y13" s="29" t="s">
         <v>2</v>
       </c>
@@ -3663,46 +3814,46 @@
       <c r="AM13" s="27"/>
       <c r="AN13" s="76"/>
     </row>
-    <row r="14" spans="1:40" s="14" customFormat="1" ht="39" customHeight="1">
-      <c r="A14" s="246"/>
-      <c r="B14" s="228">
+    <row r="14" spans="1:40" s="14" customFormat="1" ht="42" customHeight="1">
+      <c r="A14" s="253"/>
+      <c r="B14" s="235">
         <v>6</v>
       </c>
-      <c r="C14" s="226" t="s">
+      <c r="C14" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="226" t="s">
+      <c r="D14" s="233" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="115" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="130" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="116" t="s">
-        <v>66</v>
+      <c r="F14" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="115" t="s">
+        <v>61</v>
       </c>
       <c r="I14" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="120" t="s">
-        <v>64</v>
-      </c>
       <c r="K14" s="69" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="N14" s="68" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="O14" s="76"/>
       <c r="P14" s="69"/>
@@ -3710,14 +3861,14 @@
       <c r="R14" s="36"/>
       <c r="S14" s="68"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="246"/>
-      <c r="V14" s="228">
+      <c r="U14" s="253"/>
+      <c r="V14" s="235">
         <v>6</v>
       </c>
-      <c r="W14" s="226" t="s">
+      <c r="W14" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="X14" s="226" t="s">
+      <c r="X14" s="233" t="s">
         <v>50</v>
       </c>
       <c r="Y14" s="29" t="s">
@@ -3739,30 +3890,30 @@
       <c r="AM14" s="27"/>
       <c r="AN14" s="76"/>
     </row>
-    <row r="15" spans="1:40" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A15" s="246"/>
-      <c r="B15" s="229"/>
-      <c r="C15" s="227"/>
-      <c r="D15" s="227"/>
+    <row r="15" spans="1:40" s="17" customFormat="1" ht="42" customHeight="1" thickBot="1">
+      <c r="A15" s="253"/>
+      <c r="B15" s="236"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="234"/>
       <c r="E15" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="127"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="129"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
       <c r="I15" s="68"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="69" t="s">
-        <v>99</v>
+      <c r="J15" s="119"/>
+      <c r="K15" s="59" t="s">
+        <v>119</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" s="163" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="N15" s="159" t="s">
+        <v>74</v>
       </c>
       <c r="O15" s="76"/>
       <c r="P15" s="69"/>
@@ -3770,10 +3921,10 @@
       <c r="R15" s="36"/>
       <c r="S15" s="43"/>
       <c r="T15" s="76"/>
-      <c r="U15" s="246"/>
-      <c r="V15" s="229"/>
-      <c r="W15" s="227"/>
-      <c r="X15" s="227"/>
+      <c r="U15" s="253"/>
+      <c r="V15" s="236"/>
+      <c r="W15" s="234"/>
+      <c r="X15" s="234"/>
       <c r="Y15" s="58" t="s">
         <v>2</v>
       </c>
@@ -3793,15 +3944,15 @@
       <c r="AM15" s="41"/>
       <c r="AN15" s="76"/>
     </row>
-    <row r="16" spans="1:40" s="22" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="246"/>
-      <c r="B16" s="235">
+    <row r="16" spans="1:40" s="22" customFormat="1" ht="42" customHeight="1">
+      <c r="A16" s="253"/>
+      <c r="B16" s="242">
         <v>7</v>
       </c>
-      <c r="C16" s="236" t="s">
+      <c r="C16" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="236" t="s">
+      <c r="D16" s="243" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="39" t="s">
@@ -3812,17 +3963,17 @@
       <c r="H16" s="36"/>
       <c r="I16" s="68"/>
       <c r="J16" s="76"/>
-      <c r="K16" s="69" t="s">
-        <v>99</v>
+      <c r="K16" s="59" t="s">
+        <v>118</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="N16" s="68" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="O16" s="76"/>
       <c r="P16" s="69"/>
@@ -3830,14 +3981,14 @@
       <c r="R16" s="36"/>
       <c r="S16" s="43"/>
       <c r="T16" s="76"/>
-      <c r="U16" s="246"/>
-      <c r="V16" s="235">
+      <c r="U16" s="253"/>
+      <c r="V16" s="242">
         <v>7</v>
       </c>
-      <c r="W16" s="236" t="s">
+      <c r="W16" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="X16" s="236" t="s">
+      <c r="X16" s="243" t="s">
         <v>51</v>
       </c>
       <c r="Y16" s="39" t="s">
@@ -3859,11 +4010,11 @@
       <c r="AM16" s="41"/>
       <c r="AN16" s="76"/>
     </row>
-    <row r="17" spans="1:40" s="22" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="246"/>
-      <c r="B17" s="235"/>
-      <c r="C17" s="236"/>
-      <c r="D17" s="236"/>
+    <row r="17" spans="1:40" s="22" customFormat="1" ht="42" customHeight="1" thickBot="1">
+      <c r="A17" s="253"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
       <c r="E17" s="40" t="s">
         <v>2</v>
       </c>
@@ -3872,17 +4023,17 @@
       <c r="H17" s="38"/>
       <c r="I17" s="32"/>
       <c r="J17" s="77"/>
-      <c r="K17" s="69" t="s">
-        <v>99</v>
+      <c r="K17" s="59" t="s">
+        <v>119</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>100</v>
+        <v>86</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>108</v>
       </c>
       <c r="N17" s="68" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="O17" s="77"/>
       <c r="P17" s="34"/>
@@ -3890,10 +4041,10 @@
       <c r="R17" s="38"/>
       <c r="S17" s="32"/>
       <c r="T17" s="77"/>
-      <c r="U17" s="246"/>
-      <c r="V17" s="235"/>
-      <c r="W17" s="236"/>
-      <c r="X17" s="236"/>
+      <c r="U17" s="253"/>
+      <c r="V17" s="242"/>
+      <c r="W17" s="243"/>
+      <c r="X17" s="243"/>
       <c r="Y17" s="40" t="s">
         <v>2</v>
       </c>
@@ -3914,14 +4065,14 @@
       <c r="AN17" s="77"/>
     </row>
     <row r="18" spans="1:40" s="16" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A18" s="246"/>
-      <c r="B18" s="230">
+      <c r="A18" s="253"/>
+      <c r="B18" s="237">
         <v>7</v>
       </c>
-      <c r="C18" s="232" t="s">
+      <c r="C18" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="232" t="s">
+      <c r="D18" s="239" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="91" t="s">
@@ -3932,61 +4083,61 @@
       <c r="H18" s="99"/>
       <c r="I18" s="43"/>
       <c r="J18" s="83"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="165"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="100"/>
       <c r="N18" s="31"/>
       <c r="O18" s="83"/>
-      <c r="P18" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q18" s="165" t="s">
-        <v>129</v>
-      </c>
-      <c r="R18" s="175" t="s">
-        <v>122</v>
-      </c>
-      <c r="S18" s="60" t="s">
-        <v>123</v>
+      <c r="P18" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="R18" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="S18" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="T18" s="76"/>
-      <c r="U18" s="246"/>
-      <c r="V18" s="230">
+      <c r="U18" s="253"/>
+      <c r="V18" s="237">
         <v>7</v>
       </c>
-      <c r="W18" s="232" t="s">
+      <c r="W18" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="232" t="s">
+      <c r="X18" s="239" t="s">
         <v>31</v>
       </c>
       <c r="Y18" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="Z18" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA18" s="165" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB18" s="175" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC18" s="60" t="s">
-        <v>123</v>
+      <c r="Z18" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA18" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB18" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC18" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="AD18" s="76"/>
-      <c r="AE18" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF18" s="165" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG18" s="175" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH18" s="60" t="s">
-        <v>123</v>
+      <c r="AE18" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF18" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG18" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH18" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="AI18" s="76"/>
       <c r="AJ18" s="100"/>
@@ -3996,10 +4147,10 @@
       <c r="AN18" s="76"/>
     </row>
     <row r="19" spans="1:40" s="16" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A19" s="246"/>
-      <c r="B19" s="231"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="233"/>
+      <c r="A19" s="253"/>
+      <c r="B19" s="238"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="93" t="s">
         <v>2</v>
       </c>
@@ -4008,55 +4159,55 @@
       <c r="H19" s="98"/>
       <c r="I19" s="32"/>
       <c r="J19" s="78"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="167"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="98"/>
       <c r="N19" s="32"/>
       <c r="O19" s="78"/>
-      <c r="P19" s="193" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="R19" s="167" t="s">
-        <v>122</v>
-      </c>
-      <c r="S19" s="176" t="s">
-        <v>123</v>
+      <c r="P19" s="203" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="S19" s="44" t="s">
+        <v>82</v>
       </c>
       <c r="T19" s="78"/>
-      <c r="U19" s="246"/>
-      <c r="V19" s="231"/>
-      <c r="W19" s="233"/>
-      <c r="X19" s="233"/>
+      <c r="U19" s="253"/>
+      <c r="V19" s="238"/>
+      <c r="W19" s="240"/>
+      <c r="X19" s="240"/>
       <c r="Y19" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="Z19" s="167" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA19" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB19" s="167" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC19" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD19" s="191"/>
-      <c r="AE19" s="167" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF19" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG19" s="167" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH19" s="192" t="s">
-        <v>123</v>
+      <c r="Z19" s="203" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA19" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB19" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC19" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD19" s="168"/>
+      <c r="AE19" s="203" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF19" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG19" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH19" s="228" t="s">
+        <v>82</v>
       </c>
       <c r="AI19" s="78"/>
       <c r="AJ19" s="98"/>
@@ -4066,14 +4217,14 @@
       <c r="AN19" s="78"/>
     </row>
     <row r="20" spans="1:40" s="10" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A20" s="246"/>
-      <c r="B20" s="237">
+      <c r="A20" s="253"/>
+      <c r="B20" s="244">
         <v>8</v>
       </c>
-      <c r="C20" s="234" t="s">
+      <c r="C20" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="234" t="s">
+      <c r="D20" s="241" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="95" t="s">
@@ -4084,61 +4235,61 @@
       <c r="H20" s="92"/>
       <c r="I20" s="43"/>
       <c r="J20" s="76"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="170"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="92"/>
       <c r="N20" s="43"/>
       <c r="O20" s="76"/>
-      <c r="P20" s="175" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="175" t="s">
-        <v>125</v>
-      </c>
-      <c r="R20" s="175" t="s">
-        <v>122</v>
-      </c>
-      <c r="S20" s="60" t="s">
-        <v>123</v>
+      <c r="P20" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="R20" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="S20" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="T20" s="76"/>
-      <c r="U20" s="246"/>
-      <c r="V20" s="237">
+      <c r="U20" s="253"/>
+      <c r="V20" s="244">
         <v>8</v>
       </c>
-      <c r="W20" s="234" t="s">
+      <c r="W20" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="X20" s="234" t="s">
+      <c r="X20" s="241" t="s">
         <v>33</v>
       </c>
       <c r="Y20" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="Z20" s="175" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA20" s="175" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB20" s="175" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC20" s="62" t="s">
-        <v>123</v>
+      <c r="Z20" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA20" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB20" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC20" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="AD20" s="83"/>
-      <c r="AE20" s="175" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF20" s="175" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG20" s="175" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH20" s="62" t="s">
-        <v>123</v>
+      <c r="AE20" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF20" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG20" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH20" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="AI20" s="83"/>
       <c r="AJ20" s="99"/>
@@ -4148,10 +4299,10 @@
       <c r="AN20" s="83"/>
     </row>
     <row r="21" spans="1:40" s="10" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A21" s="246"/>
-      <c r="B21" s="231"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
+      <c r="A21" s="253"/>
+      <c r="B21" s="238"/>
+      <c r="C21" s="240"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="93" t="s">
         <v>2</v>
       </c>
@@ -4160,32 +4311,32 @@
       <c r="H21" s="94"/>
       <c r="I21" s="33"/>
       <c r="J21" s="78"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="171"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="94"/>
       <c r="N21" s="33"/>
       <c r="O21" s="78"/>
-      <c r="P21" s="171"/>
-      <c r="Q21" s="171"/>
-      <c r="R21" s="171"/>
-      <c r="S21" s="176"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="162"/>
       <c r="T21" s="78"/>
-      <c r="U21" s="246"/>
-      <c r="V21" s="231"/>
-      <c r="W21" s="233"/>
-      <c r="X21" s="233"/>
+      <c r="U21" s="253"/>
+      <c r="V21" s="238"/>
+      <c r="W21" s="240"/>
+      <c r="X21" s="240"/>
       <c r="Y21" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="171"/>
-      <c r="AA21" s="171"/>
-      <c r="AB21" s="171"/>
-      <c r="AC21" s="176"/>
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="162"/>
       <c r="AD21" s="77"/>
-      <c r="AE21" s="171"/>
-      <c r="AF21" s="171"/>
-      <c r="AG21" s="171"/>
-      <c r="AH21" s="176"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="94"/>
+      <c r="AH21" s="162"/>
       <c r="AI21" s="77"/>
       <c r="AJ21" s="98"/>
       <c r="AK21" s="103"/>
@@ -4193,36 +4344,36 @@
       <c r="AM21" s="32"/>
       <c r="AN21" s="77"/>
     </row>
-    <row r="22" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A22" s="248" t="s">
+    <row r="22" spans="1:40" ht="33.75" customHeight="1">
+      <c r="A22" s="255" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="243">
-        <v>1</v>
-      </c>
-      <c r="C22" s="244" t="s">
+      <c r="B22" s="250">
+        <v>1</v>
+      </c>
+      <c r="C22" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="244" t="s">
+      <c r="D22" s="251" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="57" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I22" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="124" t="s">
         <v>60</v>
-      </c>
-      <c r="J22" s="126" t="s">
-        <v>64</v>
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="19"/>
@@ -4234,16 +4385,16 @@
       <c r="R22" s="47"/>
       <c r="S22" s="31"/>
       <c r="T22" s="79"/>
-      <c r="U22" s="248" t="s">
+      <c r="U22" s="255" t="s">
         <v>0</v>
       </c>
-      <c r="V22" s="243">
-        <v>1</v>
-      </c>
-      <c r="W22" s="244" t="s">
+      <c r="V22" s="250">
+        <v>1</v>
+      </c>
+      <c r="W22" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="X22" s="244" t="s">
+      <c r="X22" s="251" t="s">
         <v>27</v>
       </c>
       <c r="Y22" s="57" t="s">
@@ -4265,28 +4416,28 @@
       <c r="AM22" s="31"/>
       <c r="AN22" s="79"/>
     </row>
-    <row r="23" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A23" s="249"/>
-      <c r="B23" s="229"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="227"/>
+    <row r="23" spans="1:40" ht="33.75" customHeight="1">
+      <c r="A23" s="256"/>
+      <c r="B23" s="236"/>
+      <c r="C23" s="234"/>
+      <c r="D23" s="234"/>
       <c r="E23" s="26" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I23" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="119" t="s">
         <v>60</v>
-      </c>
-      <c r="J23" s="120" t="s">
-        <v>64</v>
       </c>
       <c r="K23" s="69"/>
       <c r="L23" s="30"/>
@@ -4298,10 +4449,10 @@
       <c r="R23" s="36"/>
       <c r="S23" s="68"/>
       <c r="T23" s="75"/>
-      <c r="U23" s="249"/>
-      <c r="V23" s="229"/>
-      <c r="W23" s="227"/>
-      <c r="X23" s="227"/>
+      <c r="U23" s="256"/>
+      <c r="V23" s="236"/>
+      <c r="W23" s="234"/>
+      <c r="X23" s="234"/>
       <c r="Y23" s="26" t="s">
         <v>2</v>
       </c>
@@ -4321,34 +4472,34 @@
       <c r="AM23" s="27"/>
       <c r="AN23" s="75"/>
     </row>
-    <row r="24" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A24" s="249"/>
-      <c r="B24" s="228">
-        <v>2</v>
-      </c>
-      <c r="C24" s="226" t="s">
+    <row r="24" spans="1:40" ht="33.75" customHeight="1">
+      <c r="A24" s="256"/>
+      <c r="B24" s="235">
+        <v>2</v>
+      </c>
+      <c r="C24" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="226" t="s">
+      <c r="D24" s="233" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I24" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="119" t="s">
         <v>60</v>
-      </c>
-      <c r="J24" s="120" t="s">
-        <v>64</v>
       </c>
       <c r="K24" s="69"/>
       <c r="L24" s="30"/>
@@ -4360,14 +4511,14 @@
       <c r="R24" s="36"/>
       <c r="S24" s="68"/>
       <c r="T24" s="75"/>
-      <c r="U24" s="249"/>
-      <c r="V24" s="228">
-        <v>2</v>
-      </c>
-      <c r="W24" s="226" t="s">
+      <c r="U24" s="256"/>
+      <c r="V24" s="235">
+        <v>2</v>
+      </c>
+      <c r="W24" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="X24" s="226" t="s">
+      <c r="X24" s="233" t="s">
         <v>29</v>
       </c>
       <c r="Y24" s="29" t="s">
@@ -4390,27 +4541,27 @@
       <c r="AN24" s="75"/>
     </row>
     <row r="25" spans="1:40" ht="33.75" customHeight="1">
-      <c r="A25" s="249"/>
-      <c r="B25" s="229"/>
-      <c r="C25" s="227"/>
-      <c r="D25" s="227"/>
+      <c r="A25" s="256"/>
+      <c r="B25" s="236"/>
+      <c r="C25" s="234"/>
+      <c r="D25" s="234"/>
       <c r="E25" s="29" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I25" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="119" t="s">
         <v>60</v>
-      </c>
-      <c r="J25" s="120" t="s">
-        <v>64</v>
       </c>
       <c r="K25" s="69"/>
       <c r="L25" s="30"/>
@@ -4422,10 +4573,10 @@
       <c r="R25" s="36"/>
       <c r="S25" s="68"/>
       <c r="T25" s="75"/>
-      <c r="U25" s="249"/>
-      <c r="V25" s="229"/>
-      <c r="W25" s="227"/>
-      <c r="X25" s="227"/>
+      <c r="U25" s="256"/>
+      <c r="V25" s="236"/>
+      <c r="W25" s="234"/>
+      <c r="X25" s="234"/>
       <c r="Y25" s="29" t="s">
         <v>2</v>
       </c>
@@ -4446,24 +4597,24 @@
       <c r="AN25" s="75"/>
     </row>
     <row r="26" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A26" s="249"/>
-      <c r="B26" s="228">
+      <c r="A26" s="256"/>
+      <c r="B26" s="235">
         <v>3</v>
       </c>
-      <c r="C26" s="226" t="s">
+      <c r="C26" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="226" t="s">
+      <c r="D26" s="233" t="s">
         <v>46</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="36"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="68"/>
-      <c r="J26" s="75"/>
+      <c r="J26" s="120"/>
       <c r="K26" s="69"/>
       <c r="L26" s="30"/>
       <c r="M26" s="36"/>
@@ -4474,14 +4625,14 @@
       <c r="R26" s="36"/>
       <c r="S26" s="68"/>
       <c r="T26" s="75"/>
-      <c r="U26" s="249"/>
-      <c r="V26" s="228">
+      <c r="U26" s="256"/>
+      <c r="V26" s="235">
         <v>3</v>
       </c>
-      <c r="W26" s="226" t="s">
+      <c r="W26" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="X26" s="226" t="s">
+      <c r="X26" s="233" t="s">
         <v>46</v>
       </c>
       <c r="Y26" s="29" t="s">
@@ -4504,18 +4655,18 @@
       <c r="AN26" s="75"/>
     </row>
     <row r="27" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A27" s="249"/>
-      <c r="B27" s="229"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="227"/>
+      <c r="A27" s="256"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="234"/>
+      <c r="D27" s="234"/>
       <c r="E27" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="69"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="36"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="68"/>
-      <c r="J27" s="75"/>
+      <c r="J27" s="120"/>
       <c r="K27" s="69"/>
       <c r="L27" s="30"/>
       <c r="M27" s="36"/>
@@ -4526,10 +4677,10 @@
       <c r="R27" s="36"/>
       <c r="S27" s="68"/>
       <c r="T27" s="75"/>
-      <c r="U27" s="249"/>
-      <c r="V27" s="229"/>
-      <c r="W27" s="227"/>
-      <c r="X27" s="227"/>
+      <c r="U27" s="256"/>
+      <c r="V27" s="236"/>
+      <c r="W27" s="234"/>
+      <c r="X27" s="234"/>
       <c r="Y27" s="29" t="s">
         <v>2</v>
       </c>
@@ -4550,20 +4701,22 @@
       <c r="AN27" s="75"/>
     </row>
     <row r="28" spans="1:40" ht="42" customHeight="1">
-      <c r="A28" s="249"/>
-      <c r="B28" s="228">
+      <c r="A28" s="256"/>
+      <c r="B28" s="235">
         <v>4</v>
       </c>
-      <c r="C28" s="226" t="s">
+      <c r="C28" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="226" t="s">
+      <c r="D28" s="233" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="69"/>
+      <c r="F28" s="69" t="s">
+        <v>106</v>
+      </c>
       <c r="G28" s="30"/>
       <c r="H28" s="36"/>
       <c r="I28" s="68"/>
@@ -4578,14 +4731,14 @@
       <c r="R28" s="36"/>
       <c r="S28" s="68"/>
       <c r="T28" s="76"/>
-      <c r="U28" s="249"/>
-      <c r="V28" s="228">
+      <c r="U28" s="256"/>
+      <c r="V28" s="235">
         <v>4</v>
       </c>
-      <c r="W28" s="226" t="s">
+      <c r="W28" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="X28" s="226" t="s">
+      <c r="X28" s="233" t="s">
         <v>48</v>
       </c>
       <c r="Y28" s="29" t="s">
@@ -4608,14 +4761,16 @@
       <c r="AN28" s="75"/>
     </row>
     <row r="29" spans="1:40" ht="36" customHeight="1">
-      <c r="A29" s="249"/>
-      <c r="B29" s="229"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="227"/>
+      <c r="A29" s="256"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="234"/>
       <c r="E29" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="69"/>
+      <c r="F29" s="69" t="s">
+        <v>106</v>
+      </c>
       <c r="G29" s="30"/>
       <c r="H29" s="36"/>
       <c r="I29" s="68"/>
@@ -4630,10 +4785,10 @@
       <c r="R29" s="36"/>
       <c r="S29" s="68"/>
       <c r="T29" s="76"/>
-      <c r="U29" s="249"/>
-      <c r="V29" s="229"/>
-      <c r="W29" s="227"/>
-      <c r="X29" s="227"/>
+      <c r="U29" s="256"/>
+      <c r="V29" s="236"/>
+      <c r="W29" s="234"/>
+      <c r="X29" s="234"/>
       <c r="Y29" s="29" t="s">
         <v>2</v>
       </c>
@@ -4654,35 +4809,37 @@
       <c r="AN29" s="80"/>
     </row>
     <row r="30" spans="1:40" s="15" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A30" s="249"/>
-      <c r="B30" s="228">
+      <c r="A30" s="256"/>
+      <c r="B30" s="235">
         <v>5</v>
       </c>
-      <c r="C30" s="226" t="s">
+      <c r="C30" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="226" t="s">
+      <c r="D30" s="233" t="s">
         <v>49</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="69"/>
+      <c r="F30" s="69" t="s">
+        <v>106</v>
+      </c>
       <c r="G30" s="30"/>
       <c r="H30" s="36"/>
       <c r="I30" s="68"/>
       <c r="J30" s="76"/>
-      <c r="K30" s="278" t="s">
-        <v>106</v>
-      </c>
-      <c r="L30" s="107" t="s">
-        <v>53</v>
+      <c r="K30" s="186" t="s">
+        <v>120</v>
+      </c>
+      <c r="L30" s="106" t="s">
+        <v>86</v>
       </c>
       <c r="M30" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="N30" s="205" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="N30" s="169" t="s">
+        <v>77</v>
       </c>
       <c r="O30" s="76"/>
       <c r="P30" s="69"/>
@@ -4690,14 +4847,14 @@
       <c r="R30" s="36"/>
       <c r="S30" s="68"/>
       <c r="T30" s="76"/>
-      <c r="U30" s="249"/>
-      <c r="V30" s="228">
+      <c r="U30" s="256"/>
+      <c r="V30" s="235">
         <v>5</v>
       </c>
-      <c r="W30" s="226" t="s">
+      <c r="W30" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="X30" s="226" t="s">
+      <c r="X30" s="233" t="s">
         <v>49</v>
       </c>
       <c r="Y30" s="29" t="s">
@@ -4720,37 +4877,37 @@
       <c r="AN30" s="76"/>
     </row>
     <row r="31" spans="1:40" s="15" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A31" s="249"/>
-      <c r="B31" s="229"/>
-      <c r="C31" s="227"/>
-      <c r="D31" s="227"/>
+      <c r="A31" s="256"/>
+      <c r="B31" s="236"/>
+      <c r="C31" s="234"/>
+      <c r="D31" s="234"/>
       <c r="E31" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="219" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="220" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="221" t="s">
-        <v>66</v>
+      <c r="F31" s="178" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="179" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="180" t="s">
+        <v>61</v>
       </c>
       <c r="I31" s="41" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="J31" s="76"/>
-      <c r="K31" s="280" t="s">
-        <v>110</v>
+      <c r="K31" s="59" t="s">
+        <v>124</v>
       </c>
       <c r="L31" s="30" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="N31" s="281" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="N31" s="184" t="s">
+        <v>77</v>
       </c>
       <c r="O31" s="76"/>
       <c r="P31" s="69"/>
@@ -4758,10 +4915,10 @@
       <c r="R31" s="36"/>
       <c r="S31" s="43"/>
       <c r="T31" s="76"/>
-      <c r="U31" s="249"/>
-      <c r="V31" s="229"/>
-      <c r="W31" s="227"/>
-      <c r="X31" s="227"/>
+      <c r="U31" s="256"/>
+      <c r="V31" s="236"/>
+      <c r="W31" s="234"/>
+      <c r="X31" s="234"/>
       <c r="Y31" s="29" t="s">
         <v>2</v>
       </c>
@@ -4782,43 +4939,43 @@
       <c r="AN31" s="81"/>
     </row>
     <row r="32" spans="1:40" s="14" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A32" s="249"/>
-      <c r="B32" s="228">
+      <c r="A32" s="256"/>
+      <c r="B32" s="235">
         <v>6</v>
       </c>
-      <c r="C32" s="226" t="s">
+      <c r="C32" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="226" t="s">
+      <c r="D32" s="233" t="s">
         <v>50</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="219" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="222" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="221" t="s">
-        <v>66</v>
+      <c r="F32" s="178" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="180" t="s">
+        <v>61</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="J32" s="76"/>
-      <c r="K32" s="69" t="s">
-        <v>102</v>
+      <c r="K32" s="194" t="s">
+        <v>122</v>
       </c>
       <c r="L32" s="30" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="N32" s="68" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="O32" s="76"/>
       <c r="P32" s="69"/>
@@ -4826,14 +4983,14 @@
       <c r="R32" s="36"/>
       <c r="S32" s="68"/>
       <c r="T32" s="76"/>
-      <c r="U32" s="249"/>
-      <c r="V32" s="228">
+      <c r="U32" s="256"/>
+      <c r="V32" s="235">
         <v>6</v>
       </c>
-      <c r="W32" s="226" t="s">
+      <c r="W32" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="X32" s="226" t="s">
+      <c r="X32" s="233" t="s">
         <v>50</v>
       </c>
       <c r="Y32" s="29" t="s">
@@ -4856,37 +5013,37 @@
       <c r="AN32" s="81"/>
     </row>
     <row r="33" spans="1:40" s="17" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="A33" s="249"/>
-      <c r="B33" s="229"/>
-      <c r="C33" s="227"/>
-      <c r="D33" s="227"/>
+      <c r="A33" s="256"/>
+      <c r="B33" s="236"/>
+      <c r="C33" s="234"/>
+      <c r="D33" s="234"/>
       <c r="E33" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="223" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="224" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="225" t="s">
-        <v>66</v>
+      <c r="F33" s="178" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="182" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="183" t="s">
+        <v>61</v>
       </c>
       <c r="I33" s="41" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="J33" s="76"/>
-      <c r="K33" s="69" t="s">
-        <v>102</v>
+      <c r="K33" s="194" t="s">
+        <v>126</v>
       </c>
       <c r="L33" s="30" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="M33" s="36" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="N33" s="68" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="O33" s="76"/>
       <c r="P33" s="69"/>
@@ -4894,10 +5051,10 @@
       <c r="R33" s="36"/>
       <c r="S33" s="43"/>
       <c r="T33" s="82"/>
-      <c r="U33" s="249"/>
-      <c r="V33" s="229"/>
-      <c r="W33" s="227"/>
-      <c r="X33" s="227"/>
+      <c r="U33" s="256"/>
+      <c r="V33" s="236"/>
+      <c r="W33" s="234"/>
+      <c r="X33" s="234"/>
       <c r="Y33" s="58" t="s">
         <v>2</v>
       </c>
@@ -4917,15 +5074,15 @@
       <c r="AM33" s="41"/>
       <c r="AN33" s="82"/>
     </row>
-    <row r="34" spans="1:40" s="22" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A34" s="249"/>
-      <c r="B34" s="235">
+    <row r="34" spans="1:40" s="22" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A34" s="256"/>
+      <c r="B34" s="242">
         <v>7</v>
       </c>
-      <c r="C34" s="236" t="s">
+      <c r="C34" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="236" t="s">
+      <c r="D34" s="243" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="39" t="s">
@@ -4936,17 +5093,17 @@
       <c r="H34" s="108"/>
       <c r="I34" s="43"/>
       <c r="J34" s="76"/>
-      <c r="K34" s="69" t="s">
-        <v>102</v>
+      <c r="K34" s="118" t="s">
+        <v>122</v>
       </c>
       <c r="L34" s="30" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="M34" s="36" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="N34" s="68" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="O34" s="76"/>
       <c r="P34" s="69"/>
@@ -4954,14 +5111,14 @@
       <c r="R34" s="36"/>
       <c r="S34" s="43"/>
       <c r="T34" s="76"/>
-      <c r="U34" s="249"/>
-      <c r="V34" s="235">
+      <c r="U34" s="256"/>
+      <c r="V34" s="242">
         <v>7</v>
       </c>
-      <c r="W34" s="236" t="s">
+      <c r="W34" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="X34" s="236" t="s">
+      <c r="X34" s="243" t="s">
         <v>51</v>
       </c>
       <c r="Y34" s="39" t="s">
@@ -4984,32 +5141,32 @@
       <c r="AN34" s="76"/>
     </row>
     <row r="35" spans="1:40" s="22" customFormat="1" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A35" s="249"/>
-      <c r="B35" s="235"/>
-      <c r="C35" s="236"/>
-      <c r="D35" s="236"/>
+      <c r="A35" s="256"/>
+      <c r="B35" s="242"/>
+      <c r="C35" s="243"/>
+      <c r="D35" s="243"/>
       <c r="E35" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="134"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="136"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="132"/>
       <c r="I35" s="32"/>
       <c r="J35" s="77"/>
       <c r="K35" s="69"/>
       <c r="L35" s="30"/>
       <c r="M35" s="36"/>
-      <c r="N35" s="172"/>
+      <c r="N35" s="160"/>
       <c r="O35" s="77"/>
       <c r="P35" s="34"/>
       <c r="Q35" s="46"/>
       <c r="R35" s="38"/>
-      <c r="S35" s="32"/>
+      <c r="S35" s="189"/>
       <c r="T35" s="78"/>
-      <c r="U35" s="249"/>
-      <c r="V35" s="235"/>
-      <c r="W35" s="236"/>
-      <c r="X35" s="236"/>
+      <c r="U35" s="256"/>
+      <c r="V35" s="242"/>
+      <c r="W35" s="243"/>
+      <c r="X35" s="243"/>
       <c r="Y35" s="40" t="s">
         <v>2</v>
       </c>
@@ -5029,15 +5186,15 @@
       <c r="AM35" s="42"/>
       <c r="AN35" s="78"/>
     </row>
-    <row r="36" spans="1:40" s="16" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A36" s="249"/>
-      <c r="B36" s="230">
+    <row r="36" spans="1:40" s="16" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A36" s="256"/>
+      <c r="B36" s="237">
         <v>7</v>
       </c>
-      <c r="C36" s="232" t="s">
+      <c r="C36" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="232" t="s">
+      <c r="D36" s="239" t="s">
         <v>31</v>
       </c>
       <c r="E36" s="91" t="s">
@@ -5048,59 +5205,61 @@
       <c r="H36" s="99"/>
       <c r="I36" s="43"/>
       <c r="J36" s="83"/>
-      <c r="K36" s="164"/>
-      <c r="L36" s="164"/>
-      <c r="M36" s="165"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="100"/>
       <c r="N36" s="31"/>
       <c r="O36" s="83"/>
-      <c r="P36" s="177" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q36" s="178" t="s">
-        <v>125</v>
-      </c>
-      <c r="R36" s="179" t="s">
-        <v>127</v>
-      </c>
-      <c r="S36" s="195" t="s">
-        <v>151</v>
+      <c r="P36" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q36" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="R36" s="223" t="s">
+        <v>84</v>
+      </c>
+      <c r="S36" s="190" t="s">
+        <v>100</v>
       </c>
       <c r="T36" s="76"/>
-      <c r="U36" s="249"/>
-      <c r="V36" s="230">
+      <c r="U36" s="256"/>
+      <c r="V36" s="237">
         <v>7</v>
       </c>
-      <c r="W36" s="232" t="s">
+      <c r="W36" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="X36" s="232" t="s">
+      <c r="X36" s="239" t="s">
         <v>31</v>
       </c>
       <c r="Y36" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="Z36" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA36" s="178" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB36" s="165"/>
+      <c r="Z36" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA36" s="224" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB36" s="220" t="s">
+        <v>176</v>
+      </c>
       <c r="AC36" s="60" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="AD36" s="76"/>
-      <c r="AE36" s="165" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF36" s="178" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG36" s="185" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH36" s="186" t="s">
-        <v>133</v>
+      <c r="AE36" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF36" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG36" s="204" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH36" s="165" t="s">
+        <v>88</v>
       </c>
       <c r="AI36" s="76"/>
       <c r="AJ36" s="96"/>
@@ -5109,11 +5268,11 @@
       <c r="AM36" s="60"/>
       <c r="AN36" s="76"/>
     </row>
-    <row r="37" spans="1:40" s="16" customFormat="1" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A37" s="249"/>
-      <c r="B37" s="231"/>
-      <c r="C37" s="233"/>
-      <c r="D37" s="233"/>
+    <row r="37" spans="1:40" s="16" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A37" s="256"/>
+      <c r="B37" s="238"/>
+      <c r="C37" s="240"/>
+      <c r="D37" s="240"/>
       <c r="E37" s="93" t="s">
         <v>2</v>
       </c>
@@ -5122,53 +5281,55 @@
       <c r="H37" s="98"/>
       <c r="I37" s="32"/>
       <c r="J37" s="77"/>
-      <c r="K37" s="166"/>
-      <c r="L37" s="166"/>
-      <c r="M37" s="167"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="98"/>
       <c r="N37" s="32"/>
       <c r="O37" s="77"/>
-      <c r="P37" s="190" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q37" s="180" t="s">
-        <v>129</v>
-      </c>
-      <c r="R37" s="167" t="s">
-        <v>127</v>
-      </c>
-      <c r="S37" s="196" t="s">
-        <v>151</v>
+      <c r="P37" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q37" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="R37" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="S37" s="189" t="s">
+        <v>100</v>
       </c>
       <c r="T37" s="77"/>
-      <c r="U37" s="249"/>
-      <c r="V37" s="231"/>
-      <c r="W37" s="233"/>
-      <c r="X37" s="233"/>
+      <c r="U37" s="256"/>
+      <c r="V37" s="238"/>
+      <c r="W37" s="240"/>
+      <c r="X37" s="240"/>
       <c r="Y37" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="Z37" s="167" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA37" s="180" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB37" s="167"/>
+      <c r="Z37" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA37" s="225" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB37" s="221" t="s">
+        <v>176</v>
+      </c>
       <c r="AC37" s="61" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="AD37" s="77"/>
-      <c r="AE37" s="187" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF37" s="180" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG37" s="170" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH37" s="188" t="s">
-        <v>133</v>
+      <c r="AE37" s="205" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF37" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG37" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH37" s="166" t="s">
+        <v>88</v>
       </c>
       <c r="AI37" s="77"/>
       <c r="AJ37" s="98"/>
@@ -5177,15 +5338,15 @@
       <c r="AM37" s="61"/>
       <c r="AN37" s="77"/>
     </row>
-    <row r="38" spans="1:40" s="10" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A38" s="249"/>
-      <c r="B38" s="237">
+    <row r="38" spans="1:40" s="10" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A38" s="256"/>
+      <c r="B38" s="244">
         <v>8</v>
       </c>
-      <c r="C38" s="234" t="s">
+      <c r="C38" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="234" t="s">
+      <c r="D38" s="241" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="95" t="s">
@@ -5196,59 +5357,61 @@
       <c r="H38" s="92"/>
       <c r="I38" s="43"/>
       <c r="J38" s="83"/>
-      <c r="K38" s="168"/>
-      <c r="L38" s="169"/>
-      <c r="M38" s="170"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="92"/>
       <c r="N38" s="43"/>
       <c r="O38" s="83"/>
-      <c r="P38" s="175" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q38" s="181" t="s">
-        <v>125</v>
-      </c>
-      <c r="R38" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="S38" s="195" t="s">
-        <v>151</v>
+      <c r="P38" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q38" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="R38" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="S38" s="190" t="s">
+        <v>100</v>
       </c>
       <c r="T38" s="83"/>
-      <c r="U38" s="249"/>
-      <c r="V38" s="237">
+      <c r="U38" s="256"/>
+      <c r="V38" s="244">
         <v>8</v>
       </c>
-      <c r="W38" s="234" t="s">
+      <c r="W38" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="X38" s="234" t="s">
+      <c r="X38" s="241" t="s">
         <v>33</v>
       </c>
       <c r="Y38" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="Z38" s="175" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA38" s="181" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB38" s="170"/>
+      <c r="Z38" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA38" s="226" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB38" s="222" t="s">
+        <v>176</v>
+      </c>
       <c r="AC38" s="62" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="AD38" s="83"/>
-      <c r="AE38" s="175" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF38" s="181" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG38" s="185" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH38" s="189" t="s">
-        <v>133</v>
+      <c r="AE38" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF38" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG38" s="204" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH38" s="167" t="s">
+        <v>88</v>
       </c>
       <c r="AI38" s="83"/>
       <c r="AJ38" s="96"/>
@@ -5257,11 +5420,11 @@
       <c r="AM38" s="43"/>
       <c r="AN38" s="83"/>
     </row>
-    <row r="39" spans="1:40" s="10" customFormat="1" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A39" s="249"/>
-      <c r="B39" s="231"/>
-      <c r="C39" s="233"/>
-      <c r="D39" s="233"/>
+    <row r="39" spans="1:40" s="10" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A39" s="256"/>
+      <c r="B39" s="238"/>
+      <c r="C39" s="240"/>
+      <c r="D39" s="240"/>
       <c r="E39" s="93" t="s">
         <v>2</v>
       </c>
@@ -5270,53 +5433,55 @@
       <c r="H39" s="94"/>
       <c r="I39" s="33"/>
       <c r="J39" s="77"/>
-      <c r="K39" s="166"/>
-      <c r="L39" s="166"/>
-      <c r="M39" s="171"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="94"/>
       <c r="N39" s="33"/>
       <c r="O39" s="77"/>
-      <c r="P39" s="167" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q39" s="167" t="s">
-        <v>131</v>
-      </c>
-      <c r="R39" s="167" t="s">
-        <v>127</v>
-      </c>
-      <c r="S39" s="196" t="s">
-        <v>151</v>
+      <c r="P39" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q39" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="R39" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="S39" s="189" t="s">
+        <v>100</v>
       </c>
       <c r="T39" s="77"/>
-      <c r="U39" s="249"/>
-      <c r="V39" s="231"/>
-      <c r="W39" s="233"/>
-      <c r="X39" s="233"/>
+      <c r="U39" s="256"/>
+      <c r="V39" s="238"/>
+      <c r="W39" s="240"/>
+      <c r="X39" s="240"/>
       <c r="Y39" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="Z39" s="167" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA39" s="167" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB39" s="171"/>
+      <c r="Z39" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA39" s="227" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB39" s="221" t="s">
+        <v>176</v>
+      </c>
       <c r="AC39" s="61" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="AD39" s="77"/>
-      <c r="AE39" s="167" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF39" s="167" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG39" s="170" t="s">
-        <v>148</v>
+      <c r="AE39" s="205" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF39" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG39" s="92" t="s">
+        <v>98</v>
       </c>
       <c r="AH39" s="61" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="AI39" s="77"/>
       <c r="AJ39" s="98"/>
@@ -5326,16 +5491,16 @@
       <c r="AN39" s="77"/>
     </row>
     <row r="40" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A40" s="250" t="s">
+      <c r="A40" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="243">
-        <v>1</v>
-      </c>
-      <c r="C40" s="244" t="s">
+      <c r="B40" s="250">
+        <v>1</v>
+      </c>
+      <c r="C40" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="244" t="s">
+      <c r="D40" s="251" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="57" t="s">
@@ -5354,18 +5519,18 @@
       <c r="P40" s="21"/>
       <c r="Q40" s="19"/>
       <c r="R40" s="47"/>
-      <c r="S40" s="31"/>
+      <c r="S40" s="190"/>
       <c r="T40" s="83"/>
-      <c r="U40" s="250" t="s">
+      <c r="U40" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="V40" s="243">
-        <v>1</v>
-      </c>
-      <c r="W40" s="244" t="s">
+      <c r="V40" s="250">
+        <v>1</v>
+      </c>
+      <c r="W40" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="X40" s="244" t="s">
+      <c r="X40" s="251" t="s">
         <v>27</v>
       </c>
       <c r="Y40" s="57" t="s">
@@ -5388,10 +5553,10 @@
       <c r="AN40" s="83"/>
     </row>
     <row r="41" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A41" s="251"/>
-      <c r="B41" s="229"/>
-      <c r="C41" s="227"/>
-      <c r="D41" s="227"/>
+      <c r="A41" s="258"/>
+      <c r="B41" s="236"/>
+      <c r="C41" s="234"/>
+      <c r="D41" s="234"/>
       <c r="E41" s="26" t="s">
         <v>2</v>
       </c>
@@ -5408,12 +5573,12 @@
       <c r="P41" s="69"/>
       <c r="Q41" s="30"/>
       <c r="R41" s="36"/>
-      <c r="S41" s="68"/>
+      <c r="S41" s="191"/>
       <c r="T41" s="76"/>
-      <c r="U41" s="251"/>
-      <c r="V41" s="229"/>
-      <c r="W41" s="227"/>
-      <c r="X41" s="227"/>
+      <c r="U41" s="258"/>
+      <c r="V41" s="236"/>
+      <c r="W41" s="234"/>
+      <c r="X41" s="234"/>
       <c r="Y41" s="26" t="s">
         <v>2</v>
       </c>
@@ -5433,24 +5598,32 @@
       <c r="AM41" s="27"/>
       <c r="AN41" s="76"/>
     </row>
-    <row r="42" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A42" s="251"/>
-      <c r="B42" s="228">
-        <v>2</v>
-      </c>
-      <c r="C42" s="226" t="s">
+    <row r="42" spans="1:40" ht="39.75" customHeight="1">
+      <c r="A42" s="258"/>
+      <c r="B42" s="235">
+        <v>2</v>
+      </c>
+      <c r="C42" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="226" t="s">
+      <c r="D42" s="233" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F42" s="69"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="68"/>
+      <c r="F42" s="193" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="201" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" s="68" t="s">
+        <v>53</v>
+      </c>
       <c r="J42" s="76"/>
       <c r="K42" s="69"/>
       <c r="L42" s="30"/>
@@ -5460,16 +5633,16 @@
       <c r="P42" s="69"/>
       <c r="Q42" s="30"/>
       <c r="R42" s="36"/>
-      <c r="S42" s="68"/>
+      <c r="S42" s="191"/>
       <c r="T42" s="76"/>
-      <c r="U42" s="251"/>
-      <c r="V42" s="228">
-        <v>2</v>
-      </c>
-      <c r="W42" s="226" t="s">
+      <c r="U42" s="258"/>
+      <c r="V42" s="235">
+        <v>2</v>
+      </c>
+      <c r="W42" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="X42" s="226" t="s">
+      <c r="X42" s="233" t="s">
         <v>29</v>
       </c>
       <c r="Y42" s="29" t="s">
@@ -5491,18 +5664,26 @@
       <c r="AM42" s="27"/>
       <c r="AN42" s="76"/>
     </row>
-    <row r="43" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A43" s="251"/>
-      <c r="B43" s="229"/>
-      <c r="C43" s="227"/>
-      <c r="D43" s="227"/>
+    <row r="43" spans="1:40" ht="39.75" customHeight="1">
+      <c r="A43" s="258"/>
+      <c r="B43" s="236"/>
+      <c r="C43" s="234"/>
+      <c r="D43" s="234"/>
       <c r="E43" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="69"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="68"/>
+      <c r="F43" s="193" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="201" t="s">
+        <v>147</v>
+      </c>
+      <c r="I43" s="68" t="s">
+        <v>53</v>
+      </c>
       <c r="J43" s="76"/>
       <c r="K43" s="69"/>
       <c r="L43" s="30"/>
@@ -5512,12 +5693,12 @@
       <c r="P43" s="69"/>
       <c r="Q43" s="30"/>
       <c r="R43" s="36"/>
-      <c r="S43" s="68"/>
+      <c r="S43" s="191"/>
       <c r="T43" s="76"/>
-      <c r="U43" s="251"/>
-      <c r="V43" s="229"/>
-      <c r="W43" s="227"/>
-      <c r="X43" s="227"/>
+      <c r="U43" s="258"/>
+      <c r="V43" s="236"/>
+      <c r="W43" s="234"/>
+      <c r="X43" s="234"/>
       <c r="Y43" s="29" t="s">
         <v>2</v>
       </c>
@@ -5537,24 +5718,32 @@
       <c r="AM43" s="27"/>
       <c r="AN43" s="76"/>
     </row>
-    <row r="44" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A44" s="251"/>
-      <c r="B44" s="228">
+    <row r="44" spans="1:40" ht="39.75" customHeight="1">
+      <c r="A44" s="258"/>
+      <c r="B44" s="235">
         <v>3</v>
       </c>
-      <c r="C44" s="226" t="s">
+      <c r="C44" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="226" t="s">
+      <c r="D44" s="233" t="s">
         <v>46</v>
       </c>
       <c r="E44" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="69"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="68"/>
+      <c r="F44" s="193" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" s="201" t="s">
+        <v>147</v>
+      </c>
+      <c r="I44" s="68" t="s">
+        <v>53</v>
+      </c>
       <c r="J44" s="75"/>
       <c r="K44" s="69"/>
       <c r="L44" s="30"/>
@@ -5564,16 +5753,16 @@
       <c r="P44" s="69"/>
       <c r="Q44" s="30"/>
       <c r="R44" s="36"/>
-      <c r="S44" s="68"/>
+      <c r="S44" s="191"/>
       <c r="T44" s="76"/>
-      <c r="U44" s="251"/>
-      <c r="V44" s="228">
+      <c r="U44" s="258"/>
+      <c r="V44" s="235">
         <v>3</v>
       </c>
-      <c r="W44" s="226" t="s">
+      <c r="W44" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="X44" s="226" t="s">
+      <c r="X44" s="233" t="s">
         <v>46</v>
       </c>
       <c r="Y44" s="29" t="s">
@@ -5595,33 +5784,41 @@
       <c r="AM44" s="27"/>
       <c r="AN44" s="75"/>
     </row>
-    <row r="45" spans="1:40" ht="29.25" customHeight="1">
-      <c r="A45" s="251"/>
-      <c r="B45" s="229"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="227"/>
+    <row r="45" spans="1:40" ht="39.75" customHeight="1">
+      <c r="A45" s="258"/>
+      <c r="B45" s="236"/>
+      <c r="C45" s="234"/>
+      <c r="D45" s="234"/>
       <c r="E45" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="69"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="68"/>
+      <c r="F45" s="193" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="201" t="s">
+        <v>147</v>
+      </c>
+      <c r="I45" s="68" t="s">
+        <v>53</v>
+      </c>
       <c r="J45" s="75"/>
-      <c r="K45" s="279"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="107"/>
-      <c r="N45" s="205"/>
+      <c r="K45" s="186"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="169"/>
       <c r="O45" s="75"/>
       <c r="P45" s="69"/>
       <c r="Q45" s="30"/>
       <c r="R45" s="36"/>
-      <c r="S45" s="68"/>
+      <c r="S45" s="191"/>
       <c r="T45" s="76"/>
-      <c r="U45" s="251"/>
-      <c r="V45" s="229"/>
-      <c r="W45" s="227"/>
-      <c r="X45" s="227"/>
+      <c r="U45" s="258"/>
+      <c r="V45" s="236"/>
+      <c r="W45" s="234"/>
+      <c r="X45" s="234"/>
       <c r="Y45" s="29" t="s">
         <v>2</v>
       </c>
@@ -5642,58 +5839,58 @@
       <c r="AN45" s="75"/>
     </row>
     <row r="46" spans="1:40" ht="50.25" customHeight="1">
-      <c r="A46" s="251"/>
-      <c r="B46" s="228">
+      <c r="A46" s="258"/>
+      <c r="B46" s="235">
         <v>4</v>
       </c>
-      <c r="C46" s="226" t="s">
+      <c r="C46" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="226" t="s">
+      <c r="D46" s="233" t="s">
         <v>48</v>
       </c>
       <c r="E46" s="29" t="s">
         <v>1</v>
       </c>
       <c r="F46" s="69" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H46" s="36" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="J46" s="75"/>
-      <c r="K46" s="198" t="s">
-        <v>153</v>
-      </c>
-      <c r="L46" s="201" t="s">
-        <v>54</v>
-      </c>
-      <c r="M46" s="201" t="s">
-        <v>154</v>
-      </c>
-      <c r="N46" s="206" t="s">
-        <v>105</v>
+      <c r="K46" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="L46" s="207" t="s">
+        <v>83</v>
+      </c>
+      <c r="M46" s="187" t="s">
+        <v>110</v>
+      </c>
+      <c r="N46" s="170" t="s">
+        <v>76</v>
       </c>
       <c r="O46" s="75"/>
       <c r="P46" s="69"/>
       <c r="Q46" s="30"/>
       <c r="R46" s="36"/>
-      <c r="S46" s="68"/>
+      <c r="S46" s="191"/>
       <c r="T46" s="76"/>
-      <c r="U46" s="251"/>
-      <c r="V46" s="228">
+      <c r="U46" s="258"/>
+      <c r="V46" s="235">
         <v>4</v>
       </c>
-      <c r="W46" s="226" t="s">
+      <c r="W46" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="X46" s="226" t="s">
+      <c r="X46" s="233" t="s">
         <v>48</v>
       </c>
       <c r="Y46" s="29" t="s">
@@ -5715,49 +5912,49 @@
       <c r="AM46" s="41"/>
       <c r="AN46" s="75"/>
     </row>
-    <row r="47" spans="1:40" ht="44.25" customHeight="1">
-      <c r="A47" s="251"/>
-      <c r="B47" s="229"/>
-      <c r="C47" s="227"/>
-      <c r="D47" s="227"/>
+    <row r="47" spans="1:40" ht="68.25" customHeight="1">
+      <c r="A47" s="258"/>
+      <c r="B47" s="236"/>
+      <c r="C47" s="234"/>
+      <c r="D47" s="234"/>
       <c r="E47" s="29" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="69" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I47" s="43" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="J47" s="75"/>
-      <c r="K47" s="199" t="s">
-        <v>155</v>
-      </c>
-      <c r="L47" s="202" t="s">
-        <v>53</v>
-      </c>
-      <c r="M47" s="202" t="s">
-        <v>156</v>
-      </c>
-      <c r="N47" s="207" t="s">
-        <v>157</v>
+      <c r="K47" s="202" t="s">
+        <v>144</v>
+      </c>
+      <c r="L47" s="199" t="s">
+        <v>142</v>
+      </c>
+      <c r="M47" s="188" t="s">
+        <v>141</v>
+      </c>
+      <c r="N47" s="171" t="s">
+        <v>140</v>
       </c>
       <c r="O47" s="75"/>
       <c r="P47" s="69"/>
       <c r="Q47" s="30"/>
       <c r="R47" s="36"/>
-      <c r="S47" s="68"/>
+      <c r="S47" s="191"/>
       <c r="T47" s="76"/>
-      <c r="U47" s="251"/>
-      <c r="V47" s="229"/>
-      <c r="W47" s="227"/>
-      <c r="X47" s="227"/>
+      <c r="U47" s="258"/>
+      <c r="V47" s="236"/>
+      <c r="W47" s="234"/>
+      <c r="X47" s="234"/>
       <c r="Y47" s="29" t="s">
         <v>2</v>
       </c>
@@ -5777,59 +5974,59 @@
       <c r="AM47" s="27"/>
       <c r="AN47" s="75"/>
     </row>
-    <row r="48" spans="1:40" s="15" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A48" s="251"/>
-      <c r="B48" s="228">
+    <row r="48" spans="1:40" s="15" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A48" s="258"/>
+      <c r="B48" s="235">
         <v>5</v>
       </c>
-      <c r="C48" s="226" t="s">
+      <c r="C48" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="226" t="s">
+      <c r="D48" s="233" t="s">
         <v>49</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>1</v>
       </c>
       <c r="F48" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="J48" s="76"/>
+      <c r="K48" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="L48" s="207" t="s">
+        <v>83</v>
+      </c>
+      <c r="M48" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="N48" s="170" t="s">
         <v>76</v>
-      </c>
-      <c r="G48" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="I48" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="J48" s="76"/>
-      <c r="K48" s="200" t="s">
-        <v>153</v>
-      </c>
-      <c r="L48" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="M48" s="107" t="s">
-        <v>154</v>
-      </c>
-      <c r="N48" s="206" t="s">
-        <v>105</v>
       </c>
       <c r="O48" s="76"/>
       <c r="P48" s="69"/>
       <c r="Q48" s="30"/>
       <c r="R48" s="36"/>
-      <c r="S48" s="68"/>
+      <c r="S48" s="191"/>
       <c r="T48" s="76"/>
-      <c r="U48" s="251"/>
-      <c r="V48" s="228">
+      <c r="U48" s="258"/>
+      <c r="V48" s="235">
         <v>5</v>
       </c>
-      <c r="W48" s="226" t="s">
+      <c r="W48" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="X48" s="226" t="s">
+      <c r="X48" s="233" t="s">
         <v>49</v>
       </c>
       <c r="Y48" s="29" t="s">
@@ -5851,49 +6048,49 @@
       <c r="AM48" s="41"/>
       <c r="AN48" s="76"/>
     </row>
-    <row r="49" spans="1:40" s="15" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A49" s="251"/>
-      <c r="B49" s="229"/>
-      <c r="C49" s="227"/>
-      <c r="D49" s="227"/>
+    <row r="49" spans="1:40" s="15" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A49" s="258"/>
+      <c r="B49" s="236"/>
+      <c r="C49" s="234"/>
+      <c r="D49" s="234"/>
       <c r="E49" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="69" t="s">
-        <v>78</v>
+      <c r="F49" s="286" t="s">
+        <v>184</v>
       </c>
       <c r="G49" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="36" t="s">
-        <v>58</v>
-      </c>
       <c r="I49" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J49" s="76"/>
-      <c r="K49" s="200" t="s">
-        <v>158</v>
-      </c>
-      <c r="L49" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="M49" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="N49" s="206" t="s">
-        <v>105</v>
+      <c r="K49" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="L49" s="207" t="s">
+        <v>83</v>
+      </c>
+      <c r="M49" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="N49" s="170" t="s">
+        <v>76</v>
       </c>
       <c r="O49" s="76"/>
       <c r="P49" s="69"/>
       <c r="Q49" s="30"/>
       <c r="R49" s="36"/>
-      <c r="S49" s="43"/>
+      <c r="S49" s="170"/>
       <c r="T49" s="84"/>
-      <c r="U49" s="251"/>
-      <c r="V49" s="229"/>
-      <c r="W49" s="227"/>
-      <c r="X49" s="227"/>
+      <c r="U49" s="258"/>
+      <c r="V49" s="236"/>
+      <c r="W49" s="234"/>
+      <c r="X49" s="234"/>
       <c r="Y49" s="29" t="s">
         <v>2</v>
       </c>
@@ -5913,57 +6110,59 @@
       <c r="AM49" s="27"/>
       <c r="AN49" s="84"/>
     </row>
-    <row r="50" spans="1:40" s="14" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A50" s="251"/>
-      <c r="B50" s="228">
+    <row r="50" spans="1:40" s="14" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A50" s="258"/>
+      <c r="B50" s="235">
         <v>6</v>
       </c>
-      <c r="C50" s="226" t="s">
+      <c r="C50" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="226" t="s">
+      <c r="D50" s="233" t="s">
         <v>50</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F50" s="69" t="s">
-        <v>82</v>
+      <c r="F50" s="286" t="s">
+        <v>185</v>
       </c>
       <c r="G50" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="H50" s="36" t="s">
-        <v>58</v>
-      </c>
       <c r="I50" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="J50" s="123"/>
-      <c r="K50" s="197" t="s">
-        <v>117</v>
-      </c>
-      <c r="L50" s="203" t="s">
-        <v>54</v>
-      </c>
-      <c r="M50" s="203"/>
-      <c r="N50" s="208" t="s">
-        <v>118</v>
+        <v>53</v>
+      </c>
+      <c r="J50" s="122"/>
+      <c r="K50" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="L50" s="207" t="s">
+        <v>83</v>
+      </c>
+      <c r="M50" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="N50" s="170" t="s">
+        <v>175</v>
       </c>
       <c r="O50" s="81"/>
       <c r="P50" s="69"/>
       <c r="Q50" s="30"/>
       <c r="R50" s="36"/>
-      <c r="S50" s="68"/>
+      <c r="S50" s="191"/>
       <c r="T50" s="76"/>
-      <c r="U50" s="251"/>
-      <c r="V50" s="228">
+      <c r="U50" s="258"/>
+      <c r="V50" s="235">
         <v>6</v>
       </c>
-      <c r="W50" s="226" t="s">
+      <c r="W50" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="X50" s="226" t="s">
+      <c r="X50" s="233" t="s">
         <v>50</v>
       </c>
       <c r="Y50" s="29" t="s">
@@ -5985,49 +6184,41 @@
       <c r="AM50" s="27"/>
       <c r="AN50" s="81"/>
     </row>
-    <row r="51" spans="1:40" s="17" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A51" s="251"/>
-      <c r="B51" s="229"/>
-      <c r="C51" s="227"/>
-      <c r="D51" s="227"/>
+    <row r="51" spans="1:40" s="17" customFormat="1" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A51" s="258"/>
+      <c r="B51" s="236"/>
+      <c r="C51" s="234"/>
+      <c r="D51" s="234"/>
       <c r="E51" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F51" s="69" t="s">
+      <c r="F51" s="69"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="123"/>
+      <c r="K51" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="L51" s="207" t="s">
         <v>83</v>
       </c>
-      <c r="G51" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" s="129" t="s">
-        <v>161</v>
-      </c>
-      <c r="I51" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="J51" s="124"/>
-      <c r="K51" s="200" t="s">
-        <v>158</v>
-      </c>
-      <c r="L51" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="M51" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="N51" s="206" t="s">
-        <v>105</v>
+      <c r="M51" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="N51" s="170" t="s">
+        <v>76</v>
       </c>
       <c r="O51" s="82"/>
       <c r="P51" s="69"/>
       <c r="Q51" s="30"/>
       <c r="R51" s="36"/>
-      <c r="S51" s="43"/>
+      <c r="S51" s="170"/>
       <c r="T51" s="82"/>
-      <c r="U51" s="251"/>
-      <c r="V51" s="229"/>
-      <c r="W51" s="227"/>
-      <c r="X51" s="227"/>
+      <c r="U51" s="258"/>
+      <c r="V51" s="236"/>
+      <c r="W51" s="234"/>
+      <c r="X51" s="234"/>
       <c r="Y51" s="58" t="s">
         <v>2</v>
       </c>
@@ -6047,15 +6238,15 @@
       <c r="AM51" s="41"/>
       <c r="AN51" s="82"/>
     </row>
-    <row r="52" spans="1:40" s="22" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A52" s="251"/>
-      <c r="B52" s="235">
+    <row r="52" spans="1:40" s="22" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A52" s="258"/>
+      <c r="B52" s="242">
         <v>7</v>
       </c>
-      <c r="C52" s="236" t="s">
+      <c r="C52" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="236" t="s">
+      <c r="D52" s="243" t="s">
         <v>51</v>
       </c>
       <c r="E52" s="39" t="s">
@@ -6066,30 +6257,32 @@
       <c r="H52" s="36"/>
       <c r="I52" s="43"/>
       <c r="J52" s="82"/>
-      <c r="K52" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="L52" s="128" t="s">
-        <v>54</v>
-      </c>
-      <c r="M52" s="204"/>
-      <c r="N52" s="173" t="s">
-        <v>118</v>
+      <c r="K52" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="L52" s="207" t="s">
+        <v>83</v>
+      </c>
+      <c r="M52" s="200" t="s">
+        <v>143</v>
+      </c>
+      <c r="N52" s="170" t="s">
+        <v>175</v>
       </c>
       <c r="O52" s="82"/>
       <c r="P52" s="69"/>
       <c r="Q52" s="30"/>
       <c r="R52" s="36"/>
-      <c r="S52" s="43"/>
+      <c r="S52" s="170"/>
       <c r="T52" s="82"/>
-      <c r="U52" s="251"/>
-      <c r="V52" s="235">
+      <c r="U52" s="258"/>
+      <c r="V52" s="242">
         <v>7</v>
       </c>
-      <c r="W52" s="236" t="s">
+      <c r="W52" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="X52" s="236" t="s">
+      <c r="X52" s="243" t="s">
         <v>51</v>
       </c>
       <c r="Y52" s="39" t="s">
@@ -6098,7 +6291,7 @@
       <c r="Z52" s="35"/>
       <c r="AA52" s="35"/>
       <c r="AB52" s="49"/>
-      <c r="AC52" s="43"/>
+      <c r="AC52" s="170"/>
       <c r="AD52" s="82"/>
       <c r="AE52" s="37"/>
       <c r="AF52" s="37"/>
@@ -6112,10 +6305,10 @@
       <c r="AN52" s="82"/>
     </row>
     <row r="53" spans="1:40" s="22" customFormat="1" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A53" s="251"/>
-      <c r="B53" s="235"/>
-      <c r="C53" s="236"/>
-      <c r="D53" s="236"/>
+      <c r="A53" s="258"/>
+      <c r="B53" s="242"/>
+      <c r="C53" s="243"/>
+      <c r="D53" s="243"/>
       <c r="E53" s="40" t="s">
         <v>2</v>
       </c>
@@ -6132,24 +6325,24 @@
       <c r="P53" s="34"/>
       <c r="Q53" s="46"/>
       <c r="R53" s="38"/>
-      <c r="S53" s="32"/>
+      <c r="S53" s="189"/>
       <c r="T53" s="77"/>
-      <c r="U53" s="251"/>
-      <c r="V53" s="235"/>
-      <c r="W53" s="236"/>
-      <c r="X53" s="236"/>
+      <c r="U53" s="258"/>
+      <c r="V53" s="242"/>
+      <c r="W53" s="243"/>
+      <c r="X53" s="243"/>
       <c r="Y53" s="40" t="s">
         <v>2</v>
       </c>
       <c r="Z53" s="34"/>
       <c r="AA53" s="34"/>
       <c r="AB53" s="48"/>
-      <c r="AC53" s="32"/>
+      <c r="AC53" s="189"/>
       <c r="AD53" s="77"/>
       <c r="AE53" s="34"/>
       <c r="AF53" s="34"/>
       <c r="AG53" s="38"/>
-      <c r="AH53" s="42"/>
+      <c r="AH53" s="192"/>
       <c r="AI53" s="77"/>
       <c r="AJ53" s="34"/>
       <c r="AK53" s="34"/>
@@ -6157,15 +6350,15 @@
       <c r="AM53" s="42"/>
       <c r="AN53" s="77"/>
     </row>
-    <row r="54" spans="1:40" s="16" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A54" s="251"/>
-      <c r="B54" s="230">
+    <row r="54" spans="1:40" s="16" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A54" s="258"/>
+      <c r="B54" s="237">
         <v>7</v>
       </c>
-      <c r="C54" s="232" t="s">
+      <c r="C54" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="232" t="s">
+      <c r="D54" s="239" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="91" t="s">
@@ -6176,55 +6369,61 @@
       <c r="H54" s="100"/>
       <c r="I54" s="31"/>
       <c r="J54" s="76"/>
-      <c r="K54" s="164"/>
-      <c r="L54" s="164"/>
-      <c r="M54" s="165"/>
+      <c r="K54" s="102"/>
+      <c r="L54" s="102"/>
+      <c r="M54" s="100"/>
       <c r="N54" s="31"/>
       <c r="O54" s="76"/>
-      <c r="P54" s="165" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q54" s="165" t="s">
+      <c r="P54" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="R54" s="165"/>
-      <c r="S54" s="60" t="s">
-        <v>133</v>
+      <c r="Q54" s="215" t="s">
+        <v>83</v>
+      </c>
+      <c r="R54" s="217" t="s">
+        <v>143</v>
+      </c>
+      <c r="S54" s="170" t="s">
+        <v>175</v>
       </c>
       <c r="T54" s="76"/>
-      <c r="U54" s="251"/>
-      <c r="V54" s="230">
+      <c r="U54" s="258"/>
+      <c r="V54" s="237">
         <v>7</v>
       </c>
-      <c r="W54" s="232" t="s">
+      <c r="W54" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="X54" s="232" t="s">
+      <c r="X54" s="239" t="s">
         <v>31</v>
       </c>
       <c r="Y54" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="Z54" s="165" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA54" s="165" t="s">
+      <c r="Z54" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="AB54" s="165"/>
-      <c r="AC54" s="60" t="s">
-        <v>133</v>
+      <c r="AA54" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB54" s="217" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC54" s="170" t="s">
+        <v>175</v>
       </c>
       <c r="AD54" s="76"/>
-      <c r="AE54" s="165" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF54" s="165" t="s">
+      <c r="AE54" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="AG54" s="165"/>
-      <c r="AH54" s="60" t="s">
-        <v>133</v>
+      <c r="AF54" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG54" s="217" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH54" s="170" t="s">
+        <v>175</v>
       </c>
       <c r="AI54" s="76"/>
       <c r="AJ54" s="100"/>
@@ -6233,11 +6432,11 @@
       <c r="AM54" s="31"/>
       <c r="AN54" s="76"/>
     </row>
-    <row r="55" spans="1:40" s="16" customFormat="1" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A55" s="251"/>
-      <c r="B55" s="231"/>
-      <c r="C55" s="233"/>
-      <c r="D55" s="233"/>
+    <row r="55" spans="1:40" s="16" customFormat="1" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A55" s="258"/>
+      <c r="B55" s="238"/>
+      <c r="C55" s="240"/>
+      <c r="D55" s="240"/>
       <c r="E55" s="93" t="s">
         <v>2</v>
       </c>
@@ -6246,55 +6445,55 @@
       <c r="H55" s="98"/>
       <c r="I55" s="32"/>
       <c r="J55" s="77"/>
-      <c r="K55" s="166"/>
-      <c r="L55" s="166"/>
-      <c r="M55" s="167"/>
+      <c r="K55" s="103"/>
+      <c r="L55" s="103"/>
+      <c r="M55" s="98"/>
       <c r="N55" s="32"/>
       <c r="O55" s="77"/>
-      <c r="P55" s="167" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q55" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="R55" s="182" t="s">
-        <v>135</v>
-      </c>
-      <c r="S55" s="194" t="s">
-        <v>147</v>
+      <c r="P55" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q55" s="216" t="s">
+        <v>83</v>
+      </c>
+      <c r="R55" s="214" t="s">
+        <v>89</v>
+      </c>
+      <c r="S55" s="219" t="s">
+        <v>97</v>
       </c>
       <c r="T55" s="77"/>
-      <c r="U55" s="251"/>
-      <c r="V55" s="231"/>
-      <c r="W55" s="233"/>
-      <c r="X55" s="233"/>
+      <c r="U55" s="258"/>
+      <c r="V55" s="238"/>
+      <c r="W55" s="240"/>
+      <c r="X55" s="240"/>
       <c r="Y55" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="Z55" s="167" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA55" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB55" s="182" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC55" s="194" t="s">
-        <v>147</v>
+      <c r="Z55" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA55" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB55" s="214" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC55" s="219" t="s">
+        <v>97</v>
       </c>
       <c r="AD55" s="77"/>
-      <c r="AE55" s="167" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF55" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG55" s="182" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH55" s="194" t="s">
-        <v>147</v>
+      <c r="AE55" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF55" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG55" s="214" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH55" s="219" t="s">
+        <v>97</v>
       </c>
       <c r="AI55" s="77"/>
       <c r="AJ55" s="98"/>
@@ -6303,15 +6502,15 @@
       <c r="AM55" s="32"/>
       <c r="AN55" s="77"/>
     </row>
-    <row r="56" spans="1:40" s="10" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A56" s="251"/>
-      <c r="B56" s="237">
+    <row r="56" spans="1:40" s="10" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A56" s="258"/>
+      <c r="B56" s="244">
         <v>8</v>
       </c>
-      <c r="C56" s="234" t="s">
+      <c r="C56" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="234" t="s">
+      <c r="D56" s="241" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="95" t="s">
@@ -6322,55 +6521,61 @@
       <c r="H56" s="92"/>
       <c r="I56" s="43"/>
       <c r="J56" s="83"/>
-      <c r="K56" s="168"/>
-      <c r="L56" s="169"/>
-      <c r="M56" s="170"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="92"/>
       <c r="N56" s="43"/>
       <c r="O56" s="83"/>
-      <c r="P56" s="175" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q56" s="170" t="s">
+      <c r="P56" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="R56" s="170"/>
-      <c r="S56" s="60" t="s">
-        <v>133</v>
+      <c r="Q56" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="R56" s="217" t="s">
+        <v>143</v>
+      </c>
+      <c r="S56" s="170" t="s">
+        <v>175</v>
       </c>
       <c r="T56" s="83"/>
-      <c r="U56" s="251"/>
-      <c r="V56" s="237">
+      <c r="U56" s="258"/>
+      <c r="V56" s="244">
         <v>8</v>
       </c>
-      <c r="W56" s="234" t="s">
+      <c r="W56" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="X56" s="234" t="s">
+      <c r="X56" s="241" t="s">
         <v>33</v>
       </c>
       <c r="Y56" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="Z56" s="175" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA56" s="175" t="s">
+      <c r="Z56" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="AB56" s="170"/>
-      <c r="AC56" s="60" t="s">
-        <v>133</v>
+      <c r="AA56" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB56" s="217" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC56" s="170" t="s">
+        <v>175</v>
       </c>
       <c r="AD56" s="83"/>
-      <c r="AE56" s="175" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF56" s="175" t="s">
+      <c r="AE56" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="AG56" s="170"/>
-      <c r="AH56" s="60" t="s">
-        <v>133</v>
+      <c r="AF56" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG56" s="217" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH56" s="170" t="s">
+        <v>175</v>
       </c>
       <c r="AI56" s="83"/>
       <c r="AJ56" s="100"/>
@@ -6379,11 +6584,11 @@
       <c r="AM56" s="31"/>
       <c r="AN56" s="83"/>
     </row>
-    <row r="57" spans="1:40" s="10" customFormat="1" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A57" s="251"/>
-      <c r="B57" s="231"/>
-      <c r="C57" s="233"/>
-      <c r="D57" s="233"/>
+    <row r="57" spans="1:40" s="10" customFormat="1" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A57" s="258"/>
+      <c r="B57" s="238"/>
+      <c r="C57" s="240"/>
+      <c r="D57" s="240"/>
       <c r="E57" s="93" t="s">
         <v>2</v>
       </c>
@@ -6392,55 +6597,55 @@
       <c r="H57" s="94"/>
       <c r="I57" s="33"/>
       <c r="J57" s="77"/>
-      <c r="K57" s="166"/>
-      <c r="L57" s="166"/>
-      <c r="M57" s="171"/>
+      <c r="K57" s="103"/>
+      <c r="L57" s="103"/>
+      <c r="M57" s="94"/>
       <c r="N57" s="33"/>
       <c r="O57" s="77"/>
-      <c r="P57" s="167" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q57" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="R57" s="182" t="s">
-        <v>135</v>
-      </c>
-      <c r="S57" s="194" t="s">
-        <v>147</v>
+      <c r="P57" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q57" s="216" t="s">
+        <v>86</v>
+      </c>
+      <c r="R57" s="214" t="s">
+        <v>89</v>
+      </c>
+      <c r="S57" s="219" t="s">
+        <v>97</v>
       </c>
       <c r="T57" s="77"/>
-      <c r="U57" s="251"/>
-      <c r="V57" s="231"/>
-      <c r="W57" s="233"/>
-      <c r="X57" s="233"/>
+      <c r="U57" s="258"/>
+      <c r="V57" s="238"/>
+      <c r="W57" s="240"/>
+      <c r="X57" s="240"/>
       <c r="Y57" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="Z57" s="167" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA57" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB57" s="182" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC57" s="194" t="s">
-        <v>147</v>
+      <c r="Z57" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA57" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB57" s="214" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC57" s="219" t="s">
+        <v>97</v>
       </c>
       <c r="AD57" s="77"/>
-      <c r="AE57" s="167" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF57" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG57" s="182" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH57" s="194" t="s">
-        <v>147</v>
+      <c r="AE57" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF57" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG57" s="214" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH57" s="219" t="s">
+        <v>97</v>
       </c>
       <c r="AI57" s="77"/>
       <c r="AJ57" s="98"/>
@@ -6450,16 +6655,16 @@
       <c r="AN57" s="77"/>
     </row>
     <row r="58" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A58" s="252" t="s">
+      <c r="A58" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="243">
-        <v>1</v>
-      </c>
-      <c r="C58" s="244" t="s">
+      <c r="B58" s="250">
+        <v>1</v>
+      </c>
+      <c r="C58" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="244" t="s">
+      <c r="D58" s="251" t="s">
         <v>27</v>
       </c>
       <c r="E58" s="57" t="s">
@@ -6480,16 +6685,16 @@
       <c r="R58" s="47"/>
       <c r="S58" s="31"/>
       <c r="T58" s="83"/>
-      <c r="U58" s="252" t="s">
+      <c r="U58" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="243">
-        <v>1</v>
-      </c>
-      <c r="W58" s="244" t="s">
+      <c r="V58" s="250">
+        <v>1</v>
+      </c>
+      <c r="W58" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="X58" s="244" t="s">
+      <c r="X58" s="251" t="s">
         <v>27</v>
       </c>
       <c r="Y58" s="57" t="s">
@@ -6498,12 +6703,12 @@
       <c r="Z58" s="21"/>
       <c r="AA58" s="19"/>
       <c r="AB58" s="47"/>
-      <c r="AC58" s="31"/>
+      <c r="AC58" s="190"/>
       <c r="AD58" s="83"/>
       <c r="AE58" s="20"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="47"/>
-      <c r="AH58" s="31"/>
+      <c r="AH58" s="190"/>
       <c r="AI58" s="83"/>
       <c r="AJ58" s="20"/>
       <c r="AK58" s="19"/>
@@ -6512,28 +6717,18 @@
       <c r="AN58" s="83"/>
     </row>
     <row r="59" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A59" s="253"/>
-      <c r="B59" s="229"/>
-      <c r="C59" s="227"/>
-      <c r="D59" s="227"/>
+      <c r="A59" s="260"/>
+      <c r="B59" s="236"/>
+      <c r="C59" s="234"/>
+      <c r="D59" s="234"/>
       <c r="E59" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="211" t="s">
-        <v>163</v>
-      </c>
-      <c r="G59" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H59" s="129" t="s">
-        <v>161</v>
-      </c>
-      <c r="I59" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="J59" s="121" t="s">
-        <v>64</v>
-      </c>
+      <c r="F59" s="69"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="120"/>
       <c r="K59" s="69"/>
       <c r="L59" s="30"/>
       <c r="M59" s="36"/>
@@ -6544,10 +6739,10 @@
       <c r="R59" s="36"/>
       <c r="S59" s="68"/>
       <c r="T59" s="76"/>
-      <c r="U59" s="253"/>
-      <c r="V59" s="229"/>
-      <c r="W59" s="227"/>
-      <c r="X59" s="227"/>
+      <c r="U59" s="260"/>
+      <c r="V59" s="236"/>
+      <c r="W59" s="234"/>
+      <c r="X59" s="234"/>
       <c r="Y59" s="26" t="s">
         <v>2</v>
       </c>
@@ -6568,14 +6763,14 @@
       <c r="AN59" s="76"/>
     </row>
     <row r="60" spans="1:40" ht="49.5" customHeight="1">
-      <c r="A60" s="253"/>
-      <c r="B60" s="228">
-        <v>2</v>
-      </c>
-      <c r="C60" s="226" t="s">
+      <c r="A60" s="260"/>
+      <c r="B60" s="235">
+        <v>2</v>
+      </c>
+      <c r="C60" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="226" t="s">
+      <c r="D60" s="233" t="s">
         <v>29</v>
       </c>
       <c r="E60" s="29" t="s">
@@ -6596,14 +6791,14 @@
       <c r="R60" s="36"/>
       <c r="S60" s="68"/>
       <c r="T60" s="76"/>
-      <c r="U60" s="253"/>
-      <c r="V60" s="228">
-        <v>2</v>
-      </c>
-      <c r="W60" s="226" t="s">
+      <c r="U60" s="260"/>
+      <c r="V60" s="235">
+        <v>2</v>
+      </c>
+      <c r="W60" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="X60" s="226" t="s">
+      <c r="X60" s="233" t="s">
         <v>29</v>
       </c>
       <c r="Y60" s="29" t="s">
@@ -6625,25 +6820,25 @@
       <c r="AM60" s="27"/>
       <c r="AN60" s="75"/>
     </row>
-    <row r="61" spans="1:40" ht="42.75" customHeight="1">
-      <c r="A61" s="253"/>
-      <c r="B61" s="229"/>
-      <c r="C61" s="227"/>
-      <c r="D61" s="227"/>
+    <row r="61" spans="1:40" ht="56.25" customHeight="1">
+      <c r="A61" s="260"/>
+      <c r="B61" s="236"/>
+      <c r="C61" s="234"/>
+      <c r="D61" s="234"/>
       <c r="E61" s="29" t="s">
         <v>2</v>
       </c>
       <c r="F61" s="69" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="G61" s="30" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="I61" s="68" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="J61" s="75"/>
       <c r="K61" s="69"/>
@@ -6656,10 +6851,10 @@
       <c r="R61" s="36"/>
       <c r="S61" s="68"/>
       <c r="T61" s="76"/>
-      <c r="U61" s="253"/>
-      <c r="V61" s="229"/>
-      <c r="W61" s="227"/>
-      <c r="X61" s="227"/>
+      <c r="U61" s="260"/>
+      <c r="V61" s="236"/>
+      <c r="W61" s="234"/>
+      <c r="X61" s="234"/>
       <c r="Y61" s="29" t="s">
         <v>2</v>
       </c>
@@ -6680,30 +6875,30 @@
       <c r="AN61" s="75"/>
     </row>
     <row r="62" spans="1:40" ht="39" customHeight="1">
-      <c r="A62" s="253"/>
-      <c r="B62" s="228">
+      <c r="A62" s="260"/>
+      <c r="B62" s="235">
         <v>3</v>
       </c>
-      <c r="C62" s="226" t="s">
+      <c r="C62" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="226" t="s">
+      <c r="D62" s="233" t="s">
         <v>46</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>1</v>
       </c>
       <c r="F62" s="69" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="G62" s="30" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I62" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J62" s="76"/>
       <c r="K62" s="69"/>
@@ -6716,14 +6911,14 @@
       <c r="R62" s="36"/>
       <c r="S62" s="68"/>
       <c r="T62" s="76"/>
-      <c r="U62" s="253"/>
-      <c r="V62" s="228">
+      <c r="U62" s="260"/>
+      <c r="V62" s="235">
         <v>3</v>
       </c>
-      <c r="W62" s="226" t="s">
+      <c r="W62" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="X62" s="226" t="s">
+      <c r="X62" s="233" t="s">
         <v>46</v>
       </c>
       <c r="Y62" s="29" t="s">
@@ -6746,24 +6941,24 @@
       <c r="AN62" s="76"/>
     </row>
     <row r="63" spans="1:40" ht="33" customHeight="1">
-      <c r="A63" s="253"/>
-      <c r="B63" s="229"/>
-      <c r="C63" s="227"/>
-      <c r="D63" s="227"/>
+      <c r="A63" s="260"/>
+      <c r="B63" s="236"/>
+      <c r="C63" s="234"/>
+      <c r="D63" s="234"/>
       <c r="E63" s="29" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" s="30" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="G63" s="207" t="s">
+        <v>83</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I63" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J63" s="76"/>
       <c r="K63" s="69"/>
@@ -6776,10 +6971,10 @@
       <c r="R63" s="36"/>
       <c r="S63" s="68"/>
       <c r="T63" s="76"/>
-      <c r="U63" s="253"/>
-      <c r="V63" s="229"/>
-      <c r="W63" s="227"/>
-      <c r="X63" s="227"/>
+      <c r="U63" s="260"/>
+      <c r="V63" s="236"/>
+      <c r="W63" s="234"/>
+      <c r="X63" s="234"/>
       <c r="Y63" s="29" t="s">
         <v>2</v>
       </c>
@@ -6800,30 +6995,30 @@
       <c r="AN63" s="76"/>
     </row>
     <row r="64" spans="1:40" ht="32.25" customHeight="1">
-      <c r="A64" s="253"/>
-      <c r="B64" s="228">
+      <c r="A64" s="260"/>
+      <c r="B64" s="235">
         <v>4</v>
       </c>
-      <c r="C64" s="226" t="s">
+      <c r="C64" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="226" t="s">
+      <c r="D64" s="233" t="s">
         <v>48</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>1</v>
       </c>
       <c r="F64" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>54</v>
+        <v>152</v>
+      </c>
+      <c r="G64" s="207" t="s">
+        <v>83</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I64" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J64" s="75"/>
       <c r="K64" s="69"/>
@@ -6836,14 +7031,14 @@
       <c r="R64" s="36"/>
       <c r="S64" s="68"/>
       <c r="T64" s="76"/>
-      <c r="U64" s="253"/>
-      <c r="V64" s="228">
+      <c r="U64" s="260"/>
+      <c r="V64" s="235">
         <v>4</v>
       </c>
-      <c r="W64" s="226" t="s">
+      <c r="W64" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="X64" s="226" t="s">
+      <c r="X64" s="233" t="s">
         <v>48</v>
       </c>
       <c r="Y64" s="29" t="s">
@@ -6866,24 +7061,24 @@
       <c r="AN64" s="75"/>
     </row>
     <row r="65" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A65" s="253"/>
-      <c r="B65" s="229"/>
-      <c r="C65" s="227"/>
-      <c r="D65" s="227"/>
+      <c r="A65" s="260"/>
+      <c r="B65" s="236"/>
+      <c r="C65" s="234"/>
+      <c r="D65" s="234"/>
       <c r="E65" s="29" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" s="30" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="G65" s="207" t="s">
+        <v>83</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I65" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J65" s="84"/>
       <c r="K65" s="69"/>
@@ -6896,10 +7091,10 @@
       <c r="R65" s="36"/>
       <c r="S65" s="68"/>
       <c r="T65" s="84"/>
-      <c r="U65" s="253"/>
-      <c r="V65" s="229"/>
-      <c r="W65" s="227"/>
-      <c r="X65" s="227"/>
+      <c r="U65" s="260"/>
+      <c r="V65" s="236"/>
+      <c r="W65" s="234"/>
+      <c r="X65" s="234"/>
       <c r="Y65" s="29" t="s">
         <v>2</v>
       </c>
@@ -6920,43 +7115,43 @@
       <c r="AN65" s="84"/>
     </row>
     <row r="66" spans="1:40" s="15" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A66" s="253"/>
-      <c r="B66" s="228">
+      <c r="A66" s="260"/>
+      <c r="B66" s="235">
         <v>5</v>
       </c>
-      <c r="C66" s="226" t="s">
+      <c r="C66" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="226" t="s">
+      <c r="D66" s="233" t="s">
         <v>49</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F66" s="122" t="s">
-        <v>56</v>
-      </c>
-      <c r="G66" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="H66" s="212" t="s">
-        <v>161</v>
+      <c r="F66" s="285" t="s">
+        <v>182</v>
+      </c>
+      <c r="G66" s="207" t="s">
+        <v>83</v>
+      </c>
+      <c r="H66" s="201" t="s">
+        <v>147</v>
       </c>
       <c r="I66" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J66" s="76"/>
-      <c r="K66" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="L66" s="30" t="s">
-        <v>54</v>
+      <c r="K66" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="L66" s="207" t="s">
+        <v>83</v>
       </c>
       <c r="M66" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="N66" s="172" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="N66" s="184" t="s">
+        <v>77</v>
       </c>
       <c r="O66" s="76"/>
       <c r="P66" s="69"/>
@@ -6964,14 +7159,14 @@
       <c r="R66" s="36"/>
       <c r="S66" s="68"/>
       <c r="T66" s="76"/>
-      <c r="U66" s="253"/>
-      <c r="V66" s="228">
+      <c r="U66" s="260"/>
+      <c r="V66" s="235">
         <v>5</v>
       </c>
-      <c r="W66" s="226" t="s">
+      <c r="W66" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="X66" s="226" t="s">
+      <c r="X66" s="233" t="s">
         <v>49</v>
       </c>
       <c r="Y66" s="29" t="s">
@@ -6993,38 +7188,38 @@
       <c r="AM66" s="68"/>
       <c r="AN66" s="76"/>
     </row>
-    <row r="67" spans="1:40" s="15" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A67" s="253"/>
-      <c r="B67" s="229"/>
-      <c r="C67" s="227"/>
-      <c r="D67" s="227"/>
+    <row r="67" spans="1:40" s="15" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A67" s="260"/>
+      <c r="B67" s="236"/>
+      <c r="C67" s="234"/>
+      <c r="D67" s="234"/>
       <c r="E67" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F67" s="122" t="s">
-        <v>81</v>
+      <c r="F67" s="285" t="s">
+        <v>183</v>
       </c>
       <c r="G67" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="H67" s="212" t="s">
-        <v>161</v>
+        <v>87</v>
+      </c>
+      <c r="H67" s="201" t="s">
+        <v>147</v>
       </c>
       <c r="I67" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J67" s="76"/>
-      <c r="K67" s="69" t="s">
-        <v>110</v>
+      <c r="K67" s="59" t="s">
+        <v>121</v>
       </c>
       <c r="L67" s="30" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="M67" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="N67" s="172" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="N67" s="184" t="s">
+        <v>77</v>
       </c>
       <c r="O67" s="76"/>
       <c r="P67" s="69"/>
@@ -7032,10 +7227,10 @@
       <c r="R67" s="36"/>
       <c r="S67" s="43"/>
       <c r="T67" s="76"/>
-      <c r="U67" s="253"/>
-      <c r="V67" s="229"/>
-      <c r="W67" s="227"/>
-      <c r="X67" s="227"/>
+      <c r="U67" s="260"/>
+      <c r="V67" s="236"/>
+      <c r="W67" s="234"/>
+      <c r="X67" s="234"/>
       <c r="Y67" s="29" t="s">
         <v>2</v>
       </c>
@@ -7056,43 +7251,35 @@
       <c r="AN67" s="76"/>
     </row>
     <row r="68" spans="1:40" s="14" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A68" s="253"/>
-      <c r="B68" s="228">
+      <c r="A68" s="260"/>
+      <c r="B68" s="235">
         <v>6</v>
       </c>
-      <c r="C68" s="226" t="s">
+      <c r="C68" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="226" t="s">
+      <c r="D68" s="233" t="s">
         <v>50</v>
       </c>
       <c r="E68" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F68" s="122" t="s">
-        <v>56</v>
-      </c>
-      <c r="G68" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="H68" s="212" t="s">
-        <v>161</v>
-      </c>
-      <c r="I68" s="68" t="s">
-        <v>55</v>
-      </c>
+      <c r="F68" s="121"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="68"/>
       <c r="J68" s="76"/>
-      <c r="K68" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="L68" s="30" t="s">
-        <v>54</v>
+      <c r="K68" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="L68" s="207" t="s">
+        <v>83</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="N68" s="172" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="N68" s="184" t="s">
+        <v>77</v>
       </c>
       <c r="O68" s="76"/>
       <c r="P68" s="69"/>
@@ -7100,14 +7287,14 @@
       <c r="R68" s="36"/>
       <c r="S68" s="68"/>
       <c r="T68" s="81"/>
-      <c r="U68" s="253"/>
-      <c r="V68" s="228">
+      <c r="U68" s="260"/>
+      <c r="V68" s="235">
         <v>6</v>
       </c>
-      <c r="W68" s="226" t="s">
+      <c r="W68" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="X68" s="226" t="s">
+      <c r="X68" s="233" t="s">
         <v>50</v>
       </c>
       <c r="Y68" s="29" t="s">
@@ -7130,37 +7317,29 @@
       <c r="AN68" s="81"/>
     </row>
     <row r="69" spans="1:40" s="25" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A69" s="253"/>
-      <c r="B69" s="229"/>
-      <c r="C69" s="227"/>
-      <c r="D69" s="227"/>
+      <c r="A69" s="260"/>
+      <c r="B69" s="236"/>
+      <c r="C69" s="234"/>
+      <c r="D69" s="234"/>
       <c r="E69" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F69" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="H69" s="212" t="s">
-        <v>161</v>
-      </c>
-      <c r="I69" s="68" t="s">
-        <v>55</v>
-      </c>
+      <c r="F69" s="121"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="68"/>
       <c r="J69" s="76"/>
       <c r="K69" s="69" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L69" s="30" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="M69" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="N69" s="172" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="N69" s="184" t="s">
+        <v>77</v>
       </c>
       <c r="O69" s="76"/>
       <c r="P69" s="69"/>
@@ -7168,10 +7347,10 @@
       <c r="R69" s="36"/>
       <c r="S69" s="43"/>
       <c r="T69" s="76"/>
-      <c r="U69" s="253"/>
-      <c r="V69" s="229"/>
-      <c r="W69" s="227"/>
-      <c r="X69" s="227"/>
+      <c r="U69" s="260"/>
+      <c r="V69" s="236"/>
+      <c r="W69" s="234"/>
+      <c r="X69" s="234"/>
       <c r="Y69" s="58" t="s">
         <v>2</v>
       </c>
@@ -7192,14 +7371,14 @@
       <c r="AN69" s="76"/>
     </row>
     <row r="70" spans="1:40" s="22" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A70" s="253"/>
-      <c r="B70" s="235">
+      <c r="A70" s="260"/>
+      <c r="B70" s="242">
         <v>7</v>
       </c>
-      <c r="C70" s="236" t="s">
+      <c r="C70" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="236" t="s">
+      <c r="D70" s="243" t="s">
         <v>51</v>
       </c>
       <c r="E70" s="39" t="s">
@@ -7213,21 +7392,21 @@
       <c r="K70" s="69"/>
       <c r="L70" s="30"/>
       <c r="M70" s="36"/>
-      <c r="N70" s="172"/>
+      <c r="N70" s="160"/>
       <c r="O70" s="76"/>
       <c r="P70" s="69"/>
       <c r="Q70" s="30"/>
       <c r="R70" s="36"/>
       <c r="S70" s="43"/>
       <c r="T70" s="76"/>
-      <c r="U70" s="253"/>
-      <c r="V70" s="235">
+      <c r="U70" s="260"/>
+      <c r="V70" s="242">
         <v>7</v>
       </c>
-      <c r="W70" s="236" t="s">
+      <c r="W70" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="X70" s="236" t="s">
+      <c r="X70" s="243" t="s">
         <v>51</v>
       </c>
       <c r="Y70" s="39" t="s">
@@ -7250,10 +7429,10 @@
       <c r="AN70" s="76"/>
     </row>
     <row r="71" spans="1:40" s="22" customFormat="1" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A71" s="253"/>
-      <c r="B71" s="235"/>
-      <c r="C71" s="236"/>
-      <c r="D71" s="236"/>
+      <c r="A71" s="260"/>
+      <c r="B71" s="242"/>
+      <c r="C71" s="243"/>
+      <c r="D71" s="243"/>
       <c r="E71" s="40" t="s">
         <v>2</v>
       </c>
@@ -7272,10 +7451,10 @@
       <c r="R71" s="38"/>
       <c r="S71" s="32"/>
       <c r="T71" s="78"/>
-      <c r="U71" s="253"/>
-      <c r="V71" s="235"/>
-      <c r="W71" s="236"/>
-      <c r="X71" s="236"/>
+      <c r="U71" s="260"/>
+      <c r="V71" s="242"/>
+      <c r="W71" s="243"/>
+      <c r="X71" s="243"/>
       <c r="Y71" s="40" t="s">
         <v>2</v>
       </c>
@@ -7295,15 +7474,15 @@
       <c r="AM71" s="42"/>
       <c r="AN71" s="78"/>
     </row>
-    <row r="72" spans="1:40" s="16" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A72" s="253"/>
-      <c r="B72" s="230">
+    <row r="72" spans="1:40" s="16" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A72" s="260"/>
+      <c r="B72" s="237">
         <v>7</v>
       </c>
-      <c r="C72" s="232" t="s">
+      <c r="C72" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="232" t="s">
+      <c r="D72" s="239" t="s">
         <v>31</v>
       </c>
       <c r="E72" s="91" t="s">
@@ -7314,51 +7493,53 @@
       <c r="H72" s="99"/>
       <c r="I72" s="43"/>
       <c r="J72" s="83"/>
-      <c r="K72" s="164"/>
-      <c r="L72" s="164"/>
-      <c r="M72" s="165"/>
+      <c r="K72" s="102"/>
+      <c r="L72" s="102"/>
+      <c r="M72" s="100"/>
       <c r="N72" s="31"/>
       <c r="O72" s="83"/>
-      <c r="P72" s="165"/>
-      <c r="Q72" s="165"/>
-      <c r="R72" s="165"/>
+      <c r="P72" s="100"/>
+      <c r="Q72" s="100"/>
+      <c r="R72" s="100"/>
       <c r="S72" s="60"/>
       <c r="T72" s="76"/>
-      <c r="U72" s="253"/>
-      <c r="V72" s="230">
+      <c r="U72" s="260"/>
+      <c r="V72" s="237">
         <v>7</v>
       </c>
-      <c r="W72" s="232" t="s">
+      <c r="W72" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="X72" s="232" t="s">
+      <c r="X72" s="239" t="s">
         <v>31</v>
       </c>
       <c r="Y72" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="Z72" s="165" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA72" s="165" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB72" s="165"/>
+      <c r="Z72" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA72" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB72" s="220" t="s">
+        <v>177</v>
+      </c>
       <c r="AC72" s="60" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="AD72" s="76"/>
-      <c r="AE72" s="165" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF72" s="165" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG72" s="165" t="s">
-        <v>150</v>
+      <c r="AE72" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF72" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG72" s="204" t="s">
+        <v>99</v>
       </c>
       <c r="AH72" s="60" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="AI72" s="76"/>
       <c r="AJ72" s="100"/>
@@ -7367,11 +7548,11 @@
       <c r="AM72" s="60"/>
       <c r="AN72" s="76"/>
     </row>
-    <row r="73" spans="1:40" s="16" customFormat="1" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A73" s="253"/>
-      <c r="B73" s="231"/>
-      <c r="C73" s="233"/>
-      <c r="D73" s="233"/>
+    <row r="73" spans="1:40" s="16" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A73" s="260"/>
+      <c r="B73" s="238"/>
+      <c r="C73" s="240"/>
+      <c r="D73" s="240"/>
       <c r="E73" s="93" t="s">
         <v>2</v>
       </c>
@@ -7380,45 +7561,47 @@
       <c r="H73" s="98"/>
       <c r="I73" s="32"/>
       <c r="J73" s="77"/>
-      <c r="K73" s="166"/>
-      <c r="L73" s="166"/>
-      <c r="M73" s="167"/>
+      <c r="K73" s="103"/>
+      <c r="L73" s="103"/>
+      <c r="M73" s="98"/>
       <c r="N73" s="32"/>
       <c r="O73" s="77"/>
-      <c r="P73" s="167"/>
-      <c r="Q73" s="167"/>
-      <c r="R73" s="167"/>
+      <c r="P73" s="98"/>
+      <c r="Q73" s="98"/>
+      <c r="R73" s="98"/>
       <c r="S73" s="61"/>
       <c r="T73" s="77"/>
-      <c r="U73" s="253"/>
-      <c r="V73" s="231"/>
-      <c r="W73" s="233"/>
-      <c r="X73" s="233"/>
+      <c r="U73" s="260"/>
+      <c r="V73" s="238"/>
+      <c r="W73" s="240"/>
+      <c r="X73" s="240"/>
       <c r="Y73" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="Z73" s="167" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA73" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB73" s="167"/>
-      <c r="AC73" s="176" t="s">
-        <v>133</v>
+      <c r="Z73" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA73" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB73" s="221" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC73" s="162" t="s">
+        <v>88</v>
       </c>
       <c r="AD73" s="77"/>
-      <c r="AE73" s="187" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF73" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG73" s="175" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH73" s="176" t="s">
-        <v>133</v>
+      <c r="AE73" s="205" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF73" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG73" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH73" s="162" t="s">
+        <v>88</v>
       </c>
       <c r="AI73" s="77"/>
       <c r="AJ73" s="98"/>
@@ -7427,15 +7610,15 @@
       <c r="AM73" s="61"/>
       <c r="AN73" s="77"/>
     </row>
-    <row r="74" spans="1:40" s="10" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A74" s="253"/>
-      <c r="B74" s="237">
+    <row r="74" spans="1:40" s="10" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A74" s="260"/>
+      <c r="B74" s="244">
         <v>8</v>
       </c>
-      <c r="C74" s="234" t="s">
+      <c r="C74" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="D74" s="234" t="s">
+      <c r="D74" s="241" t="s">
         <v>33</v>
       </c>
       <c r="E74" s="95" t="s">
@@ -7446,51 +7629,53 @@
       <c r="H74" s="92"/>
       <c r="I74" s="43"/>
       <c r="J74" s="83"/>
-      <c r="K74" s="168"/>
-      <c r="L74" s="169"/>
-      <c r="M74" s="170"/>
+      <c r="K74" s="104"/>
+      <c r="L74" s="105"/>
+      <c r="M74" s="92"/>
       <c r="N74" s="43"/>
       <c r="O74" s="83"/>
-      <c r="P74" s="175"/>
-      <c r="Q74" s="170"/>
-      <c r="R74" s="170"/>
+      <c r="P74" s="99"/>
+      <c r="Q74" s="92"/>
+      <c r="R74" s="92"/>
       <c r="S74" s="62"/>
       <c r="T74" s="83"/>
-      <c r="U74" s="253"/>
-      <c r="V74" s="237">
+      <c r="U74" s="260"/>
+      <c r="V74" s="244">
         <v>8</v>
       </c>
-      <c r="W74" s="234" t="s">
+      <c r="W74" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="X74" s="234" t="s">
+      <c r="X74" s="241" t="s">
         <v>33</v>
       </c>
       <c r="Y74" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="Z74" s="175" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA74" s="175" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB74" s="170"/>
+      <c r="Z74" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA74" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB74" s="222" t="s">
+        <v>177</v>
+      </c>
       <c r="AC74" s="60" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="AD74" s="83"/>
-      <c r="AE74" s="175" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF74" s="175" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG74" s="165" t="s">
-        <v>150</v>
+      <c r="AE74" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF74" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG74" s="204" t="s">
+        <v>99</v>
       </c>
       <c r="AH74" s="60" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="AI74" s="83"/>
       <c r="AJ74" s="99"/>
@@ -7499,11 +7684,11 @@
       <c r="AM74" s="43"/>
       <c r="AN74" s="83"/>
     </row>
-    <row r="75" spans="1:40" s="10" customFormat="1" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A75" s="253"/>
-      <c r="B75" s="231"/>
-      <c r="C75" s="233"/>
-      <c r="D75" s="233"/>
+    <row r="75" spans="1:40" s="10" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A75" s="260"/>
+      <c r="B75" s="238"/>
+      <c r="C75" s="240"/>
+      <c r="D75" s="240"/>
       <c r="E75" s="93" t="s">
         <v>2</v>
       </c>
@@ -7512,32 +7697,32 @@
       <c r="H75" s="94"/>
       <c r="I75" s="33"/>
       <c r="J75" s="77"/>
-      <c r="K75" s="166"/>
-      <c r="L75" s="166"/>
-      <c r="M75" s="171"/>
+      <c r="K75" s="103"/>
+      <c r="L75" s="103"/>
+      <c r="M75" s="94"/>
       <c r="N75" s="33"/>
       <c r="O75" s="77"/>
-      <c r="P75" s="167"/>
-      <c r="Q75" s="167"/>
-      <c r="R75" s="171"/>
-      <c r="S75" s="183"/>
+      <c r="P75" s="98"/>
+      <c r="Q75" s="98"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="163"/>
       <c r="T75" s="77"/>
-      <c r="U75" s="253"/>
-      <c r="V75" s="231"/>
-      <c r="W75" s="233"/>
-      <c r="X75" s="233"/>
+      <c r="U75" s="260"/>
+      <c r="V75" s="238"/>
+      <c r="W75" s="240"/>
+      <c r="X75" s="240"/>
       <c r="Y75" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="Z75" s="167"/>
-      <c r="AA75" s="167"/>
-      <c r="AB75" s="171"/>
-      <c r="AC75" s="184"/>
+      <c r="Z75" s="98"/>
+      <c r="AA75" s="98"/>
+      <c r="AB75" s="221"/>
+      <c r="AC75" s="164"/>
       <c r="AD75" s="77"/>
-      <c r="AE75" s="167"/>
-      <c r="AF75" s="167"/>
-      <c r="AG75" s="171"/>
-      <c r="AH75" s="184"/>
+      <c r="AE75" s="98"/>
+      <c r="AF75" s="98"/>
+      <c r="AG75" s="94"/>
+      <c r="AH75" s="164"/>
       <c r="AI75" s="77"/>
       <c r="AJ75" s="98"/>
       <c r="AK75" s="98"/>
@@ -7546,16 +7731,16 @@
       <c r="AN75" s="77"/>
     </row>
     <row r="76" spans="1:40" ht="32.25" customHeight="1">
-      <c r="A76" s="257" t="s">
+      <c r="A76" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="243">
-        <v>1</v>
-      </c>
-      <c r="C76" s="244" t="s">
+      <c r="B76" s="250">
+        <v>1</v>
+      </c>
+      <c r="C76" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="244" t="s">
+      <c r="D76" s="251" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="57" t="s">
@@ -7576,16 +7761,16 @@
       <c r="R76" s="47"/>
       <c r="S76" s="31"/>
       <c r="T76" s="76"/>
-      <c r="U76" s="257" t="s">
+      <c r="U76" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="V76" s="243">
-        <v>1</v>
-      </c>
-      <c r="W76" s="244" t="s">
+      <c r="V76" s="250">
+        <v>1</v>
+      </c>
+      <c r="W76" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="X76" s="244" t="s">
+      <c r="X76" s="251" t="s">
         <v>27</v>
       </c>
       <c r="Y76" s="57" t="s">
@@ -7608,10 +7793,10 @@
       <c r="AN76" s="83"/>
     </row>
     <row r="77" spans="1:40" ht="40.5" customHeight="1">
-      <c r="A77" s="258"/>
-      <c r="B77" s="229"/>
-      <c r="C77" s="227"/>
-      <c r="D77" s="227"/>
+      <c r="A77" s="265"/>
+      <c r="B77" s="236"/>
+      <c r="C77" s="234"/>
+      <c r="D77" s="234"/>
       <c r="E77" s="26" t="s">
         <v>2</v>
       </c>
@@ -7630,10 +7815,10 @@
       <c r="R77" s="36"/>
       <c r="S77" s="68"/>
       <c r="T77" s="76"/>
-      <c r="U77" s="258"/>
-      <c r="V77" s="229"/>
-      <c r="W77" s="227"/>
-      <c r="X77" s="227"/>
+      <c r="U77" s="265"/>
+      <c r="V77" s="236"/>
+      <c r="W77" s="234"/>
+      <c r="X77" s="234"/>
       <c r="Y77" s="26" t="s">
         <v>2</v>
       </c>
@@ -7654,14 +7839,14 @@
       <c r="AN77" s="76"/>
     </row>
     <row r="78" spans="1:40" ht="40.5" customHeight="1">
-      <c r="A78" s="258"/>
-      <c r="B78" s="228">
-        <v>2</v>
-      </c>
-      <c r="C78" s="226" t="s">
+      <c r="A78" s="265"/>
+      <c r="B78" s="235">
+        <v>2</v>
+      </c>
+      <c r="C78" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="226" t="s">
+      <c r="D78" s="233" t="s">
         <v>29</v>
       </c>
       <c r="E78" s="29" t="s">
@@ -7682,14 +7867,14 @@
       <c r="R78" s="36"/>
       <c r="S78" s="68"/>
       <c r="T78" s="76"/>
-      <c r="U78" s="258"/>
-      <c r="V78" s="228">
-        <v>2</v>
-      </c>
-      <c r="W78" s="226" t="s">
+      <c r="U78" s="265"/>
+      <c r="V78" s="235">
+        <v>2</v>
+      </c>
+      <c r="W78" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="X78" s="226" t="s">
+      <c r="X78" s="233" t="s">
         <v>29</v>
       </c>
       <c r="Y78" s="29" t="s">
@@ -7712,10 +7897,10 @@
       <c r="AN78" s="76"/>
     </row>
     <row r="79" spans="1:40" ht="40.5" customHeight="1">
-      <c r="A79" s="258"/>
-      <c r="B79" s="229"/>
-      <c r="C79" s="227"/>
-      <c r="D79" s="227"/>
+      <c r="A79" s="265"/>
+      <c r="B79" s="236"/>
+      <c r="C79" s="234"/>
+      <c r="D79" s="234"/>
       <c r="E79" s="29" t="s">
         <v>2</v>
       </c>
@@ -7734,10 +7919,10 @@
       <c r="R79" s="36"/>
       <c r="S79" s="68"/>
       <c r="T79" s="76"/>
-      <c r="U79" s="258"/>
-      <c r="V79" s="229"/>
-      <c r="W79" s="227"/>
-      <c r="X79" s="227"/>
+      <c r="U79" s="265"/>
+      <c r="V79" s="236"/>
+      <c r="W79" s="234"/>
+      <c r="X79" s="234"/>
       <c r="Y79" s="29" t="s">
         <v>2</v>
       </c>
@@ -7757,31 +7942,31 @@
       <c r="AM79" s="27"/>
       <c r="AN79" s="76"/>
     </row>
-    <row r="80" spans="1:40" ht="37.5" customHeight="1">
-      <c r="A80" s="258"/>
-      <c r="B80" s="228">
+    <row r="80" spans="1:40" ht="54" customHeight="1">
+      <c r="A80" s="265"/>
+      <c r="B80" s="235">
         <v>3</v>
       </c>
-      <c r="C80" s="226" t="s">
+      <c r="C80" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="D80" s="226" t="s">
+      <c r="D80" s="233" t="s">
         <v>46</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F80" s="216" t="s">
-        <v>68</v>
-      </c>
-      <c r="G80" s="217" t="s">
-        <v>54</v>
-      </c>
-      <c r="H80" s="218" t="s">
-        <v>67</v>
+      <c r="F80" s="175" t="s">
+        <v>164</v>
+      </c>
+      <c r="G80" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="H80" s="177" t="s">
+        <v>62</v>
       </c>
       <c r="I80" s="41" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="J80" s="76"/>
       <c r="K80" s="69"/>
@@ -7794,14 +7979,14 @@
       <c r="R80" s="36"/>
       <c r="S80" s="68"/>
       <c r="T80" s="76"/>
-      <c r="U80" s="258"/>
-      <c r="V80" s="228">
+      <c r="U80" s="265"/>
+      <c r="V80" s="235">
         <v>3</v>
       </c>
-      <c r="W80" s="226" t="s">
+      <c r="W80" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="X80" s="226" t="s">
+      <c r="X80" s="233" t="s">
         <v>46</v>
       </c>
       <c r="Y80" s="29" t="s">
@@ -7823,25 +8008,25 @@
       <c r="AM80" s="27"/>
       <c r="AN80" s="76"/>
     </row>
-    <row r="81" spans="1:40" ht="40.5" customHeight="1">
-      <c r="A81" s="258"/>
-      <c r="B81" s="229"/>
-      <c r="C81" s="227"/>
-      <c r="D81" s="227"/>
+    <row r="81" spans="1:40" ht="54" customHeight="1">
+      <c r="A81" s="265"/>
+      <c r="B81" s="236"/>
+      <c r="C81" s="234"/>
+      <c r="D81" s="234"/>
       <c r="E81" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F81" s="216" t="s">
-        <v>68</v>
-      </c>
-      <c r="G81" s="217" t="s">
-        <v>54</v>
-      </c>
-      <c r="H81" s="218" t="s">
-        <v>67</v>
+      <c r="F81" s="175" t="s">
+        <v>155</v>
+      </c>
+      <c r="G81" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="H81" s="177" t="s">
+        <v>62</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="J81" s="76"/>
       <c r="K81" s="69"/>
@@ -7854,10 +8039,10 @@
       <c r="R81" s="36"/>
       <c r="S81" s="68"/>
       <c r="T81" s="76"/>
-      <c r="U81" s="258"/>
-      <c r="V81" s="229"/>
-      <c r="W81" s="227"/>
-      <c r="X81" s="227"/>
+      <c r="U81" s="265"/>
+      <c r="V81" s="236"/>
+      <c r="W81" s="234"/>
+      <c r="X81" s="234"/>
       <c r="Y81" s="29" t="s">
         <v>2</v>
       </c>
@@ -7878,30 +8063,30 @@
       <c r="AN81" s="76"/>
     </row>
     <row r="82" spans="1:40" ht="35.25" customHeight="1">
-      <c r="A82" s="258"/>
-      <c r="B82" s="228">
+      <c r="A82" s="265"/>
+      <c r="B82" s="235">
         <v>4</v>
       </c>
-      <c r="C82" s="226" t="s">
+      <c r="C82" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="D82" s="226" t="s">
+      <c r="D82" s="233" t="s">
         <v>48</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F82" s="216" t="s">
-        <v>65</v>
-      </c>
-      <c r="G82" s="217" t="s">
-        <v>54</v>
-      </c>
-      <c r="H82" s="218" t="s">
-        <v>63</v>
+      <c r="F82" s="175" t="s">
+        <v>153</v>
+      </c>
+      <c r="G82" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" s="177" t="s">
+        <v>59</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="J82" s="76"/>
       <c r="K82" s="69"/>
@@ -7914,14 +8099,14 @@
       <c r="R82" s="36"/>
       <c r="S82" s="68"/>
       <c r="T82" s="76"/>
-      <c r="U82" s="258"/>
-      <c r="V82" s="228">
+      <c r="U82" s="265"/>
+      <c r="V82" s="235">
         <v>4</v>
       </c>
-      <c r="W82" s="226" t="s">
+      <c r="W82" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="X82" s="226" t="s">
+      <c r="X82" s="233" t="s">
         <v>48</v>
       </c>
       <c r="Y82" s="29" t="s">
@@ -7944,24 +8129,24 @@
       <c r="AN82" s="76"/>
     </row>
     <row r="83" spans="1:40" ht="38.25" customHeight="1">
-      <c r="A83" s="258"/>
-      <c r="B83" s="229"/>
-      <c r="C83" s="227"/>
-      <c r="D83" s="227"/>
+      <c r="A83" s="265"/>
+      <c r="B83" s="236"/>
+      <c r="C83" s="234"/>
+      <c r="D83" s="234"/>
       <c r="E83" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F83" s="216" t="s">
-        <v>65</v>
-      </c>
-      <c r="G83" s="217" t="s">
-        <v>54</v>
-      </c>
-      <c r="H83" s="218" t="s">
-        <v>63</v>
+      <c r="F83" s="175" t="s">
+        <v>149</v>
+      </c>
+      <c r="G83" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="H83" s="177" t="s">
+        <v>59</v>
       </c>
       <c r="I83" s="41" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="J83" s="76"/>
       <c r="K83" s="69"/>
@@ -7974,10 +8159,10 @@
       <c r="R83" s="36"/>
       <c r="S83" s="68"/>
       <c r="T83" s="76"/>
-      <c r="U83" s="258"/>
-      <c r="V83" s="229"/>
-      <c r="W83" s="227"/>
-      <c r="X83" s="227"/>
+      <c r="U83" s="265"/>
+      <c r="V83" s="236"/>
+      <c r="W83" s="234"/>
+      <c r="X83" s="234"/>
       <c r="Y83" s="29" t="s">
         <v>2</v>
       </c>
@@ -7998,35 +8183,37 @@
       <c r="AN83" s="76"/>
     </row>
     <row r="84" spans="1:40" s="15" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A84" s="258"/>
-      <c r="B84" s="228">
+      <c r="A84" s="265"/>
+      <c r="B84" s="235">
         <v>5</v>
       </c>
-      <c r="C84" s="226" t="s">
+      <c r="C84" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="D84" s="226" t="s">
+      <c r="D84" s="233" t="s">
         <v>49</v>
       </c>
       <c r="E84" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F84" s="59"/>
+      <c r="F84" s="59" t="s">
+        <v>107</v>
+      </c>
       <c r="G84" s="106"/>
       <c r="H84" s="107"/>
       <c r="I84" s="68"/>
       <c r="J84" s="76"/>
-      <c r="K84" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="L84" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="M84" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="N84" s="43" t="s">
-        <v>113</v>
+      <c r="K84" s="195" t="s">
+        <v>131</v>
+      </c>
+      <c r="L84" s="196" t="s">
+        <v>87</v>
+      </c>
+      <c r="M84" s="197" t="s">
+        <v>179</v>
+      </c>
+      <c r="N84" s="198" t="s">
+        <v>130</v>
       </c>
       <c r="O84" s="76"/>
       <c r="P84" s="69"/>
@@ -8034,14 +8221,14 @@
       <c r="R84" s="36"/>
       <c r="S84" s="68"/>
       <c r="T84" s="76"/>
-      <c r="U84" s="258"/>
-      <c r="V84" s="228">
+      <c r="U84" s="265"/>
+      <c r="V84" s="235">
         <v>5</v>
       </c>
-      <c r="W84" s="226" t="s">
+      <c r="W84" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="X84" s="226" t="s">
+      <c r="X84" s="233" t="s">
         <v>49</v>
       </c>
       <c r="Y84" s="29" t="s">
@@ -8064,29 +8251,31 @@
       <c r="AN84" s="76"/>
     </row>
     <row r="85" spans="1:40" s="15" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A85" s="258"/>
-      <c r="B85" s="229"/>
-      <c r="C85" s="227"/>
-      <c r="D85" s="227"/>
+      <c r="A85" s="265"/>
+      <c r="B85" s="236"/>
+      <c r="C85" s="234"/>
+      <c r="D85" s="234"/>
       <c r="E85" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F85" s="59"/>
+      <c r="F85" s="59" t="s">
+        <v>107</v>
+      </c>
       <c r="G85" s="106"/>
       <c r="H85" s="107"/>
       <c r="I85" s="68"/>
       <c r="J85" s="76"/>
-      <c r="K85" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="L85" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="M85" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="N85" s="43" t="s">
-        <v>113</v>
+      <c r="K85" s="195" t="s">
+        <v>129</v>
+      </c>
+      <c r="L85" s="196" t="s">
+        <v>86</v>
+      </c>
+      <c r="M85" s="197" t="s">
+        <v>179</v>
+      </c>
+      <c r="N85" s="198" t="s">
+        <v>130</v>
       </c>
       <c r="O85" s="76"/>
       <c r="P85" s="69"/>
@@ -8094,10 +8283,10 @@
       <c r="R85" s="36"/>
       <c r="S85" s="43"/>
       <c r="T85" s="85"/>
-      <c r="U85" s="258"/>
-      <c r="V85" s="229"/>
-      <c r="W85" s="227"/>
-      <c r="X85" s="227"/>
+      <c r="U85" s="265"/>
+      <c r="V85" s="236"/>
+      <c r="W85" s="234"/>
+      <c r="X85" s="234"/>
       <c r="Y85" s="29" t="s">
         <v>2</v>
       </c>
@@ -8117,46 +8306,46 @@
       <c r="AM85" s="27"/>
       <c r="AN85" s="85"/>
     </row>
-    <row r="86" spans="1:40" s="14" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A86" s="258"/>
-      <c r="B86" s="228">
+    <row r="86" spans="1:40" s="14" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A86" s="265"/>
+      <c r="B86" s="235">
         <v>6</v>
       </c>
-      <c r="C86" s="226" t="s">
+      <c r="C86" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="226" t="s">
+      <c r="D86" s="233" t="s">
         <v>50</v>
       </c>
       <c r="E86" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F86" s="122" t="s">
-        <v>74</v>
+      <c r="F86" s="121" t="s">
+        <v>165</v>
       </c>
       <c r="G86" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="H86" s="110" t="s">
-        <v>73</v>
+        <v>86</v>
+      </c>
+      <c r="H86" s="218" t="s">
+        <v>64</v>
       </c>
       <c r="I86" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J86" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="J86" s="121" t="s">
-        <v>64</v>
-      </c>
-      <c r="K86" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="L86" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="M86" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="N86" s="43" t="s">
-        <v>113</v>
+      <c r="K86" s="195" t="s">
+        <v>131</v>
+      </c>
+      <c r="L86" s="196" t="s">
+        <v>83</v>
+      </c>
+      <c r="M86" s="197" t="s">
+        <v>180</v>
+      </c>
+      <c r="N86" s="198" t="s">
+        <v>130</v>
       </c>
       <c r="O86" s="76"/>
       <c r="P86" s="69"/>
@@ -8164,14 +8353,14 @@
       <c r="R86" s="36"/>
       <c r="S86" s="68"/>
       <c r="T86" s="81"/>
-      <c r="U86" s="258"/>
-      <c r="V86" s="228">
+      <c r="U86" s="265"/>
+      <c r="V86" s="235">
         <v>6</v>
       </c>
-      <c r="W86" s="226" t="s">
+      <c r="W86" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="X86" s="226" t="s">
+      <c r="X86" s="233" t="s">
         <v>50</v>
       </c>
       <c r="Y86" s="29" t="s">
@@ -8194,27 +8383,27 @@
       <c r="AN86" s="81"/>
     </row>
     <row r="87" spans="1:40" s="25" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A87" s="258"/>
-      <c r="B87" s="229"/>
-      <c r="C87" s="227"/>
-      <c r="D87" s="227"/>
+      <c r="A87" s="265"/>
+      <c r="B87" s="236"/>
+      <c r="C87" s="234"/>
+      <c r="D87" s="234"/>
       <c r="E87" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F87" s="122" t="s">
-        <v>79</v>
+      <c r="F87" s="121" t="s">
+        <v>166</v>
       </c>
       <c r="G87" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="H87" s="110" t="s">
-        <v>58</v>
+        <v>86</v>
+      </c>
+      <c r="H87" s="218" t="s">
+        <v>54</v>
       </c>
       <c r="I87" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J87" s="120" t="s">
         <v>60</v>
-      </c>
-      <c r="J87" s="121" t="s">
-        <v>64</v>
       </c>
       <c r="K87" s="69"/>
       <c r="L87" s="30"/>
@@ -8226,10 +8415,10 @@
       <c r="R87" s="36"/>
       <c r="S87" s="43"/>
       <c r="T87" s="82"/>
-      <c r="U87" s="258"/>
-      <c r="V87" s="229"/>
-      <c r="W87" s="227"/>
-      <c r="X87" s="227"/>
+      <c r="U87" s="265"/>
+      <c r="V87" s="236"/>
+      <c r="W87" s="234"/>
+      <c r="X87" s="234"/>
       <c r="Y87" s="58" t="s">
         <v>2</v>
       </c>
@@ -8250,14 +8439,14 @@
       <c r="AN87" s="82"/>
     </row>
     <row r="88" spans="1:40" s="16" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A88" s="258"/>
-      <c r="B88" s="235">
+      <c r="A88" s="265"/>
+      <c r="B88" s="242">
         <v>7</v>
       </c>
-      <c r="C88" s="236" t="s">
+      <c r="C88" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="D88" s="236" t="s">
+      <c r="D88" s="243" t="s">
         <v>51</v>
       </c>
       <c r="E88" s="39" t="s">
@@ -8265,7 +8454,7 @@
       </c>
       <c r="F88" s="65"/>
       <c r="G88" s="66"/>
-      <c r="H88" s="110"/>
+      <c r="H88" s="218"/>
       <c r="I88" s="43"/>
       <c r="J88" s="82"/>
       <c r="K88" s="69"/>
@@ -8278,14 +8467,14 @@
       <c r="R88" s="36"/>
       <c r="S88" s="43"/>
       <c r="T88" s="82"/>
-      <c r="U88" s="258"/>
-      <c r="V88" s="235">
+      <c r="U88" s="265"/>
+      <c r="V88" s="242">
         <v>7</v>
       </c>
-      <c r="W88" s="236" t="s">
+      <c r="W88" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="X88" s="236" t="s">
+      <c r="X88" s="243" t="s">
         <v>51</v>
       </c>
       <c r="Y88" s="39" t="s">
@@ -8308,16 +8497,16 @@
       <c r="AN88" s="82"/>
     </row>
     <row r="89" spans="1:40" s="15" customFormat="1" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A89" s="258"/>
-      <c r="B89" s="235"/>
-      <c r="C89" s="236"/>
-      <c r="D89" s="236"/>
+      <c r="A89" s="265"/>
+      <c r="B89" s="242"/>
+      <c r="C89" s="243"/>
+      <c r="D89" s="243"/>
       <c r="E89" s="40" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="65"/>
       <c r="G89" s="66"/>
-      <c r="H89" s="110"/>
+      <c r="H89" s="218"/>
       <c r="I89" s="32"/>
       <c r="J89" s="78"/>
       <c r="K89" s="34"/>
@@ -8330,10 +8519,10 @@
       <c r="R89" s="38"/>
       <c r="S89" s="32"/>
       <c r="T89" s="78"/>
-      <c r="U89" s="258"/>
-      <c r="V89" s="235"/>
-      <c r="W89" s="236"/>
-      <c r="X89" s="236"/>
+      <c r="U89" s="265"/>
+      <c r="V89" s="242"/>
+      <c r="W89" s="243"/>
+      <c r="X89" s="243"/>
       <c r="Y89" s="40" t="s">
         <v>2</v>
       </c>
@@ -8353,15 +8542,15 @@
       <c r="AM89" s="42"/>
       <c r="AN89" s="78"/>
     </row>
-    <row r="90" spans="1:40" s="15" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A90" s="258"/>
-      <c r="B90" s="230">
+    <row r="90" spans="1:40" s="15" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A90" s="265"/>
+      <c r="B90" s="237">
         <v>7</v>
       </c>
-      <c r="C90" s="232" t="s">
+      <c r="C90" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="232" t="s">
+      <c r="D90" s="239" t="s">
         <v>31</v>
       </c>
       <c r="E90" s="91" t="s">
@@ -8372,61 +8561,61 @@
       <c r="H90" s="100"/>
       <c r="I90" s="31"/>
       <c r="J90" s="76"/>
-      <c r="K90" s="164"/>
-      <c r="L90" s="164"/>
-      <c r="M90" s="165"/>
+      <c r="K90" s="102"/>
+      <c r="L90" s="102"/>
+      <c r="M90" s="100"/>
       <c r="N90" s="31"/>
       <c r="O90" s="76"/>
-      <c r="P90" s="165" t="s">
+      <c r="P90" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="Q90" s="165" t="s">
-        <v>129</v>
-      </c>
-      <c r="R90" s="165" t="s">
-        <v>137</v>
-      </c>
-      <c r="S90" s="60" t="s">
-        <v>128</v>
+      <c r="Q90" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="R90" s="204" t="s">
+        <v>178</v>
+      </c>
+      <c r="S90" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="T90" s="76"/>
-      <c r="U90" s="258"/>
-      <c r="V90" s="230">
+      <c r="U90" s="265"/>
+      <c r="V90" s="237">
         <v>7</v>
       </c>
-      <c r="W90" s="232" t="s">
+      <c r="W90" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="X90" s="232" t="s">
+      <c r="X90" s="239" t="s">
         <v>31</v>
       </c>
       <c r="Y90" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="Z90" s="165" t="s">
+      <c r="Z90" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="AA90" s="165" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB90" s="165" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC90" s="60" t="s">
-        <v>128</v>
+      <c r="AA90" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB90" s="204" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC90" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="AD90" s="76"/>
-      <c r="AE90" s="165" t="s">
+      <c r="AE90" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="AF90" s="165" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG90" s="165" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH90" s="60" t="s">
-        <v>128</v>
+      <c r="AF90" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG90" s="204" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH90" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="AI90" s="76"/>
       <c r="AJ90" s="100"/>
@@ -8435,11 +8624,11 @@
       <c r="AM90" s="60"/>
       <c r="AN90" s="76"/>
     </row>
-    <row r="91" spans="1:40" s="16" customFormat="1" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A91" s="258"/>
-      <c r="B91" s="231"/>
-      <c r="C91" s="233"/>
-      <c r="D91" s="233"/>
+    <row r="91" spans="1:40" s="16" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A91" s="265"/>
+      <c r="B91" s="238"/>
+      <c r="C91" s="240"/>
+      <c r="D91" s="240"/>
       <c r="E91" s="93" t="s">
         <v>2</v>
       </c>
@@ -8448,55 +8637,55 @@
       <c r="H91" s="98"/>
       <c r="I91" s="32"/>
       <c r="J91" s="77"/>
-      <c r="K91" s="166"/>
-      <c r="L91" s="166"/>
-      <c r="M91" s="167"/>
+      <c r="K91" s="103"/>
+      <c r="L91" s="103"/>
+      <c r="M91" s="98"/>
       <c r="N91" s="32"/>
       <c r="O91" s="77"/>
-      <c r="P91" s="167" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q91" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="R91" s="175" t="s">
-        <v>137</v>
-      </c>
-      <c r="S91" s="62" t="s">
-        <v>128</v>
+      <c r="P91" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q91" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="R91" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="S91" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="T91" s="77"/>
-      <c r="U91" s="258"/>
-      <c r="V91" s="231"/>
-      <c r="W91" s="233"/>
-      <c r="X91" s="233"/>
+      <c r="U91" s="265"/>
+      <c r="V91" s="238"/>
+      <c r="W91" s="240"/>
+      <c r="X91" s="240"/>
       <c r="Y91" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="Z91" s="167" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA91" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB91" s="175" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC91" s="62" t="s">
-        <v>128</v>
+      <c r="Z91" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA91" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB91" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC91" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="AD91" s="77"/>
-      <c r="AE91" s="187" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF91" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG91" s="175" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH91" s="62" t="s">
-        <v>128</v>
+      <c r="AE91" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF91" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG91" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH91" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="AI91" s="77"/>
       <c r="AJ91" s="98"/>
@@ -8505,15 +8694,15 @@
       <c r="AM91" s="61"/>
       <c r="AN91" s="77"/>
     </row>
-    <row r="92" spans="1:40" s="15" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A92" s="258"/>
-      <c r="B92" s="230">
+    <row r="92" spans="1:40" s="15" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A92" s="265"/>
+      <c r="B92" s="237">
         <v>8</v>
       </c>
-      <c r="C92" s="232" t="s">
+      <c r="C92" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="D92" s="232" t="s">
+      <c r="D92" s="239" t="s">
         <v>33</v>
       </c>
       <c r="E92" s="95" t="s">
@@ -8524,61 +8713,61 @@
       <c r="H92" s="92"/>
       <c r="I92" s="43"/>
       <c r="J92" s="83"/>
-      <c r="K92" s="168"/>
-      <c r="L92" s="169"/>
-      <c r="M92" s="170"/>
+      <c r="K92" s="104"/>
+      <c r="L92" s="105"/>
+      <c r="M92" s="92"/>
       <c r="N92" s="43"/>
       <c r="O92" s="83"/>
-      <c r="P92" s="175" t="s">
+      <c r="P92" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="Q92" s="175" t="s">
-        <v>125</v>
-      </c>
-      <c r="R92" s="165" t="s">
-        <v>137</v>
-      </c>
-      <c r="S92" s="60" t="s">
-        <v>128</v>
+      <c r="Q92" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="R92" s="204" t="s">
+        <v>178</v>
+      </c>
+      <c r="S92" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="T92" s="83"/>
-      <c r="U92" s="258"/>
-      <c r="V92" s="230">
+      <c r="U92" s="265"/>
+      <c r="V92" s="237">
         <v>8</v>
       </c>
-      <c r="W92" s="232" t="s">
+      <c r="W92" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="X92" s="232" t="s">
+      <c r="X92" s="239" t="s">
         <v>33</v>
       </c>
       <c r="Y92" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="Z92" s="175" t="s">
+      <c r="Z92" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="AA92" s="175" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB92" s="165" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC92" s="60" t="s">
-        <v>128</v>
+      <c r="AA92" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB92" s="204" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC92" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="AD92" s="83"/>
-      <c r="AE92" s="175" t="s">
+      <c r="AE92" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="AF92" s="175" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG92" s="165" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH92" s="60" t="s">
-        <v>128</v>
+      <c r="AF92" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG92" s="204" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH92" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="AI92" s="83"/>
       <c r="AJ92" s="99"/>
@@ -8588,10 +8777,10 @@
       <c r="AN92" s="83"/>
     </row>
     <row r="93" spans="1:40" s="15" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A93" s="258"/>
-      <c r="B93" s="231"/>
-      <c r="C93" s="233"/>
-      <c r="D93" s="233"/>
+      <c r="A93" s="265"/>
+      <c r="B93" s="238"/>
+      <c r="C93" s="240"/>
+      <c r="D93" s="240"/>
       <c r="E93" s="93" t="s">
         <v>2</v>
       </c>
@@ -8600,55 +8789,55 @@
       <c r="H93" s="94"/>
       <c r="I93" s="33"/>
       <c r="J93" s="77"/>
-      <c r="K93" s="166"/>
-      <c r="L93" s="166"/>
-      <c r="M93" s="171"/>
+      <c r="K93" s="103"/>
+      <c r="L93" s="103"/>
+      <c r="M93" s="94"/>
       <c r="N93" s="33"/>
       <c r="O93" s="77"/>
-      <c r="P93" s="167" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q93" s="167" t="s">
-        <v>131</v>
-      </c>
-      <c r="R93" s="175" t="s">
-        <v>137</v>
-      </c>
-      <c r="S93" s="62" t="s">
-        <v>128</v>
+      <c r="P93" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q93" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="R93" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="S93" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="T93" s="77"/>
-      <c r="U93" s="258"/>
-      <c r="V93" s="231"/>
-      <c r="W93" s="233"/>
-      <c r="X93" s="233"/>
+      <c r="U93" s="265"/>
+      <c r="V93" s="238"/>
+      <c r="W93" s="240"/>
+      <c r="X93" s="240"/>
       <c r="Y93" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="Z93" s="167" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA93" s="167" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB93" s="175" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC93" s="62" t="s">
-        <v>128</v>
+      <c r="Z93" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA93" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB93" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC93" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="AD93" s="77"/>
-      <c r="AE93" s="167" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF93" s="167" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG93" s="175" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH93" s="62" t="s">
-        <v>128</v>
+      <c r="AE93" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF93" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG93" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH93" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="AI93" s="77"/>
       <c r="AJ93" s="98"/>
@@ -8658,35 +8847,39 @@
       <c r="AN93" s="77"/>
     </row>
     <row r="94" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A94" s="254" t="s">
+      <c r="A94" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="243">
-        <v>1</v>
-      </c>
-      <c r="C94" s="244" t="s">
+      <c r="B94" s="250">
+        <v>1</v>
+      </c>
+      <c r="C94" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="D94" s="244" t="s">
+      <c r="D94" s="251" t="s">
         <v>27</v>
       </c>
       <c r="E94" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F94" s="69"/>
+      <c r="F94" s="69" t="s">
+        <v>102</v>
+      </c>
       <c r="G94" s="30"/>
       <c r="H94" s="36"/>
       <c r="I94" s="70"/>
       <c r="J94" s="84"/>
-      <c r="K94" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="L94" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="M94" s="67"/>
-      <c r="N94" s="174" t="s">
-        <v>116</v>
+      <c r="K94" s="229" t="s">
+        <v>132</v>
+      </c>
+      <c r="L94" s="230" t="s">
+        <v>86</v>
+      </c>
+      <c r="M94" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="N94" s="232" t="s">
+        <v>146</v>
       </c>
       <c r="O94" s="84"/>
       <c r="P94" s="64"/>
@@ -8694,16 +8887,16 @@
       <c r="R94" s="47"/>
       <c r="S94" s="60"/>
       <c r="T94" s="84"/>
-      <c r="U94" s="254" t="s">
+      <c r="U94" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="V94" s="243">
-        <v>1</v>
-      </c>
-      <c r="W94" s="244" t="s">
+      <c r="V94" s="250">
+        <v>1</v>
+      </c>
+      <c r="W94" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="X94" s="244" t="s">
+      <c r="X94" s="251" t="s">
         <v>27</v>
       </c>
       <c r="Y94" s="57" t="s">
@@ -8726,32 +8919,34 @@
       <c r="AN94" s="84"/>
     </row>
     <row r="95" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A95" s="255"/>
-      <c r="B95" s="229"/>
-      <c r="C95" s="227"/>
-      <c r="D95" s="227"/>
+      <c r="A95" s="262"/>
+      <c r="B95" s="236"/>
+      <c r="C95" s="234"/>
+      <c r="D95" s="234"/>
       <c r="E95" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F95" s="69"/>
+      <c r="F95" s="69" t="s">
+        <v>102</v>
+      </c>
       <c r="G95" s="30"/>
       <c r="H95" s="36"/>
       <c r="I95" s="68"/>
       <c r="J95" s="86"/>
-      <c r="K95" s="122"/>
+      <c r="K95" s="121"/>
       <c r="L95" s="108"/>
       <c r="M95" s="67"/>
-      <c r="N95" s="174"/>
+      <c r="N95" s="161"/>
       <c r="O95" s="86"/>
       <c r="P95" s="36"/>
       <c r="Q95" s="36"/>
       <c r="R95" s="36"/>
       <c r="S95" s="63"/>
       <c r="T95" s="86"/>
-      <c r="U95" s="255"/>
-      <c r="V95" s="229"/>
-      <c r="W95" s="227"/>
-      <c r="X95" s="227"/>
+      <c r="U95" s="262"/>
+      <c r="V95" s="236"/>
+      <c r="W95" s="234"/>
+      <c r="X95" s="234"/>
       <c r="Y95" s="26" t="s">
         <v>2</v>
       </c>
@@ -8772,58 +8967,60 @@
       <c r="AN95" s="86"/>
     </row>
     <row r="96" spans="1:40" ht="35.25" customHeight="1">
-      <c r="A96" s="255"/>
-      <c r="B96" s="228">
-        <v>2</v>
-      </c>
-      <c r="C96" s="226" t="s">
+      <c r="A96" s="262"/>
+      <c r="B96" s="235">
+        <v>2</v>
+      </c>
+      <c r="C96" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="226" t="s">
+      <c r="D96" s="233" t="s">
         <v>29</v>
       </c>
       <c r="E96" s="29" t="s">
         <v>1</v>
       </c>
       <c r="F96" s="69" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="G96" s="30"/>
       <c r="H96" s="36"/>
       <c r="I96" s="70"/>
       <c r="J96" s="76"/>
-      <c r="K96" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="L96" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="M96" s="67"/>
-      <c r="N96" s="174" t="s">
-        <v>116</v>
+      <c r="K96" s="229" t="s">
+        <v>132</v>
+      </c>
+      <c r="L96" s="230" t="s">
+        <v>83</v>
+      </c>
+      <c r="M96" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="N96" s="232" t="s">
+        <v>146</v>
       </c>
       <c r="O96" s="76"/>
-      <c r="P96" s="119" t="s">
+      <c r="P96" s="194" t="s">
         <v>139</v>
       </c>
-      <c r="Q96" s="119" t="s">
-        <v>129</v>
-      </c>
-      <c r="R96" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="S96" s="63" t="s">
-        <v>147</v>
+      <c r="Q96" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="R96" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="S96" s="68" t="s">
+        <v>97</v>
       </c>
       <c r="T96" s="76"/>
-      <c r="U96" s="255"/>
-      <c r="V96" s="228">
-        <v>2</v>
-      </c>
-      <c r="W96" s="226" t="s">
+      <c r="U96" s="262"/>
+      <c r="V96" s="235">
+        <v>2</v>
+      </c>
+      <c r="W96" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="X96" s="226" t="s">
+      <c r="X96" s="233" t="s">
         <v>29</v>
       </c>
       <c r="Y96" s="29" t="s">
@@ -8846,42 +9043,42 @@
       <c r="AN96" s="76"/>
     </row>
     <row r="97" spans="1:40" ht="33.75" customHeight="1">
-      <c r="A97" s="255"/>
-      <c r="B97" s="229"/>
-      <c r="C97" s="227"/>
-      <c r="D97" s="227"/>
+      <c r="A97" s="262"/>
+      <c r="B97" s="236"/>
+      <c r="C97" s="234"/>
+      <c r="D97" s="234"/>
       <c r="E97" s="29" t="s">
         <v>2</v>
       </c>
       <c r="F97" s="69" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="G97" s="30" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H97" s="36" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I97" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J97" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="J97" s="121" t="s">
-        <v>64</v>
-      </c>
-      <c r="K97" s="122"/>
+      <c r="K97" s="121"/>
       <c r="L97" s="108"/>
       <c r="M97" s="67"/>
-      <c r="N97" s="174"/>
+      <c r="N97" s="161"/>
       <c r="O97" s="76"/>
-      <c r="P97" s="119"/>
-      <c r="Q97" s="119"/>
-      <c r="R97" s="119"/>
-      <c r="S97" s="63"/>
+      <c r="P97" s="194"/>
+      <c r="Q97" s="118"/>
+      <c r="R97" s="36"/>
+      <c r="S97" s="68"/>
       <c r="T97" s="76"/>
-      <c r="U97" s="255"/>
-      <c r="V97" s="229"/>
-      <c r="W97" s="227"/>
-      <c r="X97" s="227"/>
+      <c r="U97" s="262"/>
+      <c r="V97" s="236"/>
+      <c r="W97" s="234"/>
+      <c r="X97" s="234"/>
       <c r="Y97" s="29" t="s">
         <v>2</v>
       </c>
@@ -8902,30 +9099,30 @@
       <c r="AN97" s="76"/>
     </row>
     <row r="98" spans="1:40" ht="33.75" customHeight="1">
-      <c r="A98" s="255"/>
-      <c r="B98" s="228">
+      <c r="A98" s="262"/>
+      <c r="B98" s="235">
         <v>3</v>
       </c>
-      <c r="C98" s="226" t="s">
+      <c r="C98" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="D98" s="226" t="s">
+      <c r="D98" s="233" t="s">
         <v>46</v>
       </c>
       <c r="E98" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F98" s="213" t="s">
-        <v>72</v>
-      </c>
-      <c r="G98" s="214" t="s">
-        <v>54</v>
-      </c>
-      <c r="H98" s="215" t="s">
-        <v>73</v>
+      <c r="F98" s="172" t="s">
+        <v>167</v>
+      </c>
+      <c r="G98" s="173" t="s">
+        <v>83</v>
+      </c>
+      <c r="H98" s="174" t="s">
+        <v>64</v>
       </c>
       <c r="I98" s="41" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="J98" s="76"/>
       <c r="K98" s="69"/>
@@ -8933,27 +9130,27 @@
       <c r="M98" s="36"/>
       <c r="N98" s="68"/>
       <c r="O98" s="76"/>
-      <c r="P98" s="119" t="s">
+      <c r="P98" s="194" t="s">
         <v>139</v>
       </c>
-      <c r="Q98" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="R98" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="S98" s="63" t="s">
-        <v>147</v>
+      <c r="Q98" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="R98" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="S98" s="68" t="s">
+        <v>97</v>
       </c>
       <c r="T98" s="76"/>
-      <c r="U98" s="255"/>
-      <c r="V98" s="228">
+      <c r="U98" s="262"/>
+      <c r="V98" s="235">
         <v>3</v>
       </c>
-      <c r="W98" s="226" t="s">
+      <c r="W98" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="X98" s="226" t="s">
+      <c r="X98" s="233" t="s">
         <v>46</v>
       </c>
       <c r="Y98" s="29" t="s">
@@ -8976,29 +9173,32 @@
       <c r="AN98" s="76"/>
     </row>
     <row r="99" spans="1:40" ht="44.25" customHeight="1">
-      <c r="A99" s="255"/>
-      <c r="B99" s="229"/>
-      <c r="C99" s="227"/>
-      <c r="D99" s="227"/>
+      <c r="A99" s="262"/>
+      <c r="B99" s="236"/>
+      <c r="C99" s="234"/>
+      <c r="D99" s="234"/>
       <c r="E99" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I99" s="137"/>
-      <c r="J99" s="138"/>
+      <c r="F99" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="I99" s="133"/>
+      <c r="J99" s="134"/>
       <c r="K99" s="69"/>
       <c r="L99" s="30"/>
       <c r="M99" s="36"/>
       <c r="N99" s="68"/>
       <c r="O99" s="76"/>
-      <c r="P99" s="119"/>
-      <c r="Q99" s="119"/>
-      <c r="R99" s="119"/>
-      <c r="S99" s="63"/>
+      <c r="P99" s="194"/>
+      <c r="Q99" s="118"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="68"/>
       <c r="T99" s="76"/>
-      <c r="U99" s="255"/>
-      <c r="V99" s="229"/>
-      <c r="W99" s="227"/>
-      <c r="X99" s="227"/>
+      <c r="U99" s="262"/>
+      <c r="V99" s="236"/>
+      <c r="W99" s="234"/>
+      <c r="X99" s="234"/>
       <c r="Y99" s="29" t="s">
         <v>2</v>
       </c>
@@ -9019,30 +9219,30 @@
       <c r="AN99" s="76"/>
     </row>
     <row r="100" spans="1:40" ht="35.25" customHeight="1">
-      <c r="A100" s="255"/>
-      <c r="B100" s="228">
+      <c r="A100" s="262"/>
+      <c r="B100" s="235">
         <v>4</v>
       </c>
-      <c r="C100" s="226" t="s">
+      <c r="C100" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="D100" s="226" t="s">
+      <c r="D100" s="233" t="s">
         <v>48</v>
       </c>
       <c r="E100" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F100" s="213" t="s">
-        <v>72</v>
-      </c>
-      <c r="G100" s="214" t="s">
-        <v>54</v>
-      </c>
-      <c r="H100" s="215" t="s">
-        <v>73</v>
+      <c r="F100" s="172" t="s">
+        <v>167</v>
+      </c>
+      <c r="G100" s="173" t="s">
+        <v>83</v>
+      </c>
+      <c r="H100" s="174" t="s">
+        <v>64</v>
       </c>
       <c r="I100" s="41" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="J100" s="76"/>
       <c r="K100" s="69"/>
@@ -9050,27 +9250,27 @@
       <c r="M100" s="36"/>
       <c r="N100" s="68"/>
       <c r="O100" s="76"/>
-      <c r="P100" s="119" t="s">
+      <c r="P100" s="194" t="s">
         <v>139</v>
       </c>
-      <c r="Q100" s="119" t="s">
-        <v>131</v>
-      </c>
-      <c r="R100" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="S100" s="63" t="s">
-        <v>147</v>
+      <c r="Q100" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="R100" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="S100" s="68" t="s">
+        <v>97</v>
       </c>
       <c r="T100" s="76"/>
-      <c r="U100" s="255"/>
-      <c r="V100" s="228">
+      <c r="U100" s="262"/>
+      <c r="V100" s="235">
         <v>4</v>
       </c>
-      <c r="W100" s="226" t="s">
+      <c r="W100" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="X100" s="226" t="s">
+      <c r="X100" s="233" t="s">
         <v>48</v>
       </c>
       <c r="Y100" s="29" t="s">
@@ -9093,10 +9293,10 @@
       <c r="AN100" s="76"/>
     </row>
     <row r="101" spans="1:40" ht="30.75" customHeight="1">
-      <c r="A101" s="255"/>
-      <c r="B101" s="229"/>
-      <c r="C101" s="227"/>
-      <c r="D101" s="227"/>
+      <c r="A101" s="262"/>
+      <c r="B101" s="236"/>
+      <c r="C101" s="234"/>
+      <c r="D101" s="234"/>
       <c r="E101" s="29" t="s">
         <v>2</v>
       </c>
@@ -9110,15 +9310,15 @@
       <c r="M101" s="36"/>
       <c r="N101" s="68"/>
       <c r="O101" s="76"/>
-      <c r="P101" s="69"/>
+      <c r="P101" s="59"/>
       <c r="Q101" s="30"/>
       <c r="R101" s="36"/>
       <c r="S101" s="68"/>
       <c r="T101" s="76"/>
-      <c r="U101" s="255"/>
-      <c r="V101" s="229"/>
-      <c r="W101" s="227"/>
-      <c r="X101" s="227"/>
+      <c r="U101" s="262"/>
+      <c r="V101" s="236"/>
+      <c r="W101" s="234"/>
+      <c r="X101" s="234"/>
       <c r="Y101" s="29" t="s">
         <v>2</v>
       </c>
@@ -9139,21 +9339,21 @@
       <c r="AN101" s="76"/>
     </row>
     <row r="102" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A102" s="255"/>
-      <c r="B102" s="228">
+      <c r="A102" s="262"/>
+      <c r="B102" s="235">
         <v>5</v>
       </c>
-      <c r="C102" s="226" t="s">
+      <c r="C102" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="D102" s="226" t="s">
+      <c r="D102" s="233" t="s">
         <v>49</v>
       </c>
       <c r="E102" s="29" t="s">
         <v>1</v>
       </c>
       <c r="F102" s="69" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="G102" s="30"/>
       <c r="H102" s="36"/>
@@ -9169,14 +9369,14 @@
       <c r="R102" s="36"/>
       <c r="S102" s="68"/>
       <c r="T102" s="84"/>
-      <c r="U102" s="255"/>
-      <c r="V102" s="228">
+      <c r="U102" s="262"/>
+      <c r="V102" s="235">
         <v>5</v>
       </c>
-      <c r="W102" s="226" t="s">
+      <c r="W102" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="X102" s="226" t="s">
+      <c r="X102" s="233" t="s">
         <v>49</v>
       </c>
       <c r="Y102" s="29" t="s">
@@ -9199,10 +9399,10 @@
       <c r="AN102" s="84"/>
     </row>
     <row r="103" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A103" s="255"/>
-      <c r="B103" s="229"/>
-      <c r="C103" s="227"/>
-      <c r="D103" s="227"/>
+      <c r="A103" s="262"/>
+      <c r="B103" s="236"/>
+      <c r="C103" s="234"/>
+      <c r="D103" s="234"/>
       <c r="E103" s="29" t="s">
         <v>2</v>
       </c>
@@ -9221,10 +9421,10 @@
       <c r="R103" s="36"/>
       <c r="S103" s="43"/>
       <c r="T103" s="76"/>
-      <c r="U103" s="255"/>
-      <c r="V103" s="229"/>
-      <c r="W103" s="227"/>
-      <c r="X103" s="227"/>
+      <c r="U103" s="262"/>
+      <c r="V103" s="236"/>
+      <c r="W103" s="234"/>
+      <c r="X103" s="234"/>
       <c r="Y103" s="29" t="s">
         <v>2</v>
       </c>
@@ -9245,14 +9445,14 @@
       <c r="AN103" s="76"/>
     </row>
     <row r="104" spans="1:40" ht="29.45" customHeight="1">
-      <c r="A104" s="255"/>
-      <c r="B104" s="228">
+      <c r="A104" s="262"/>
+      <c r="B104" s="235">
         <v>6</v>
       </c>
-      <c r="C104" s="226" t="s">
+      <c r="C104" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="226" t="s">
+      <c r="D104" s="233" t="s">
         <v>50</v>
       </c>
       <c r="E104" s="29" t="s">
@@ -9273,14 +9473,14 @@
       <c r="R104" s="36"/>
       <c r="S104" s="68"/>
       <c r="T104" s="75"/>
-      <c r="U104" s="255"/>
-      <c r="V104" s="228">
+      <c r="U104" s="262"/>
+      <c r="V104" s="235">
         <v>6</v>
       </c>
-      <c r="W104" s="226" t="s">
+      <c r="W104" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="X104" s="226" t="s">
+      <c r="X104" s="233" t="s">
         <v>50</v>
       </c>
       <c r="Y104" s="29" t="s">
@@ -9303,10 +9503,10 @@
       <c r="AN104" s="75"/>
     </row>
     <row r="105" spans="1:40" ht="29.45" customHeight="1" thickBot="1">
-      <c r="A105" s="256"/>
-      <c r="B105" s="229"/>
-      <c r="C105" s="227"/>
-      <c r="D105" s="227"/>
+      <c r="A105" s="263"/>
+      <c r="B105" s="236"/>
+      <c r="C105" s="234"/>
+      <c r="D105" s="234"/>
       <c r="E105" s="58" t="s">
         <v>2</v>
       </c>
@@ -9314,7 +9514,7 @@
       <c r="G105" s="46"/>
       <c r="H105" s="38"/>
       <c r="I105" s="44"/>
-      <c r="J105" s="76"/>
+      <c r="J105" s="114"/>
       <c r="K105" s="34"/>
       <c r="L105" s="46"/>
       <c r="M105" s="38"/>
@@ -9324,12 +9524,12 @@
       <c r="Q105" s="46"/>
       <c r="R105" s="38"/>
       <c r="S105" s="44"/>
-      <c r="T105" s="117"/>
-      <c r="U105" s="256"/>
-      <c r="V105" s="262"/>
-      <c r="W105" s="263"/>
-      <c r="X105" s="263"/>
-      <c r="Y105" s="118" t="s">
+      <c r="T105" s="116"/>
+      <c r="U105" s="263"/>
+      <c r="V105" s="269"/>
+      <c r="W105" s="270"/>
+      <c r="X105" s="270"/>
+      <c r="Y105" s="117" t="s">
         <v>2</v>
       </c>
       <c r="Z105" s="34"/>
@@ -9349,423 +9549,423 @@
       <c r="AN105" s="114"/>
     </row>
     <row r="106" spans="1:40" s="7" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A106" s="139"/>
-      <c r="B106" s="140"/>
-      <c r="C106" s="140" t="s">
+      <c r="A106" s="135"/>
+      <c r="B106" s="136"/>
+      <c r="C106" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="140"/>
-      <c r="E106" s="141"/>
-      <c r="F106" s="140"/>
-      <c r="G106" s="139"/>
-      <c r="H106" s="139"/>
+      <c r="D106" s="136"/>
+      <c r="E106" s="137"/>
+      <c r="F106" s="136"/>
+      <c r="G106" s="135"/>
+      <c r="H106" s="135"/>
       <c r="I106" s="87" t="s">
         <v>35</v>
       </c>
       <c r="J106" s="87"/>
-      <c r="K106" s="139"/>
-      <c r="L106" s="139"/>
-      <c r="M106" s="264"/>
-      <c r="N106" s="260"/>
-      <c r="O106" s="260"/>
-      <c r="P106" s="260"/>
-      <c r="Q106" s="259"/>
-      <c r="R106" s="260"/>
-      <c r="S106" s="261"/>
+      <c r="K106" s="135"/>
+      <c r="L106" s="135"/>
+      <c r="M106" s="271"/>
+      <c r="N106" s="267"/>
+      <c r="O106" s="267"/>
+      <c r="P106" s="267"/>
+      <c r="Q106" s="266"/>
+      <c r="R106" s="267"/>
+      <c r="S106" s="268"/>
       <c r="T106" s="87"/>
-      <c r="U106" s="139"/>
-      <c r="V106" s="140"/>
-      <c r="W106" s="140" t="s">
+      <c r="U106" s="135"/>
+      <c r="V106" s="136"/>
+      <c r="W106" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="X106" s="140"/>
-      <c r="Y106" s="141"/>
-      <c r="Z106" s="140"/>
-      <c r="AA106" s="139"/>
-      <c r="AB106" s="139"/>
+      <c r="X106" s="136"/>
+      <c r="Y106" s="137"/>
+      <c r="Z106" s="136"/>
+      <c r="AA106" s="135"/>
+      <c r="AB106" s="135"/>
       <c r="AC106" s="87" t="s">
         <v>35</v>
       </c>
       <c r="AD106" s="87"/>
-      <c r="AE106" s="139"/>
-      <c r="AF106" s="139"/>
-      <c r="AG106" s="264"/>
-      <c r="AH106" s="260"/>
-      <c r="AI106" s="260"/>
-      <c r="AJ106" s="260"/>
-      <c r="AK106" s="259"/>
-      <c r="AL106" s="260"/>
-      <c r="AM106" s="261"/>
+      <c r="AE106" s="135"/>
+      <c r="AF106" s="135"/>
+      <c r="AG106" s="271"/>
+      <c r="AH106" s="267"/>
+      <c r="AI106" s="267"/>
+      <c r="AJ106" s="267"/>
+      <c r="AK106" s="266"/>
+      <c r="AL106" s="267"/>
+      <c r="AM106" s="268"/>
       <c r="AN106" s="87"/>
     </row>
     <row r="107" spans="1:40">
-      <c r="A107" s="142"/>
-      <c r="B107" s="143"/>
-      <c r="C107" s="143"/>
-      <c r="D107" s="143"/>
-      <c r="E107" s="142"/>
-      <c r="F107" s="143"/>
-      <c r="G107" s="143"/>
-      <c r="H107" s="144"/>
+      <c r="A107" s="138"/>
+      <c r="B107" s="139"/>
+      <c r="C107" s="139"/>
+      <c r="D107" s="139"/>
+      <c r="E107" s="138"/>
+      <c r="F107" s="139"/>
+      <c r="G107" s="139"/>
+      <c r="H107" s="140"/>
       <c r="I107" s="88"/>
       <c r="J107" s="88"/>
-      <c r="K107" s="143"/>
-      <c r="L107" s="143"/>
-      <c r="M107" s="144"/>
+      <c r="K107" s="139"/>
+      <c r="L107" s="139"/>
+      <c r="M107" s="140"/>
       <c r="N107" s="88"/>
       <c r="O107" s="88"/>
-      <c r="P107" s="143"/>
-      <c r="Q107" s="143"/>
-      <c r="R107" s="144"/>
-      <c r="S107" s="145"/>
+      <c r="P107" s="139"/>
+      <c r="Q107" s="139"/>
+      <c r="R107" s="140"/>
+      <c r="S107" s="141"/>
       <c r="T107" s="88"/>
-      <c r="U107" s="142"/>
-      <c r="V107" s="143"/>
-      <c r="W107" s="143"/>
-      <c r="X107" s="143"/>
-      <c r="Y107" s="142"/>
-      <c r="Z107" s="143"/>
-      <c r="AA107" s="143"/>
-      <c r="AB107" s="144"/>
+      <c r="U107" s="138"/>
+      <c r="V107" s="139"/>
+      <c r="W107" s="139"/>
+      <c r="X107" s="139"/>
+      <c r="Y107" s="138"/>
+      <c r="Z107" s="139"/>
+      <c r="AA107" s="139"/>
+      <c r="AB107" s="140"/>
       <c r="AC107" s="88"/>
       <c r="AD107" s="88"/>
-      <c r="AE107" s="143"/>
-      <c r="AF107" s="143"/>
-      <c r="AG107" s="144"/>
+      <c r="AE107" s="139"/>
+      <c r="AF107" s="139"/>
+      <c r="AG107" s="140"/>
       <c r="AH107" s="88"/>
       <c r="AI107" s="88"/>
-      <c r="AJ107" s="143"/>
-      <c r="AK107" s="143"/>
-      <c r="AL107" s="144"/>
-      <c r="AM107" s="145"/>
+      <c r="AJ107" s="139"/>
+      <c r="AK107" s="139"/>
+      <c r="AL107" s="140"/>
+      <c r="AM107" s="141"/>
       <c r="AN107" s="88"/>
     </row>
     <row r="108" spans="1:40" ht="45.75">
-      <c r="A108" s="146"/>
-      <c r="B108" s="147"/>
-      <c r="C108" s="275" t="s">
+      <c r="A108" s="142"/>
+      <c r="B108" s="143"/>
+      <c r="C108" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="D108" s="268"/>
-      <c r="E108" s="268"/>
-      <c r="F108" s="268"/>
-      <c r="G108" s="268"/>
-      <c r="H108" s="268"/>
-      <c r="I108" s="268"/>
-      <c r="J108" s="268"/>
-      <c r="K108" s="269"/>
-      <c r="L108" s="148"/>
-      <c r="M108" s="149"/>
-      <c r="N108" s="150"/>
-      <c r="O108" s="150"/>
-      <c r="P108" s="148"/>
-      <c r="Q108" s="148"/>
-      <c r="R108" s="149"/>
-      <c r="S108" s="150"/>
-      <c r="T108" s="151"/>
-      <c r="U108" s="146"/>
-      <c r="V108" s="147"/>
-      <c r="W108" s="275" t="s">
+      <c r="D108" s="275"/>
+      <c r="E108" s="275"/>
+      <c r="F108" s="275"/>
+      <c r="G108" s="275"/>
+      <c r="H108" s="275"/>
+      <c r="I108" s="275"/>
+      <c r="J108" s="275"/>
+      <c r="K108" s="276"/>
+      <c r="L108" s="144"/>
+      <c r="M108" s="145"/>
+      <c r="N108" s="146"/>
+      <c r="O108" s="146"/>
+      <c r="P108" s="144"/>
+      <c r="Q108" s="144"/>
+      <c r="R108" s="145"/>
+      <c r="S108" s="146"/>
+      <c r="T108" s="147"/>
+      <c r="U108" s="142"/>
+      <c r="V108" s="143"/>
+      <c r="W108" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="X108" s="268"/>
-      <c r="Y108" s="268"/>
-      <c r="Z108" s="268"/>
-      <c r="AA108" s="268"/>
-      <c r="AB108" s="268"/>
-      <c r="AC108" s="268"/>
-      <c r="AD108" s="268"/>
-      <c r="AE108" s="269"/>
-      <c r="AF108" s="148"/>
-      <c r="AG108" s="149"/>
-      <c r="AH108" s="150"/>
-      <c r="AI108" s="150"/>
-      <c r="AJ108" s="148"/>
-      <c r="AK108" s="148"/>
-      <c r="AL108" s="149"/>
-      <c r="AM108" s="150"/>
-      <c r="AN108" s="151"/>
+      <c r="X108" s="275"/>
+      <c r="Y108" s="275"/>
+      <c r="Z108" s="275"/>
+      <c r="AA108" s="275"/>
+      <c r="AB108" s="275"/>
+      <c r="AC108" s="275"/>
+      <c r="AD108" s="275"/>
+      <c r="AE108" s="276"/>
+      <c r="AF108" s="144"/>
+      <c r="AG108" s="145"/>
+      <c r="AH108" s="146"/>
+      <c r="AI108" s="146"/>
+      <c r="AJ108" s="144"/>
+      <c r="AK108" s="144"/>
+      <c r="AL108" s="145"/>
+      <c r="AM108" s="146"/>
+      <c r="AN108" s="147"/>
     </row>
     <row r="109" spans="1:40" ht="33">
-      <c r="A109" s="146"/>
-      <c r="B109" s="147"/>
-      <c r="C109" s="276" t="s">
-        <v>95</v>
-      </c>
-      <c r="D109" s="268"/>
-      <c r="E109" s="268"/>
-      <c r="F109" s="268"/>
-      <c r="G109" s="268"/>
-      <c r="H109" s="268"/>
-      <c r="I109" s="268"/>
-      <c r="J109" s="268"/>
-      <c r="K109" s="269"/>
-      <c r="L109" s="148"/>
-      <c r="M109" s="149"/>
-      <c r="N109" s="150"/>
-      <c r="O109" s="150"/>
-      <c r="P109" s="148"/>
-      <c r="Q109" s="148"/>
-      <c r="R109" s="149"/>
-      <c r="S109" s="150"/>
-      <c r="T109" s="151"/>
-      <c r="U109" s="146"/>
-      <c r="V109" s="147"/>
-      <c r="W109" s="276" t="s">
-        <v>95</v>
-      </c>
-      <c r="X109" s="268"/>
-      <c r="Y109" s="268"/>
-      <c r="Z109" s="268"/>
-      <c r="AA109" s="268"/>
-      <c r="AB109" s="268"/>
-      <c r="AC109" s="268"/>
-      <c r="AD109" s="268"/>
-      <c r="AE109" s="269"/>
-      <c r="AF109" s="148"/>
-      <c r="AG109" s="149"/>
-      <c r="AH109" s="150"/>
-      <c r="AI109" s="150"/>
-      <c r="AJ109" s="148"/>
-      <c r="AK109" s="148"/>
-      <c r="AL109" s="149"/>
-      <c r="AM109" s="150"/>
-      <c r="AN109" s="151"/>
+      <c r="A109" s="142"/>
+      <c r="B109" s="143"/>
+      <c r="C109" s="283" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109" s="275"/>
+      <c r="E109" s="275"/>
+      <c r="F109" s="275"/>
+      <c r="G109" s="275"/>
+      <c r="H109" s="275"/>
+      <c r="I109" s="275"/>
+      <c r="J109" s="275"/>
+      <c r="K109" s="276"/>
+      <c r="L109" s="144"/>
+      <c r="M109" s="145"/>
+      <c r="N109" s="146"/>
+      <c r="O109" s="146"/>
+      <c r="P109" s="144"/>
+      <c r="Q109" s="144"/>
+      <c r="R109" s="145"/>
+      <c r="S109" s="146"/>
+      <c r="T109" s="147"/>
+      <c r="U109" s="142"/>
+      <c r="V109" s="143"/>
+      <c r="W109" s="283" t="s">
+        <v>70</v>
+      </c>
+      <c r="X109" s="275"/>
+      <c r="Y109" s="275"/>
+      <c r="Z109" s="275"/>
+      <c r="AA109" s="275"/>
+      <c r="AB109" s="275"/>
+      <c r="AC109" s="275"/>
+      <c r="AD109" s="275"/>
+      <c r="AE109" s="276"/>
+      <c r="AF109" s="144"/>
+      <c r="AG109" s="145"/>
+      <c r="AH109" s="146"/>
+      <c r="AI109" s="146"/>
+      <c r="AJ109" s="144"/>
+      <c r="AK109" s="144"/>
+      <c r="AL109" s="145"/>
+      <c r="AM109" s="146"/>
+      <c r="AN109" s="147"/>
     </row>
     <row r="110" spans="1:40" ht="33">
-      <c r="A110" s="146"/>
-      <c r="B110" s="147"/>
-      <c r="C110" s="270" t="s">
+      <c r="A110" s="142"/>
+      <c r="B110" s="143"/>
+      <c r="C110" s="277" t="s">
         <v>38</v>
       </c>
-      <c r="D110" s="268"/>
-      <c r="E110" s="268"/>
-      <c r="F110" s="268"/>
-      <c r="G110" s="268"/>
-      <c r="H110" s="268"/>
-      <c r="I110" s="268"/>
-      <c r="J110" s="268"/>
-      <c r="K110" s="269"/>
-      <c r="L110" s="148"/>
-      <c r="M110" s="149"/>
-      <c r="N110" s="150"/>
-      <c r="O110" s="152"/>
-      <c r="P110" s="153"/>
-      <c r="Q110" s="153"/>
-      <c r="R110" s="154"/>
-      <c r="S110" s="152"/>
-      <c r="T110" s="155"/>
-      <c r="U110" s="146"/>
-      <c r="V110" s="147"/>
-      <c r="W110" s="270" t="s">
+      <c r="D110" s="275"/>
+      <c r="E110" s="275"/>
+      <c r="F110" s="275"/>
+      <c r="G110" s="275"/>
+      <c r="H110" s="275"/>
+      <c r="I110" s="275"/>
+      <c r="J110" s="275"/>
+      <c r="K110" s="276"/>
+      <c r="L110" s="144"/>
+      <c r="M110" s="145"/>
+      <c r="N110" s="146"/>
+      <c r="O110" s="148"/>
+      <c r="P110" s="149"/>
+      <c r="Q110" s="149"/>
+      <c r="R110" s="150"/>
+      <c r="S110" s="148"/>
+      <c r="T110" s="151"/>
+      <c r="U110" s="142"/>
+      <c r="V110" s="143"/>
+      <c r="W110" s="277" t="s">
         <v>38</v>
       </c>
-      <c r="X110" s="268"/>
-      <c r="Y110" s="268"/>
-      <c r="Z110" s="268"/>
-      <c r="AA110" s="268"/>
-      <c r="AB110" s="268"/>
-      <c r="AC110" s="268"/>
-      <c r="AD110" s="268"/>
-      <c r="AE110" s="269"/>
-      <c r="AF110" s="148"/>
-      <c r="AG110" s="149"/>
-      <c r="AH110" s="150"/>
-      <c r="AI110" s="152"/>
-      <c r="AJ110" s="153"/>
-      <c r="AK110" s="153"/>
-      <c r="AL110" s="154"/>
-      <c r="AM110" s="152"/>
-      <c r="AN110" s="155"/>
+      <c r="X110" s="275"/>
+      <c r="Y110" s="275"/>
+      <c r="Z110" s="275"/>
+      <c r="AA110" s="275"/>
+      <c r="AB110" s="275"/>
+      <c r="AC110" s="275"/>
+      <c r="AD110" s="275"/>
+      <c r="AE110" s="276"/>
+      <c r="AF110" s="144"/>
+      <c r="AG110" s="145"/>
+      <c r="AH110" s="146"/>
+      <c r="AI110" s="148"/>
+      <c r="AJ110" s="149"/>
+      <c r="AK110" s="149"/>
+      <c r="AL110" s="150"/>
+      <c r="AM110" s="148"/>
+      <c r="AN110" s="151"/>
     </row>
     <row r="111" spans="1:40" ht="33">
-      <c r="A111" s="146"/>
-      <c r="B111" s="147"/>
-      <c r="C111" s="271" t="s">
+      <c r="A111" s="142"/>
+      <c r="B111" s="143"/>
+      <c r="C111" s="278" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="272"/>
-      <c r="E111" s="272"/>
-      <c r="F111" s="272"/>
-      <c r="G111" s="272"/>
-      <c r="H111" s="272"/>
-      <c r="I111" s="272"/>
-      <c r="J111" s="272"/>
-      <c r="K111" s="273"/>
-      <c r="L111" s="148"/>
-      <c r="M111" s="149"/>
-      <c r="N111" s="150"/>
-      <c r="O111" s="156"/>
-      <c r="P111" s="153"/>
-      <c r="Q111" s="153"/>
-      <c r="R111" s="154"/>
-      <c r="S111" s="152"/>
-      <c r="T111" s="157"/>
-      <c r="U111" s="146"/>
-      <c r="V111" s="147"/>
-      <c r="W111" s="271" t="s">
+      <c r="D111" s="279"/>
+      <c r="E111" s="279"/>
+      <c r="F111" s="279"/>
+      <c r="G111" s="279"/>
+      <c r="H111" s="279"/>
+      <c r="I111" s="279"/>
+      <c r="J111" s="279"/>
+      <c r="K111" s="280"/>
+      <c r="L111" s="144"/>
+      <c r="M111" s="145"/>
+      <c r="N111" s="146"/>
+      <c r="O111" s="152"/>
+      <c r="P111" s="149"/>
+      <c r="Q111" s="149"/>
+      <c r="R111" s="150"/>
+      <c r="S111" s="148"/>
+      <c r="T111" s="153"/>
+      <c r="U111" s="142"/>
+      <c r="V111" s="143"/>
+      <c r="W111" s="278" t="s">
         <v>39</v>
       </c>
-      <c r="X111" s="272"/>
-      <c r="Y111" s="272"/>
-      <c r="Z111" s="272"/>
-      <c r="AA111" s="272"/>
-      <c r="AB111" s="272"/>
-      <c r="AC111" s="272"/>
-      <c r="AD111" s="272"/>
-      <c r="AE111" s="273"/>
-      <c r="AF111" s="148"/>
-      <c r="AG111" s="149"/>
-      <c r="AH111" s="150"/>
-      <c r="AI111" s="156"/>
-      <c r="AJ111" s="153"/>
-      <c r="AK111" s="153"/>
-      <c r="AL111" s="154"/>
-      <c r="AM111" s="152"/>
-      <c r="AN111" s="157"/>
+      <c r="X111" s="279"/>
+      <c r="Y111" s="279"/>
+      <c r="Z111" s="279"/>
+      <c r="AA111" s="279"/>
+      <c r="AB111" s="279"/>
+      <c r="AC111" s="279"/>
+      <c r="AD111" s="279"/>
+      <c r="AE111" s="280"/>
+      <c r="AF111" s="144"/>
+      <c r="AG111" s="145"/>
+      <c r="AH111" s="146"/>
+      <c r="AI111" s="152"/>
+      <c r="AJ111" s="149"/>
+      <c r="AK111" s="149"/>
+      <c r="AL111" s="150"/>
+      <c r="AM111" s="148"/>
+      <c r="AN111" s="153"/>
     </row>
     <row r="112" spans="1:40" ht="33">
-      <c r="A112" s="146"/>
-      <c r="B112" s="147"/>
-      <c r="C112" s="277" t="s">
+      <c r="A112" s="142"/>
+      <c r="B112" s="143"/>
+      <c r="C112" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="D112" s="272"/>
-      <c r="E112" s="272"/>
-      <c r="F112" s="272"/>
-      <c r="G112" s="272"/>
-      <c r="H112" s="272"/>
-      <c r="I112" s="272"/>
-      <c r="J112" s="272"/>
-      <c r="K112" s="273"/>
-      <c r="L112" s="148"/>
-      <c r="M112" s="149"/>
-      <c r="N112" s="150"/>
-      <c r="O112" s="158"/>
-      <c r="P112" s="153"/>
-      <c r="Q112" s="153"/>
-      <c r="R112" s="154"/>
-      <c r="S112" s="152"/>
-      <c r="T112" s="159"/>
-      <c r="U112" s="146"/>
-      <c r="V112" s="147"/>
-      <c r="W112" s="277" t="s">
+      <c r="D112" s="279"/>
+      <c r="E112" s="279"/>
+      <c r="F112" s="279"/>
+      <c r="G112" s="279"/>
+      <c r="H112" s="279"/>
+      <c r="I112" s="279"/>
+      <c r="J112" s="279"/>
+      <c r="K112" s="280"/>
+      <c r="L112" s="144"/>
+      <c r="M112" s="145"/>
+      <c r="N112" s="146"/>
+      <c r="O112" s="154"/>
+      <c r="P112" s="149"/>
+      <c r="Q112" s="149"/>
+      <c r="R112" s="150"/>
+      <c r="S112" s="148"/>
+      <c r="T112" s="155"/>
+      <c r="U112" s="142"/>
+      <c r="V112" s="143"/>
+      <c r="W112" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="X112" s="272"/>
-      <c r="Y112" s="272"/>
-      <c r="Z112" s="272"/>
-      <c r="AA112" s="272"/>
-      <c r="AB112" s="272"/>
-      <c r="AC112" s="272"/>
-      <c r="AD112" s="272"/>
-      <c r="AE112" s="273"/>
-      <c r="AF112" s="148"/>
-      <c r="AG112" s="149"/>
-      <c r="AH112" s="150"/>
-      <c r="AI112" s="158"/>
-      <c r="AJ112" s="153"/>
-      <c r="AK112" s="153"/>
-      <c r="AL112" s="154"/>
-      <c r="AM112" s="152"/>
-      <c r="AN112" s="159"/>
+      <c r="X112" s="279"/>
+      <c r="Y112" s="279"/>
+      <c r="Z112" s="279"/>
+      <c r="AA112" s="279"/>
+      <c r="AB112" s="279"/>
+      <c r="AC112" s="279"/>
+      <c r="AD112" s="279"/>
+      <c r="AE112" s="280"/>
+      <c r="AF112" s="144"/>
+      <c r="AG112" s="145"/>
+      <c r="AH112" s="146"/>
+      <c r="AI112" s="154"/>
+      <c r="AJ112" s="149"/>
+      <c r="AK112" s="149"/>
+      <c r="AL112" s="150"/>
+      <c r="AM112" s="148"/>
+      <c r="AN112" s="155"/>
     </row>
     <row r="113" spans="1:40" ht="33">
-      <c r="A113" s="146"/>
-      <c r="B113" s="147"/>
-      <c r="C113" s="267" t="s">
+      <c r="A113" s="142"/>
+      <c r="B113" s="143"/>
+      <c r="C113" s="274" t="s">
         <v>41</v>
       </c>
-      <c r="D113" s="268"/>
-      <c r="E113" s="268"/>
-      <c r="F113" s="268"/>
-      <c r="G113" s="268"/>
-      <c r="H113" s="268"/>
-      <c r="I113" s="268"/>
-      <c r="J113" s="268"/>
-      <c r="K113" s="269"/>
-      <c r="L113" s="148"/>
-      <c r="M113" s="149"/>
-      <c r="N113" s="150"/>
-      <c r="O113" s="152"/>
-      <c r="P113" s="153"/>
-      <c r="Q113" s="153"/>
-      <c r="R113" s="154"/>
-      <c r="S113" s="152"/>
-      <c r="T113" s="155"/>
-      <c r="U113" s="146"/>
-      <c r="V113" s="147"/>
-      <c r="W113" s="267" t="s">
+      <c r="D113" s="275"/>
+      <c r="E113" s="275"/>
+      <c r="F113" s="275"/>
+      <c r="G113" s="275"/>
+      <c r="H113" s="275"/>
+      <c r="I113" s="275"/>
+      <c r="J113" s="275"/>
+      <c r="K113" s="276"/>
+      <c r="L113" s="144"/>
+      <c r="M113" s="145"/>
+      <c r="N113" s="146"/>
+      <c r="O113" s="148"/>
+      <c r="P113" s="149"/>
+      <c r="Q113" s="149"/>
+      <c r="R113" s="150"/>
+      <c r="S113" s="148"/>
+      <c r="T113" s="151"/>
+      <c r="U113" s="142"/>
+      <c r="V113" s="143"/>
+      <c r="W113" s="274" t="s">
         <v>41</v>
       </c>
-      <c r="X113" s="268"/>
-      <c r="Y113" s="268"/>
-      <c r="Z113" s="268"/>
-      <c r="AA113" s="268"/>
-      <c r="AB113" s="268"/>
-      <c r="AC113" s="268"/>
-      <c r="AD113" s="268"/>
-      <c r="AE113" s="269"/>
-      <c r="AF113" s="148"/>
-      <c r="AG113" s="149"/>
-      <c r="AH113" s="150"/>
-      <c r="AI113" s="152"/>
-      <c r="AJ113" s="153"/>
-      <c r="AK113" s="153"/>
-      <c r="AL113" s="154"/>
-      <c r="AM113" s="152"/>
-      <c r="AN113" s="155"/>
+      <c r="X113" s="275"/>
+      <c r="Y113" s="275"/>
+      <c r="Z113" s="275"/>
+      <c r="AA113" s="275"/>
+      <c r="AB113" s="275"/>
+      <c r="AC113" s="275"/>
+      <c r="AD113" s="275"/>
+      <c r="AE113" s="276"/>
+      <c r="AF113" s="144"/>
+      <c r="AG113" s="145"/>
+      <c r="AH113" s="146"/>
+      <c r="AI113" s="148"/>
+      <c r="AJ113" s="149"/>
+      <c r="AK113" s="149"/>
+      <c r="AL113" s="150"/>
+      <c r="AM113" s="148"/>
+      <c r="AN113" s="151"/>
     </row>
     <row r="114" spans="1:40" ht="33">
-      <c r="A114" s="146"/>
-      <c r="B114" s="147"/>
-      <c r="C114" s="274" t="s">
+      <c r="A114" s="142"/>
+      <c r="B114" s="143"/>
+      <c r="C114" s="281" t="s">
         <v>42</v>
       </c>
-      <c r="D114" s="268"/>
-      <c r="E114" s="268"/>
-      <c r="F114" s="268"/>
-      <c r="G114" s="268"/>
-      <c r="H114" s="268"/>
-      <c r="I114" s="268"/>
-      <c r="J114" s="268"/>
-      <c r="K114" s="269"/>
-      <c r="L114" s="148"/>
-      <c r="M114" s="149"/>
-      <c r="N114" s="150"/>
-      <c r="O114" s="152"/>
-      <c r="P114" s="153"/>
-      <c r="Q114" s="153"/>
-      <c r="R114" s="154"/>
-      <c r="S114" s="152"/>
-      <c r="T114" s="155"/>
-      <c r="U114" s="146"/>
-      <c r="V114" s="147"/>
-      <c r="W114" s="274" t="s">
+      <c r="D114" s="275"/>
+      <c r="E114" s="275"/>
+      <c r="F114" s="275"/>
+      <c r="G114" s="275"/>
+      <c r="H114" s="275"/>
+      <c r="I114" s="275"/>
+      <c r="J114" s="275"/>
+      <c r="K114" s="276"/>
+      <c r="L114" s="144"/>
+      <c r="M114" s="145"/>
+      <c r="N114" s="146"/>
+      <c r="O114" s="148"/>
+      <c r="P114" s="149"/>
+      <c r="Q114" s="149"/>
+      <c r="R114" s="150"/>
+      <c r="S114" s="148"/>
+      <c r="T114" s="151"/>
+      <c r="U114" s="142"/>
+      <c r="V114" s="143"/>
+      <c r="W114" s="281" t="s">
         <v>42</v>
       </c>
-      <c r="X114" s="268"/>
-      <c r="Y114" s="268"/>
-      <c r="Z114" s="268"/>
-      <c r="AA114" s="268"/>
-      <c r="AB114" s="268"/>
-      <c r="AC114" s="268"/>
-      <c r="AD114" s="268"/>
-      <c r="AE114" s="269"/>
-      <c r="AF114" s="148"/>
-      <c r="AG114" s="149"/>
-      <c r="AH114" s="150"/>
-      <c r="AI114" s="152"/>
-      <c r="AJ114" s="153"/>
-      <c r="AK114" s="153"/>
-      <c r="AL114" s="154"/>
-      <c r="AM114" s="152"/>
-      <c r="AN114" s="155"/>
+      <c r="X114" s="275"/>
+      <c r="Y114" s="275"/>
+      <c r="Z114" s="275"/>
+      <c r="AA114" s="275"/>
+      <c r="AB114" s="275"/>
+      <c r="AC114" s="275"/>
+      <c r="AD114" s="275"/>
+      <c r="AE114" s="276"/>
+      <c r="AF114" s="144"/>
+      <c r="AG114" s="145"/>
+      <c r="AH114" s="146"/>
+      <c r="AI114" s="148"/>
+      <c r="AJ114" s="149"/>
+      <c r="AK114" s="149"/>
+      <c r="AL114" s="150"/>
+      <c r="AM114" s="148"/>
+      <c r="AN114" s="151"/>
     </row>
     <row r="115" spans="1:40" ht="33">
-      <c r="A115" s="146"/>
-      <c r="B115" s="147"/>
-      <c r="C115" s="160" t="s">
+      <c r="A115" s="142"/>
+      <c r="B115" s="143"/>
+      <c r="C115" s="156" t="s">
         <v>20</v>
       </c>
       <c r="D115" s="89"/>
@@ -9776,18 +9976,18 @@
       <c r="I115" s="89"/>
       <c r="J115" s="89"/>
       <c r="K115" s="89"/>
-      <c r="L115" s="148"/>
-      <c r="M115" s="149"/>
-      <c r="N115" s="150"/>
+      <c r="L115" s="144"/>
+      <c r="M115" s="145"/>
+      <c r="N115" s="146"/>
       <c r="O115" s="89"/>
-      <c r="P115" s="148"/>
-      <c r="Q115" s="148"/>
-      <c r="R115" s="149"/>
-      <c r="S115" s="150"/>
-      <c r="T115" s="161"/>
-      <c r="U115" s="146"/>
-      <c r="V115" s="147"/>
-      <c r="W115" s="160" t="s">
+      <c r="P115" s="144"/>
+      <c r="Q115" s="144"/>
+      <c r="R115" s="145"/>
+      <c r="S115" s="146"/>
+      <c r="T115" s="157"/>
+      <c r="U115" s="142"/>
+      <c r="V115" s="143"/>
+      <c r="W115" s="156" t="s">
         <v>20</v>
       </c>
       <c r="X115" s="89"/>
@@ -9798,20 +9998,20 @@
       <c r="AC115" s="89"/>
       <c r="AD115" s="89"/>
       <c r="AE115" s="89"/>
-      <c r="AF115" s="148"/>
-      <c r="AG115" s="149"/>
-      <c r="AH115" s="150"/>
+      <c r="AF115" s="144"/>
+      <c r="AG115" s="145"/>
+      <c r="AH115" s="146"/>
       <c r="AI115" s="89"/>
-      <c r="AJ115" s="148"/>
-      <c r="AK115" s="148"/>
-      <c r="AL115" s="149"/>
-      <c r="AM115" s="150"/>
-      <c r="AN115" s="161"/>
+      <c r="AJ115" s="144"/>
+      <c r="AK115" s="144"/>
+      <c r="AL115" s="145"/>
+      <c r="AM115" s="146"/>
+      <c r="AN115" s="157"/>
     </row>
     <row r="116" spans="1:40" ht="33">
-      <c r="A116" s="146"/>
-      <c r="B116" s="147"/>
-      <c r="C116" s="160" t="s">
+      <c r="A116" s="142"/>
+      <c r="B116" s="143"/>
+      <c r="C116" s="156" t="s">
         <v>21</v>
       </c>
       <c r="D116" s="89"/>
@@ -9822,18 +10022,18 @@
       <c r="I116" s="89"/>
       <c r="J116" s="89"/>
       <c r="K116" s="89"/>
-      <c r="L116" s="148"/>
-      <c r="M116" s="149"/>
-      <c r="N116" s="150"/>
+      <c r="L116" s="144"/>
+      <c r="M116" s="145"/>
+      <c r="N116" s="146"/>
       <c r="O116" s="89"/>
-      <c r="P116" s="148"/>
-      <c r="Q116" s="148"/>
-      <c r="R116" s="149"/>
-      <c r="S116" s="150"/>
-      <c r="T116" s="161"/>
-      <c r="U116" s="146"/>
-      <c r="V116" s="147"/>
-      <c r="W116" s="160" t="s">
+      <c r="P116" s="144"/>
+      <c r="Q116" s="144"/>
+      <c r="R116" s="145"/>
+      <c r="S116" s="146"/>
+      <c r="T116" s="157"/>
+      <c r="U116" s="142"/>
+      <c r="V116" s="143"/>
+      <c r="W116" s="156" t="s">
         <v>21</v>
       </c>
       <c r="X116" s="89"/>
@@ -9844,20 +10044,20 @@
       <c r="AC116" s="89"/>
       <c r="AD116" s="89"/>
       <c r="AE116" s="89"/>
-      <c r="AF116" s="148"/>
-      <c r="AG116" s="149"/>
-      <c r="AH116" s="150"/>
+      <c r="AF116" s="144"/>
+      <c r="AG116" s="145"/>
+      <c r="AH116" s="146"/>
       <c r="AI116" s="89"/>
-      <c r="AJ116" s="148"/>
-      <c r="AK116" s="148"/>
-      <c r="AL116" s="149"/>
-      <c r="AM116" s="150"/>
-      <c r="AN116" s="161"/>
+      <c r="AJ116" s="144"/>
+      <c r="AK116" s="144"/>
+      <c r="AL116" s="145"/>
+      <c r="AM116" s="146"/>
+      <c r="AN116" s="157"/>
     </row>
     <row r="117" spans="1:40" ht="33">
-      <c r="A117" s="146"/>
-      <c r="B117" s="147"/>
-      <c r="C117" s="160" t="s">
+      <c r="A117" s="142"/>
+      <c r="B117" s="143"/>
+      <c r="C117" s="156" t="s">
         <v>22</v>
       </c>
       <c r="D117" s="89"/>
@@ -9868,18 +10068,18 @@
       <c r="I117" s="89"/>
       <c r="J117" s="89"/>
       <c r="K117" s="89"/>
-      <c r="L117" s="148"/>
-      <c r="M117" s="149"/>
-      <c r="N117" s="150"/>
+      <c r="L117" s="144"/>
+      <c r="M117" s="145"/>
+      <c r="N117" s="146"/>
       <c r="O117" s="89"/>
-      <c r="P117" s="148"/>
-      <c r="Q117" s="148"/>
-      <c r="R117" s="149"/>
-      <c r="S117" s="150"/>
-      <c r="T117" s="161"/>
-      <c r="U117" s="146"/>
-      <c r="V117" s="147"/>
-      <c r="W117" s="160" t="s">
+      <c r="P117" s="144"/>
+      <c r="Q117" s="144"/>
+      <c r="R117" s="145"/>
+      <c r="S117" s="146"/>
+      <c r="T117" s="157"/>
+      <c r="U117" s="142"/>
+      <c r="V117" s="143"/>
+      <c r="W117" s="156" t="s">
         <v>22</v>
       </c>
       <c r="X117" s="89"/>
@@ -9890,20 +10090,20 @@
       <c r="AC117" s="89"/>
       <c r="AD117" s="89"/>
       <c r="AE117" s="89"/>
-      <c r="AF117" s="148"/>
-      <c r="AG117" s="149"/>
-      <c r="AH117" s="150"/>
+      <c r="AF117" s="144"/>
+      <c r="AG117" s="145"/>
+      <c r="AH117" s="146"/>
       <c r="AI117" s="89"/>
-      <c r="AJ117" s="148"/>
-      <c r="AK117" s="148"/>
-      <c r="AL117" s="149"/>
-      <c r="AM117" s="150"/>
-      <c r="AN117" s="161"/>
+      <c r="AJ117" s="144"/>
+      <c r="AK117" s="144"/>
+      <c r="AL117" s="145"/>
+      <c r="AM117" s="146"/>
+      <c r="AN117" s="157"/>
     </row>
     <row r="118" spans="1:40" ht="33">
-      <c r="A118" s="146"/>
-      <c r="B118" s="147"/>
-      <c r="C118" s="160" t="s">
+      <c r="A118" s="142"/>
+      <c r="B118" s="143"/>
+      <c r="C118" s="156" t="s">
         <v>23</v>
       </c>
       <c r="D118" s="89"/>
@@ -9914,18 +10114,18 @@
       <c r="I118" s="89"/>
       <c r="J118" s="89"/>
       <c r="K118" s="89"/>
-      <c r="L118" s="148"/>
-      <c r="M118" s="149"/>
-      <c r="N118" s="150"/>
+      <c r="L118" s="144"/>
+      <c r="M118" s="145"/>
+      <c r="N118" s="146"/>
       <c r="O118" s="89"/>
-      <c r="P118" s="148"/>
-      <c r="Q118" s="148"/>
-      <c r="R118" s="149"/>
-      <c r="S118" s="150"/>
-      <c r="T118" s="161"/>
-      <c r="U118" s="146"/>
-      <c r="V118" s="147"/>
-      <c r="W118" s="160" t="s">
+      <c r="P118" s="144"/>
+      <c r="Q118" s="144"/>
+      <c r="R118" s="145"/>
+      <c r="S118" s="146"/>
+      <c r="T118" s="157"/>
+      <c r="U118" s="142"/>
+      <c r="V118" s="143"/>
+      <c r="W118" s="156" t="s">
         <v>23</v>
       </c>
       <c r="X118" s="89"/>
@@ -9936,20 +10136,20 @@
       <c r="AC118" s="89"/>
       <c r="AD118" s="89"/>
       <c r="AE118" s="89"/>
-      <c r="AF118" s="148"/>
-      <c r="AG118" s="149"/>
-      <c r="AH118" s="150"/>
+      <c r="AF118" s="144"/>
+      <c r="AG118" s="145"/>
+      <c r="AH118" s="146"/>
       <c r="AI118" s="89"/>
-      <c r="AJ118" s="148"/>
-      <c r="AK118" s="148"/>
-      <c r="AL118" s="149"/>
-      <c r="AM118" s="150"/>
-      <c r="AN118" s="161"/>
+      <c r="AJ118" s="144"/>
+      <c r="AK118" s="144"/>
+      <c r="AL118" s="145"/>
+      <c r="AM118" s="146"/>
+      <c r="AN118" s="157"/>
     </row>
     <row r="119" spans="1:40" ht="33">
-      <c r="A119" s="146"/>
-      <c r="B119" s="147"/>
-      <c r="C119" s="160" t="s">
+      <c r="A119" s="142"/>
+      <c r="B119" s="143"/>
+      <c r="C119" s="156" t="s">
         <v>24</v>
       </c>
       <c r="D119" s="89"/>
@@ -9960,18 +10160,18 @@
       <c r="I119" s="89"/>
       <c r="J119" s="89"/>
       <c r="K119" s="89"/>
-      <c r="L119" s="148"/>
-      <c r="M119" s="149"/>
-      <c r="N119" s="150"/>
+      <c r="L119" s="144"/>
+      <c r="M119" s="145"/>
+      <c r="N119" s="146"/>
       <c r="O119" s="89"/>
-      <c r="P119" s="148"/>
-      <c r="Q119" s="148"/>
-      <c r="R119" s="149"/>
-      <c r="S119" s="150"/>
-      <c r="T119" s="161"/>
-      <c r="U119" s="146"/>
-      <c r="V119" s="147"/>
-      <c r="W119" s="160" t="s">
+      <c r="P119" s="144"/>
+      <c r="Q119" s="144"/>
+      <c r="R119" s="145"/>
+      <c r="S119" s="146"/>
+      <c r="T119" s="157"/>
+      <c r="U119" s="142"/>
+      <c r="V119" s="143"/>
+      <c r="W119" s="156" t="s">
         <v>24</v>
       </c>
       <c r="X119" s="89"/>
@@ -9982,20 +10182,20 @@
       <c r="AC119" s="89"/>
       <c r="AD119" s="89"/>
       <c r="AE119" s="89"/>
-      <c r="AF119" s="148"/>
-      <c r="AG119" s="149"/>
-      <c r="AH119" s="150"/>
+      <c r="AF119" s="144"/>
+      <c r="AG119" s="145"/>
+      <c r="AH119" s="146"/>
       <c r="AI119" s="89"/>
-      <c r="AJ119" s="148"/>
-      <c r="AK119" s="148"/>
-      <c r="AL119" s="149"/>
-      <c r="AM119" s="150"/>
-      <c r="AN119" s="161"/>
+      <c r="AJ119" s="144"/>
+      <c r="AK119" s="144"/>
+      <c r="AL119" s="145"/>
+      <c r="AM119" s="146"/>
+      <c r="AN119" s="157"/>
     </row>
     <row r="120" spans="1:40" ht="33">
-      <c r="A120" s="162"/>
-      <c r="B120" s="147"/>
-      <c r="C120" s="160" t="s">
+      <c r="A120" s="158"/>
+      <c r="B120" s="143"/>
+      <c r="C120" s="156" t="s">
         <v>43</v>
       </c>
       <c r="D120" s="89"/>
@@ -10006,18 +10206,18 @@
       <c r="I120" s="89"/>
       <c r="J120" s="89"/>
       <c r="K120" s="89"/>
-      <c r="L120" s="148"/>
-      <c r="M120" s="149"/>
-      <c r="N120" s="150"/>
+      <c r="L120" s="144"/>
+      <c r="M120" s="145"/>
+      <c r="N120" s="146"/>
       <c r="O120" s="89"/>
-      <c r="P120" s="148"/>
-      <c r="Q120" s="148"/>
-      <c r="R120" s="149"/>
-      <c r="S120" s="150"/>
-      <c r="T120" s="161"/>
-      <c r="U120" s="162"/>
-      <c r="V120" s="147"/>
-      <c r="W120" s="160" t="s">
+      <c r="P120" s="144"/>
+      <c r="Q120" s="144"/>
+      <c r="R120" s="145"/>
+      <c r="S120" s="146"/>
+      <c r="T120" s="157"/>
+      <c r="U120" s="158"/>
+      <c r="V120" s="143"/>
+      <c r="W120" s="156" t="s">
         <v>43</v>
       </c>
       <c r="X120" s="89"/>
@@ -10028,20 +10228,20 @@
       <c r="AC120" s="89"/>
       <c r="AD120" s="89"/>
       <c r="AE120" s="89"/>
-      <c r="AF120" s="148"/>
-      <c r="AG120" s="149"/>
-      <c r="AH120" s="150"/>
+      <c r="AF120" s="144"/>
+      <c r="AG120" s="145"/>
+      <c r="AH120" s="146"/>
       <c r="AI120" s="89"/>
-      <c r="AJ120" s="148"/>
-      <c r="AK120" s="148"/>
-      <c r="AL120" s="149"/>
-      <c r="AM120" s="150"/>
-      <c r="AN120" s="161"/>
+      <c r="AJ120" s="144"/>
+      <c r="AK120" s="144"/>
+      <c r="AL120" s="145"/>
+      <c r="AM120" s="146"/>
+      <c r="AN120" s="157"/>
     </row>
     <row r="121" spans="1:40" ht="33">
-      <c r="A121" s="162"/>
-      <c r="B121" s="148"/>
-      <c r="C121" s="160" t="s">
+      <c r="A121" s="158"/>
+      <c r="B121" s="144"/>
+      <c r="C121" s="156" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="89"/>
@@ -10052,18 +10252,18 @@
       <c r="I121" s="89"/>
       <c r="J121" s="89"/>
       <c r="K121" s="89"/>
-      <c r="L121" s="148"/>
-      <c r="M121" s="149"/>
-      <c r="N121" s="150"/>
+      <c r="L121" s="144"/>
+      <c r="M121" s="145"/>
+      <c r="N121" s="146"/>
       <c r="O121" s="89"/>
-      <c r="P121" s="148"/>
-      <c r="Q121" s="148"/>
-      <c r="R121" s="149"/>
-      <c r="S121" s="150"/>
-      <c r="T121" s="161"/>
-      <c r="U121" s="162"/>
-      <c r="V121" s="148"/>
-      <c r="W121" s="160" t="s">
+      <c r="P121" s="144"/>
+      <c r="Q121" s="144"/>
+      <c r="R121" s="145"/>
+      <c r="S121" s="146"/>
+      <c r="T121" s="157"/>
+      <c r="U121" s="158"/>
+      <c r="V121" s="144"/>
+      <c r="W121" s="156" t="s">
         <v>25</v>
       </c>
       <c r="X121" s="89"/>
@@ -10074,15 +10274,15 @@
       <c r="AC121" s="89"/>
       <c r="AD121" s="89"/>
       <c r="AE121" s="89"/>
-      <c r="AF121" s="148"/>
-      <c r="AG121" s="149"/>
-      <c r="AH121" s="150"/>
+      <c r="AF121" s="144"/>
+      <c r="AG121" s="145"/>
+      <c r="AH121" s="146"/>
       <c r="AI121" s="89"/>
-      <c r="AJ121" s="148"/>
-      <c r="AK121" s="148"/>
-      <c r="AL121" s="149"/>
-      <c r="AM121" s="150"/>
-      <c r="AN121" s="161"/>
+      <c r="AJ121" s="144"/>
+      <c r="AK121" s="144"/>
+      <c r="AL121" s="145"/>
+      <c r="AM121" s="146"/>
+      <c r="AN121" s="157"/>
     </row>
     <row r="122" spans="1:40" ht="30.75">
       <c r="A122" s="8"/>
@@ -10641,19 +10841,22 @@
     <hyperlink ref="J14" r:id="rId3"/>
     <hyperlink ref="J10" r:id="rId4"/>
     <hyperlink ref="J11" r:id="rId5"/>
-    <hyperlink ref="J12" r:id="rId6"/>
-    <hyperlink ref="J13" r:id="rId7"/>
-    <hyperlink ref="J97" r:id="rId8"/>
-    <hyperlink ref="J86" r:id="rId9"/>
-    <hyperlink ref="J22" r:id="rId10"/>
-    <hyperlink ref="J23" r:id="rId11"/>
-    <hyperlink ref="J24" r:id="rId12"/>
-    <hyperlink ref="J25" r:id="rId13"/>
-    <hyperlink ref="J87" r:id="rId14"/>
-    <hyperlink ref="J59" r:id="rId15"/>
+    <hyperlink ref="J97" r:id="rId6"/>
+    <hyperlink ref="J86" r:id="rId7"/>
+    <hyperlink ref="J22" r:id="rId8"/>
+    <hyperlink ref="J23" r:id="rId9"/>
+    <hyperlink ref="J24" r:id="rId10"/>
+    <hyperlink ref="J25" r:id="rId11"/>
+    <hyperlink ref="J87" r:id="rId12"/>
+    <hyperlink ref="J8" r:id="rId13"/>
+    <hyperlink ref="J9" r:id="rId14"/>
+    <hyperlink ref="J12" r:id="rId15"/>
+    <hyperlink ref="J13" r:id="rId16"/>
+    <hyperlink ref="J4" r:id="rId17"/>
+    <hyperlink ref="J5" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="20" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="8" scale="20" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
